--- a/SituationalDashboard.xlsx
+++ b/SituationalDashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chart_index" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>data_level</t>
   </si>
@@ -159,6 +159,21 @@
     <t>District</t>
   </si>
   <si>
+    <t>Number of reported Non Polio AFP cases</t>
+  </si>
+  <si>
+    <t>Number of Unvaccinated Non Polio AFP Cases</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 1-3 doses</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 4-6 doses</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 7+ doses</t>
+  </si>
+  <si>
     <t>Number of inaccesible children</t>
   </si>
   <si>
@@ -205,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -246,6 +261,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +290,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +301,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -561,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -575,19 +597,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -898,15 +920,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" customWidth="1"/>
@@ -920,28 +941,28 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -949,16 +970,16 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -967,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>20</v>
@@ -978,13 +999,27 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -992,13 +1027,27 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1006,13 +1055,27 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1020,13 +1083,27 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1034,13 +1111,27 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1048,8 +1139,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1062,8 +1152,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1076,8 +1165,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1090,8 +1178,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1104,8 +1191,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>

--- a/SituationalDashboard.xlsx
+++ b/SituationalDashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1360" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="2300" yWindow="4740" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="chart_index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="142">
   <si>
     <t>t2</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>Number of children missed due to all access issues</t>
+  </si>
+  <si>
+    <t>District</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>District</t>
@@ -857,8 +861,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -871,62 +875,62 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -934,22 +938,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1">
         <v>28</v>
@@ -957,22 +961,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1">
         <v>28</v>
@@ -980,22 +984,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1">
         <v>16</v>
@@ -1003,22 +1007,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -1026,22 +1030,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1">
         <v>28</v>
@@ -1049,22 +1053,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -1072,22 +1076,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1095,22 +1099,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1118,22 +1122,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -1141,22 +1145,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1164,28 +1168,29 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1201,8 +1206,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H15" sqref="A15:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -1222,28 +1227,28 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1251,16 +1256,16 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1269,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1280,16 +1285,16 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -1298,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1310,16 +1315,16 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1328,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>0</v>
@@ -1340,16 +1345,16 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1358,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>1</v>
@@ -1370,16 +1375,16 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1388,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>1</v>
@@ -1403,13 +1408,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1418,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1430,16 +1435,16 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1448,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1460,16 +1465,16 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1478,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1490,16 +1495,16 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1508,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1520,16 +1525,16 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1538,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1550,16 +1555,16 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1568,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1580,16 +1585,16 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1598,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1610,16 +1615,16 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1628,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1640,16 +1645,16 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1658,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1670,16 +1675,16 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1688,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1700,16 +1705,16 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1718,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1730,16 +1735,16 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1748,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1760,16 +1765,16 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1778,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1790,16 +1795,16 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1808,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1820,16 +1825,16 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1838,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1850,16 +1855,16 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1868,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1880,16 +1885,16 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1898,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1910,16 +1915,16 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1928,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1940,16 +1945,16 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1958,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1970,16 +1975,16 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1988,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2000,16 +2005,16 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2018,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2030,16 +2035,16 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -2048,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2060,16 +2065,16 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -2078,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2090,16 +2095,16 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2108,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2120,16 +2125,16 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -2138,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2150,16 +2155,16 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2168,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2180,16 +2185,16 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2198,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2210,16 +2215,16 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -2228,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2240,16 +2245,16 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -2258,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2270,16 +2275,16 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -2288,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2300,16 +2305,16 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -2318,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2330,16 +2335,16 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -2348,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2360,16 +2365,16 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -2378,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2390,16 +2395,16 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -2408,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2420,16 +2425,16 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -2438,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2450,16 +2455,16 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -2468,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2480,16 +2485,16 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -2498,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2510,16 +2515,16 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -2528,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2540,16 +2545,16 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -2558,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2570,16 +2575,16 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
@@ -2588,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2600,16 +2605,16 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -2618,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2630,16 +2635,16 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
@@ -2648,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2660,16 +2665,16 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -2678,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2690,16 +2695,16 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
@@ -2708,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2720,16 +2725,16 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -2738,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2750,16 +2755,16 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E52" s="5">
         <v>1</v>
@@ -2768,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2780,16 +2785,16 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
@@ -2798,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2810,16 +2815,16 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" s="5">
         <v>1</v>
@@ -2828,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2840,16 +2845,16 @@
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -2858,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2870,16 +2875,16 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56" s="5">
         <v>1</v>
@@ -2888,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -2900,16 +2905,16 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -2918,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -2930,16 +2935,16 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E58" s="5">
         <v>1</v>
@@ -2948,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -2960,16 +2965,16 @@
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -2978,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2990,16 +2995,16 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
@@ -3008,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3020,16 +3025,16 @@
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -3038,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3050,16 +3055,16 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -3068,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3080,16 +3085,16 @@
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -3098,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -11657,6 +11662,7 @@
       <c r="L997" s="2"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/SituationalDashboard.xlsx
+++ b/SituationalDashboard.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/rhizome/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="4740" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="chart_index" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -479,14 +484,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -586,7 +585,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -850,22 +849,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="4" width="25.33203125" customWidth="1"/>
@@ -873,7 +872,7 @@
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -896,7 +895,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -913,7 +912,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -936,7 +935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -959,7 +958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -982,7 +981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>100</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>99</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>83</v>
@@ -1190,27 +1189,21 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H15" sqref="A15:H18"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
@@ -1225,7 +1218,7 @@
     <col min="13" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>110</v>
       </c>
@@ -1254,7 +1247,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -1283,7 +1276,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>53</v>
       </c>
@@ -1313,7 +1306,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
@@ -1343,7 +1336,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
@@ -1373,7 +1366,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -1403,7 +1396,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1426,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>104</v>
       </c>
@@ -1463,7 +1456,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>105</v>
       </c>
@@ -1493,7 +1486,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>106</v>
       </c>
@@ -1523,7 +1516,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>107</v>
       </c>
@@ -1553,7 +1546,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>108</v>
       </c>
@@ -1583,7 +1576,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>122</v>
       </c>
@@ -1613,7 +1606,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>126</v>
       </c>
@@ -1643,7 +1636,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -1673,7 +1666,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -1703,7 +1696,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -1733,7 +1726,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -1763,7 +1756,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>134</v>
       </c>
@@ -1793,7 +1786,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>135</v>
       </c>
@@ -1823,7 +1816,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>136</v>
       </c>
@@ -1853,7 +1846,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>137</v>
       </c>
@@ -1883,7 +1876,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>138</v>
       </c>
@@ -1913,7 +1906,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>139</v>
       </c>
@@ -1943,7 +1936,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>140</v>
       </c>
@@ -1973,7 +1966,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>141</v>
       </c>
@@ -2003,7 +1996,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
@@ -2033,7 +2026,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2056,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2086,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>8</v>
       </c>
@@ -2123,7 +2116,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>12</v>
       </c>
@@ -2153,7 +2146,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>25</v>
       </c>
@@ -2183,7 +2176,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2206,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2236,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2266,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
@@ -2303,7 +2296,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>17</v>
       </c>
@@ -2333,7 +2326,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>18</v>
       </c>
@@ -2363,7 +2356,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
@@ -2393,7 +2386,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>20</v>
       </c>
@@ -2423,7 +2416,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>21</v>
       </c>
@@ -2453,7 +2446,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>21</v>
       </c>
@@ -2483,7 +2476,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>27</v>
       </c>
@@ -2513,7 +2506,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>28</v>
       </c>
@@ -2543,7 +2536,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
@@ -2573,7 +2566,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +2596,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>31</v>
       </c>
@@ -2633,7 +2626,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>32</v>
       </c>
@@ -2663,7 +2656,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>21</v>
       </c>
@@ -2693,7 +2686,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
@@ -2723,7 +2716,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>20</v>
       </c>
@@ -2753,7 +2746,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>35</v>
       </c>
@@ -2783,7 +2776,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>36</v>
       </c>
@@ -2813,7 +2806,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>37</v>
       </c>
@@ -2843,7 +2836,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>38</v>
       </c>
@@ -2873,7 +2866,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>39</v>
       </c>
@@ -2903,7 +2896,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>40</v>
       </c>
@@ -2933,7 +2926,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>41</v>
       </c>
@@ -2963,7 +2956,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>42</v>
       </c>
@@ -2993,7 +2986,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>43</v>
       </c>
@@ -3023,7 +3016,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>47</v>
       </c>
@@ -3053,7 +3046,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>48</v>
       </c>
@@ -3083,7 +3076,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>49</v>
       </c>
@@ -3113,7 +3106,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3127,7 +3120,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3141,7 +3134,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3155,7 +3148,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3169,7 +3162,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3183,7 +3176,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3197,7 +3190,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3211,7 +3204,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3225,7 +3218,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3239,7 +3232,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3253,7 +3246,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3267,7 +3260,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3281,7 +3274,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3295,7 +3288,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3309,7 +3302,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3323,7 +3316,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3337,7 +3330,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3351,7 +3344,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3365,7 +3358,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3379,7 +3372,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3393,7 +3386,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3407,7 +3400,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3421,7 +3414,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3435,7 +3428,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3449,7 +3442,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3463,7 +3456,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3477,7 +3470,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3491,7 +3484,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3505,7 +3498,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3519,7 +3512,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3533,7 +3526,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3547,7 +3540,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3561,7 +3554,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3575,7 +3568,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3589,7 +3582,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3603,7 +3596,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3617,7 +3610,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3631,7 +3624,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3645,7 +3638,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3659,7 +3652,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3673,7 +3666,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3687,7 +3680,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3701,7 +3694,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3715,7 +3708,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3729,7 +3722,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3743,7 +3736,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3757,7 +3750,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3771,7 +3764,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3785,7 +3778,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3799,7 +3792,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3813,7 +3806,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3827,7 +3820,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3841,7 +3834,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3855,7 +3848,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3869,7 +3862,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3883,7 +3876,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3897,7 +3890,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3911,7 +3904,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3925,7 +3918,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3939,7 +3932,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3953,7 +3946,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3967,7 +3960,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3981,7 +3974,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3995,7 +3988,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4009,7 +4002,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4023,7 +4016,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4037,7 +4030,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4051,7 +4044,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4065,7 +4058,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4079,7 +4072,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4093,7 +4086,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4107,7 +4100,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4121,7 +4114,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4135,7 +4128,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4149,7 +4142,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4163,7 +4156,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4177,7 +4170,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4191,7 +4184,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4205,7 +4198,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4219,7 +4212,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4233,7 +4226,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4247,7 +4240,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4261,7 +4254,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4275,7 +4268,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1">
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4289,7 +4282,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1">
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4303,7 +4296,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12" ht="15.75" customHeight="1">
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4317,7 +4310,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1">
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4331,7 +4324,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4345,7 +4338,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12" ht="15.75" customHeight="1">
+    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4359,7 +4352,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:12" ht="15.75" customHeight="1">
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4373,7 +4366,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4387,7 +4380,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4401,7 +4394,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" ht="15.75" customHeight="1">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4415,7 +4408,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12" ht="15.75" customHeight="1">
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4429,7 +4422,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:12" ht="15.75" customHeight="1">
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4443,7 +4436,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" ht="15.75" customHeight="1">
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4457,7 +4450,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:12" ht="15.75" customHeight="1">
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4471,7 +4464,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" ht="15.75" customHeight="1">
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -4485,7 +4478,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" ht="15.75" customHeight="1">
+    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -4499,7 +4492,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" ht="15.75" customHeight="1">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -4513,7 +4506,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" ht="15.75" customHeight="1">
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -4527,7 +4520,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1">
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -4541,7 +4534,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" ht="15.75" customHeight="1">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -4555,7 +4548,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -4569,7 +4562,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" ht="15.75" customHeight="1">
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -4583,7 +4576,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12" ht="15.75" customHeight="1">
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4597,7 +4590,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" ht="15.75" customHeight="1">
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4611,7 +4604,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" ht="15.75" customHeight="1">
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -4625,7 +4618,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" ht="15.75" customHeight="1">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -4639,7 +4632,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" ht="15.75" customHeight="1">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -4653,7 +4646,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="15.75" customHeight="1">
+    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -4667,7 +4660,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" ht="15.75" customHeight="1">
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -4681,7 +4674,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1">
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -4695,7 +4688,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4709,7 +4702,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4723,7 +4716,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4737,7 +4730,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4751,7 +4744,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4765,7 +4758,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4779,7 +4772,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4793,7 +4786,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" ht="15.75" customHeight="1">
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -4807,7 +4800,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" ht="15.75" customHeight="1">
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -4821,7 +4814,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" ht="15.75" customHeight="1">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -4835,7 +4828,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4849,7 +4842,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" ht="15.75" customHeight="1">
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4863,7 +4856,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1">
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4877,7 +4870,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -4891,7 +4884,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1">
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -4905,7 +4898,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" ht="15.75" customHeight="1">
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -4919,7 +4912,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12" ht="15.75" customHeight="1">
+    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -4933,7 +4926,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" ht="15.75" customHeight="1">
+    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -4947,7 +4940,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12" ht="15.75" customHeight="1">
+    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -4961,7 +4954,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12" ht="15.75" customHeight="1">
+    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -4975,7 +4968,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" ht="15.75" customHeight="1">
+    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -4989,7 +4982,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12" ht="15.75" customHeight="1">
+    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5003,7 +4996,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12" ht="15.75" customHeight="1">
+    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5017,7 +5010,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" ht="15.75" customHeight="1">
+    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5031,7 +5024,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12" ht="15.75" customHeight="1">
+    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5045,7 +5038,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12" ht="15.75" customHeight="1">
+    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5059,7 +5052,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12" ht="15.75" customHeight="1">
+    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5073,7 +5066,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:12" ht="15.75" customHeight="1">
+    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5087,7 +5080,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:12" ht="15.75" customHeight="1">
+    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -5101,7 +5094,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:12" ht="15.75" customHeight="1">
+    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -5115,7 +5108,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:12" ht="15.75" customHeight="1">
+    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -5129,7 +5122,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:12" ht="15.75" customHeight="1">
+    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -5143,7 +5136,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12" ht="15.75" customHeight="1">
+    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -5157,7 +5150,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" ht="15.75" customHeight="1">
+    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -5171,7 +5164,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12" ht="15.75" customHeight="1">
+    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -5185,7 +5178,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12" ht="15.75" customHeight="1">
+    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -5199,7 +5192,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" ht="15.75" customHeight="1">
+    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -5213,7 +5206,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" ht="15.75" customHeight="1">
+    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -5227,7 +5220,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" ht="15.75" customHeight="1">
+    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -5241,7 +5234,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12" ht="15.75" customHeight="1">
+    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -5255,7 +5248,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" ht="15.75" customHeight="1">
+    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -5269,7 +5262,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12" ht="15.75" customHeight="1">
+    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -5283,7 +5276,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12" ht="15.75" customHeight="1">
+    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -5297,7 +5290,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12" ht="15.75" customHeight="1">
+    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -5311,7 +5304,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" spans="1:12" ht="15.75" customHeight="1">
+    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -5325,7 +5318,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12" ht="15.75" customHeight="1">
+    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -5339,7 +5332,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" ht="15.75" customHeight="1">
+    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -5353,7 +5346,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12" ht="15.75" customHeight="1">
+    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -5367,7 +5360,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" ht="15.75" customHeight="1">
+    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -5381,7 +5374,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="15.75" customHeight="1">
+    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -5395,7 +5388,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" ht="15.75" customHeight="1">
+    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -5409,7 +5402,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" ht="15.75" customHeight="1">
+    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -5423,7 +5416,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:12" ht="15.75" customHeight="1">
+    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5437,7 +5430,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" ht="15.75" customHeight="1">
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -5451,7 +5444,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" ht="15.75" customHeight="1">
+    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -5465,7 +5458,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="15.75" customHeight="1">
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -5479,7 +5472,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12" ht="15.75" customHeight="1">
+    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -5493,7 +5486,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" ht="15.75" customHeight="1">
+    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -5507,7 +5500,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" ht="15.75" customHeight="1">
+    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -5521,7 +5514,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" ht="15.75" customHeight="1">
+    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -5535,7 +5528,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12" ht="15.75" customHeight="1">
+    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -5549,7 +5542,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12" ht="15.75" customHeight="1">
+    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5563,7 +5556,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12" ht="15.75" customHeight="1">
+    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5577,7 +5570,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" customHeight="1">
+    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5591,7 +5584,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" ht="15.75" customHeight="1">
+    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5605,7 +5598,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" ht="15.75" customHeight="1">
+    <row r="242" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5619,7 +5612,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" ht="15.75" customHeight="1">
+    <row r="243" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5633,7 +5626,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" ht="15.75" customHeight="1">
+    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5647,7 +5640,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" ht="15.75" customHeight="1">
+    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -5661,7 +5654,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" ht="15.75" customHeight="1">
+    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -5675,7 +5668,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" ht="15.75" customHeight="1">
+    <row r="247" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -5689,7 +5682,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="15.75" customHeight="1">
+    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -5703,7 +5696,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="15.75" customHeight="1">
+    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -5717,7 +5710,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" ht="15.75" customHeight="1">
+    <row r="250" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -5731,7 +5724,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="15.75" customHeight="1">
+    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -5745,7 +5738,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12" ht="15.75" customHeight="1">
+    <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -5759,7 +5752,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12" ht="15.75" customHeight="1">
+    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -5773,7 +5766,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" ht="15.75" customHeight="1">
+    <row r="254" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -5787,7 +5780,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" ht="15.75" customHeight="1">
+    <row r="255" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -5801,7 +5794,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" ht="15.75" customHeight="1">
+    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -5815,7 +5808,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
     </row>
-    <row r="257" spans="1:12" ht="15.75" customHeight="1">
+    <row r="257" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -5829,7 +5822,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12" ht="15.75" customHeight="1">
+    <row r="258" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -5843,7 +5836,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12" ht="15.75" customHeight="1">
+    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -5857,7 +5850,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12" ht="15.75" customHeight="1">
+    <row r="260" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -5871,7 +5864,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12" ht="15.75" customHeight="1">
+    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -5885,7 +5878,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" ht="15.75" customHeight="1">
+    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -5899,7 +5892,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12" ht="15.75" customHeight="1">
+    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -5913,7 +5906,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" ht="15.75" customHeight="1">
+    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -5927,7 +5920,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" ht="15.75" customHeight="1">
+    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -5941,7 +5934,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" ht="15.75" customHeight="1">
+    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -5955,7 +5948,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12" ht="15.75" customHeight="1">
+    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -5969,7 +5962,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12" ht="15.75" customHeight="1">
+    <row r="268" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -5983,7 +5976,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12" ht="15.75" customHeight="1">
+    <row r="269" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -5997,7 +5990,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12" ht="15.75" customHeight="1">
+    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -6011,7 +6004,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12" ht="15.75" customHeight="1">
+    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -6025,7 +6018,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
     </row>
-    <row r="272" spans="1:12" ht="15.75" customHeight="1">
+    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -6039,7 +6032,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12" ht="15.75" customHeight="1">
+    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -6053,7 +6046,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="15.75" customHeight="1">
+    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -6067,7 +6060,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12" ht="15.75" customHeight="1">
+    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -6081,7 +6074,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" ht="15.75" customHeight="1">
+    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -6095,7 +6088,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="15.75" customHeight="1">
+    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -6109,7 +6102,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12" ht="15.75" customHeight="1">
+    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -6123,7 +6116,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" ht="15.75" customHeight="1">
+    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -6137,7 +6130,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" ht="15.75" customHeight="1">
+    <row r="280" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -6151,7 +6144,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" ht="15.75" customHeight="1">
+    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -6165,7 +6158,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" ht="15.75" customHeight="1">
+    <row r="282" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -6179,7 +6172,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" ht="15.75" customHeight="1">
+    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -6193,7 +6186,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="15.75" customHeight="1">
+    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -6207,7 +6200,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12" ht="15.75" customHeight="1">
+    <row r="285" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -6221,7 +6214,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="15.75" customHeight="1">
+    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -6235,7 +6228,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" ht="15.75" customHeight="1">
+    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -6249,7 +6242,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" ht="15.75" customHeight="1">
+    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -6263,7 +6256,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12" ht="15.75" customHeight="1">
+    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -6277,7 +6270,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
     </row>
-    <row r="290" spans="1:12" ht="15.75" customHeight="1">
+    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -6291,7 +6284,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12" ht="15.75" customHeight="1">
+    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -6305,7 +6298,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
     </row>
-    <row r="292" spans="1:12" ht="15.75" customHeight="1">
+    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -6319,7 +6312,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12" ht="15.75" customHeight="1">
+    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -6333,7 +6326,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
     </row>
-    <row r="294" spans="1:12" ht="15.75" customHeight="1">
+    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -6347,7 +6340,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" ht="15.75" customHeight="1">
+    <row r="295" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -6361,7 +6354,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" ht="15.75" customHeight="1">
+    <row r="296" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -6375,7 +6368,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12" ht="15.75" customHeight="1">
+    <row r="297" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -6389,7 +6382,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" ht="15.75" customHeight="1">
+    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -6403,7 +6396,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" ht="15.75" customHeight="1">
+    <row r="299" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -6417,7 +6410,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" ht="15.75" customHeight="1">
+    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -6431,7 +6424,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" ht="15.75" customHeight="1">
+    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -6445,7 +6438,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" ht="15.75" customHeight="1">
+    <row r="302" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -6459,7 +6452,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="15.75" customHeight="1">
+    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -6473,7 +6466,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12" ht="15.75" customHeight="1">
+    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -6487,7 +6480,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" ht="15.75" customHeight="1">
+    <row r="305" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -6501,7 +6494,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12" ht="15.75" customHeight="1">
+    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -6515,7 +6508,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" ht="15.75" customHeight="1">
+    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -6529,7 +6522,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12" ht="15.75" customHeight="1">
+    <row r="308" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -6543,7 +6536,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12" ht="15.75" customHeight="1">
+    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -6557,7 +6550,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" ht="15.75" customHeight="1">
+    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -6571,7 +6564,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12" ht="15.75" customHeight="1">
+    <row r="311" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -6585,7 +6578,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12" ht="15.75" customHeight="1">
+    <row r="312" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -6599,7 +6592,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12" ht="15.75" customHeight="1">
+    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -6613,7 +6606,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12" ht="15.75" customHeight="1">
+    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -6627,7 +6620,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
     </row>
-    <row r="315" spans="1:12" ht="15.75" customHeight="1">
+    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -6641,7 +6634,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12" ht="15.75" customHeight="1">
+    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -6655,7 +6648,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12" ht="15.75" customHeight="1">
+    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -6669,7 +6662,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12" ht="15.75" customHeight="1">
+    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -6683,7 +6676,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
-    <row r="319" spans="1:12" ht="15.75" customHeight="1">
+    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -6697,7 +6690,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12" ht="15.75" customHeight="1">
+    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -6711,7 +6704,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
     </row>
-    <row r="321" spans="1:12" ht="15.75" customHeight="1">
+    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -6725,7 +6718,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
     </row>
-    <row r="322" spans="1:12" ht="15.75" customHeight="1">
+    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -6739,7 +6732,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12" ht="15.75" customHeight="1">
+    <row r="323" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -6753,7 +6746,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" ht="15.75" customHeight="1">
+    <row r="324" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -6767,7 +6760,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12" ht="15.75" customHeight="1">
+    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -6781,7 +6774,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="15.75" customHeight="1">
+    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -6795,7 +6788,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12" ht="15.75" customHeight="1">
+    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -6809,7 +6802,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="15.75" customHeight="1">
+    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -6823,7 +6816,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" ht="15.75" customHeight="1">
+    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -6837,7 +6830,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12" ht="15.75" customHeight="1">
+    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -6851,7 +6844,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12" ht="15.75" customHeight="1">
+    <row r="331" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -6865,7 +6858,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12" ht="15.75" customHeight="1">
+    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -6879,7 +6872,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
     </row>
-    <row r="333" spans="1:12" ht="15.75" customHeight="1">
+    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -6893,7 +6886,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" ht="15.75" customHeight="1">
+    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -6907,7 +6900,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12" ht="15.75" customHeight="1">
+    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -6921,7 +6914,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12" ht="15.75" customHeight="1">
+    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -6935,7 +6928,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" ht="15.75" customHeight="1">
+    <row r="337" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -6949,7 +6942,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" ht="15.75" customHeight="1">
+    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -6963,7 +6956,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="15.75" customHeight="1">
+    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -6977,7 +6970,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12" ht="15.75" customHeight="1">
+    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -6991,7 +6984,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" ht="15.75" customHeight="1">
+    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -7005,7 +6998,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" ht="15.75" customHeight="1">
+    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -7019,7 +7012,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12" ht="15.75" customHeight="1">
+    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -7033,7 +7026,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12" ht="15.75" customHeight="1">
+    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -7047,7 +7040,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12" ht="15.75" customHeight="1">
+    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -7061,7 +7054,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12" ht="15.75" customHeight="1">
+    <row r="346" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -7075,7 +7068,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="2"/>
     </row>
-    <row r="347" spans="1:12" ht="15.75" customHeight="1">
+    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -7089,7 +7082,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12" ht="15.75" customHeight="1">
+    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -7103,7 +7096,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
     </row>
-    <row r="349" spans="1:12" ht="15.75" customHeight="1">
+    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -7117,7 +7110,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
     </row>
-    <row r="350" spans="1:12" ht="15.75" customHeight="1">
+    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -7131,7 +7124,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12" ht="15.75" customHeight="1">
+    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -7145,7 +7138,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12" ht="15.75" customHeight="1">
+    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -7159,7 +7152,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12" ht="15.75" customHeight="1">
+    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -7173,7 +7166,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12" ht="15.75" customHeight="1">
+    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -7187,7 +7180,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12" ht="15.75" customHeight="1">
+    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -7201,7 +7194,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
     </row>
-    <row r="356" spans="1:12" ht="15.75" customHeight="1">
+    <row r="356" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -7215,7 +7208,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
     </row>
-    <row r="357" spans="1:12" ht="15.75" customHeight="1">
+    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -7229,7 +7222,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" ht="15.75" customHeight="1">
+    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -7243,7 +7236,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12" ht="15.75" customHeight="1">
+    <row r="359" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -7257,7 +7250,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12" ht="15.75" customHeight="1">
+    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -7271,7 +7264,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12" ht="15.75" customHeight="1">
+    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -7285,7 +7278,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" ht="15.75" customHeight="1">
+    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -7299,7 +7292,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" ht="15.75" customHeight="1">
+    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -7313,7 +7306,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" ht="15.75" customHeight="1">
+    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -7327,7 +7320,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12" ht="15.75" customHeight="1">
+    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -7341,7 +7334,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
     </row>
-    <row r="366" spans="1:12" ht="15.75" customHeight="1">
+    <row r="366" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -7355,7 +7348,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" ht="15.75" customHeight="1">
+    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -7369,7 +7362,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" ht="15.75" customHeight="1">
+    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -7383,7 +7376,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" ht="15.75" customHeight="1">
+    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -7397,7 +7390,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" ht="15.75" customHeight="1">
+    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -7411,7 +7404,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" ht="15.75" customHeight="1">
+    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -7425,7 +7418,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" ht="15.75" customHeight="1">
+    <row r="372" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -7439,7 +7432,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="2"/>
     </row>
-    <row r="373" spans="1:12" ht="15.75" customHeight="1">
+    <row r="373" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -7453,7 +7446,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="2"/>
     </row>
-    <row r="374" spans="1:12" ht="15.75" customHeight="1">
+    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -7467,7 +7460,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12" ht="15.75" customHeight="1">
+    <row r="375" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -7481,7 +7474,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12" ht="15.75" customHeight="1">
+    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -7495,7 +7488,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12" ht="15.75" customHeight="1">
+    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -7509,7 +7502,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12" ht="15.75" customHeight="1">
+    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -7523,7 +7516,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12" ht="15.75" customHeight="1">
+    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -7537,7 +7530,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
     </row>
-    <row r="380" spans="1:12" ht="15.75" customHeight="1">
+    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -7551,7 +7544,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
     </row>
-    <row r="381" spans="1:12" ht="15.75" customHeight="1">
+    <row r="381" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -7565,7 +7558,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12" ht="15.75" customHeight="1">
+    <row r="382" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -7579,7 +7572,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12" ht="15.75" customHeight="1">
+    <row r="383" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -7593,7 +7586,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12" ht="15.75" customHeight="1">
+    <row r="384" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -7607,7 +7600,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" ht="15.75" customHeight="1">
+    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -7621,7 +7614,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" ht="15.75" customHeight="1">
+    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -7635,7 +7628,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" ht="15.75" customHeight="1">
+    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -7649,7 +7642,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="15.75" customHeight="1">
+    <row r="388" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -7663,7 +7656,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" ht="15.75" customHeight="1">
+    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -7677,7 +7670,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" ht="15.75" customHeight="1">
+    <row r="390" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -7691,7 +7684,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12" ht="15.75" customHeight="1">
+    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -7705,7 +7698,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12" ht="15.75" customHeight="1">
+    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -7719,7 +7712,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" ht="15.75" customHeight="1">
+    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -7733,7 +7726,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" ht="15.75" customHeight="1">
+    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -7747,7 +7740,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12" ht="15.75" customHeight="1">
+    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -7761,7 +7754,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12" ht="15.75" customHeight="1">
+    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -7775,7 +7768,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12" ht="15.75" customHeight="1">
+    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -7789,7 +7782,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12" ht="15.75" customHeight="1">
+    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -7803,7 +7796,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="2"/>
     </row>
-    <row r="399" spans="1:12" ht="15.75" customHeight="1">
+    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -7817,7 +7810,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12" ht="15.75" customHeight="1">
+    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -7831,7 +7824,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="2"/>
     </row>
-    <row r="401" spans="1:12" ht="15.75" customHeight="1">
+    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -7845,7 +7838,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12" ht="15.75" customHeight="1">
+    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -7859,7 +7852,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="2"/>
     </row>
-    <row r="403" spans="1:12" ht="15.75" customHeight="1">
+    <row r="403" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -7873,7 +7866,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
     </row>
-    <row r="404" spans="1:12" ht="15.75" customHeight="1">
+    <row r="404" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -7887,7 +7880,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12" ht="15.75" customHeight="1">
+    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -7901,7 +7894,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12" ht="15.75" customHeight="1">
+    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -7915,7 +7908,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12" ht="15.75" customHeight="1">
+    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -7929,7 +7922,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12" ht="15.75" customHeight="1">
+    <row r="408" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -7943,7 +7936,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12" ht="15.75" customHeight="1">
+    <row r="409" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -7957,7 +7950,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="2"/>
     </row>
-    <row r="410" spans="1:12" ht="15.75" customHeight="1">
+    <row r="410" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -7971,7 +7964,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12" ht="15.75" customHeight="1">
+    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -7985,7 +7978,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="2"/>
     </row>
-    <row r="412" spans="1:12" ht="15.75" customHeight="1">
+    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -7999,7 +7992,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="2"/>
     </row>
-    <row r="413" spans="1:12" ht="15.75" customHeight="1">
+    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -8013,7 +8006,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="2"/>
     </row>
-    <row r="414" spans="1:12" ht="15.75" customHeight="1">
+    <row r="414" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -8027,7 +8020,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12" ht="15.75" customHeight="1">
+    <row r="415" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -8041,7 +8034,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:12" ht="15.75" customHeight="1">
+    <row r="416" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -8055,7 +8048,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12" ht="15.75" customHeight="1">
+    <row r="417" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -8069,7 +8062,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12" ht="15.75" customHeight="1">
+    <row r="418" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -8083,7 +8076,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" ht="15.75" customHeight="1">
+    <row r="419" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -8097,7 +8090,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12" ht="15.75" customHeight="1">
+    <row r="420" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -8111,7 +8104,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="2"/>
     </row>
-    <row r="421" spans="1:12" ht="15.75" customHeight="1">
+    <row r="421" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -8125,7 +8118,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" ht="15.75" customHeight="1">
+    <row r="422" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -8139,7 +8132,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" ht="15.75" customHeight="1">
+    <row r="423" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -8153,7 +8146,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" ht="15.75" customHeight="1">
+    <row r="424" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -8167,7 +8160,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" ht="15.75" customHeight="1">
+    <row r="425" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -8181,7 +8174,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12" ht="15.75" customHeight="1">
+    <row r="426" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -8195,7 +8188,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12" ht="15.75" customHeight="1">
+    <row r="427" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -8209,7 +8202,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12" ht="15.75" customHeight="1">
+    <row r="428" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -8223,7 +8216,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12" ht="15.75" customHeight="1">
+    <row r="429" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -8237,7 +8230,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
     </row>
-    <row r="430" spans="1:12" ht="15.75" customHeight="1">
+    <row r="430" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -8251,7 +8244,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" ht="15.75" customHeight="1">
+    <row r="431" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -8265,3411 +8258,3405 @@
       <c r="K431" s="2"/>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12" ht="15.75" customHeight="1">
+    <row r="432" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="9:12" ht="15.75" customHeight="1">
+    <row r="433" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="9:12" ht="15.75" customHeight="1">
+    <row r="434" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="9:12" ht="15.75" customHeight="1">
+    <row r="435" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="9:12" ht="15.75" customHeight="1">
+    <row r="436" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="9:12" ht="15.75" customHeight="1">
+    <row r="437" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="9:12" ht="15.75" customHeight="1">
+    <row r="438" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
       <c r="L438" s="2"/>
     </row>
-    <row r="439" spans="9:12" ht="15.75" customHeight="1">
+    <row r="439" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="9:12" ht="15.75" customHeight="1">
+    <row r="440" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="9:12" ht="15.75" customHeight="1">
+    <row r="441" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="9:12" ht="15.75" customHeight="1">
+    <row r="442" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
     </row>
-    <row r="443" spans="9:12" ht="15.75" customHeight="1">
+    <row r="443" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="9:12" ht="15.75" customHeight="1">
+    <row r="444" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="9:12" ht="15.75" customHeight="1">
+    <row r="445" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="9:12" ht="15.75" customHeight="1">
+    <row r="446" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="9:12" ht="15.75" customHeight="1">
+    <row r="447" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
     </row>
-    <row r="448" spans="9:12" ht="15.75" customHeight="1">
+    <row r="448" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="9:12" ht="15.75" customHeight="1">
+    <row r="449" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="9:12" ht="15.75" customHeight="1">
+    <row r="450" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="9:12" ht="15.75" customHeight="1">
+    <row r="451" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="9:12" ht="15.75" customHeight="1">
+    <row r="452" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
       <c r="L452" s="2"/>
     </row>
-    <row r="453" spans="9:12" ht="15.75" customHeight="1">
+    <row r="453" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="9:12" ht="15.75" customHeight="1">
+    <row r="454" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="9:12" ht="15.75" customHeight="1">
+    <row r="455" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="9:12" ht="15.75" customHeight="1">
+    <row r="456" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="9:12" ht="15.75" customHeight="1">
+    <row r="457" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="9:12" ht="15.75" customHeight="1">
+    <row r="458" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="9:12" ht="15.75" customHeight="1">
+    <row r="459" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="9:12" ht="15.75" customHeight="1">
+    <row r="460" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="9:12" ht="15.75" customHeight="1">
+    <row r="461" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="9:12" ht="15.75" customHeight="1">
+    <row r="462" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="9:12" ht="15.75" customHeight="1">
+    <row r="463" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="9:12" ht="15.75" customHeight="1">
+    <row r="464" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="9:12" ht="15.75" customHeight="1">
+    <row r="465" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="9:12" ht="15.75" customHeight="1">
+    <row r="466" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="9:12" ht="15.75" customHeight="1">
+    <row r="467" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="9:12" ht="15.75" customHeight="1">
+    <row r="468" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="9:12" ht="15.75" customHeight="1">
+    <row r="469" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="9:12" ht="15.75" customHeight="1">
+    <row r="470" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="9:12" ht="15.75" customHeight="1">
+    <row r="471" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="9:12" ht="15.75" customHeight="1">
+    <row r="472" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="9:12" ht="15.75" customHeight="1">
+    <row r="473" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="9:12" ht="15.75" customHeight="1">
+    <row r="474" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="9:12" ht="15.75" customHeight="1">
+    <row r="475" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="9:12" ht="15.75" customHeight="1">
+    <row r="476" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="9:12" ht="15.75" customHeight="1">
+    <row r="477" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="9:12" ht="15.75" customHeight="1">
+    <row r="478" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="9:12" ht="15.75" customHeight="1">
+    <row r="479" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="9:12" ht="15.75" customHeight="1">
+    <row r="480" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="9:12" ht="15.75" customHeight="1">
+    <row r="481" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="9:12" ht="15.75" customHeight="1">
+    <row r="482" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="9:12" ht="15.75" customHeight="1">
+    <row r="483" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="9:12" ht="15.75" customHeight="1">
+    <row r="484" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="9:12" ht="15.75" customHeight="1">
+    <row r="485" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="9:12" ht="15.75" customHeight="1">
+    <row r="486" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="9:12" ht="15.75" customHeight="1">
+    <row r="487" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="9:12" ht="15.75" customHeight="1">
+    <row r="488" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="9:12" ht="15.75" customHeight="1">
+    <row r="489" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="9:12" ht="15.75" customHeight="1">
+    <row r="490" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="9:12" ht="15.75" customHeight="1">
+    <row r="491" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="9:12" ht="15.75" customHeight="1">
+    <row r="492" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="9:12" ht="15.75" customHeight="1">
+    <row r="493" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="9:12" ht="15.75" customHeight="1">
+    <row r="494" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="9:12" ht="15.75" customHeight="1">
+    <row r="495" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="9:12" ht="15.75" customHeight="1">
+    <row r="496" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="9:12" ht="15.75" customHeight="1">
+    <row r="497" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="9:12" ht="15.75" customHeight="1">
+    <row r="498" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="9:12" ht="15.75" customHeight="1">
+    <row r="499" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="9:12" ht="15.75" customHeight="1">
+    <row r="500" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="9:12" ht="15.75" customHeight="1">
+    <row r="501" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="9:12" ht="15.75" customHeight="1">
+    <row r="502" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="9:12" ht="15.75" customHeight="1">
+    <row r="503" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="9:12" ht="15.75" customHeight="1">
+    <row r="504" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="9:12" ht="15.75" customHeight="1">
+    <row r="505" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="9:12" ht="15.75" customHeight="1">
+    <row r="506" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="9:12" ht="15.75" customHeight="1">
+    <row r="507" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="9:12" ht="15.75" customHeight="1">
+    <row r="508" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="9:12" ht="15.75" customHeight="1">
+    <row r="509" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="9:12" ht="15.75" customHeight="1">
+    <row r="510" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="9:12" ht="15.75" customHeight="1">
+    <row r="511" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="9:12" ht="15.75" customHeight="1">
+    <row r="512" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="9:12" ht="15.75" customHeight="1">
+    <row r="513" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="9:12" ht="15.75" customHeight="1">
+    <row r="514" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="9:12" ht="15.75" customHeight="1">
+    <row r="515" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="9:12" ht="15.75" customHeight="1">
+    <row r="516" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="9:12" ht="15.75" customHeight="1">
+    <row r="517" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="9:12" ht="15.75" customHeight="1">
+    <row r="518" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="9:12" ht="15.75" customHeight="1">
+    <row r="519" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
-    <row r="520" spans="9:12" ht="15.75" customHeight="1">
+    <row r="520" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="9:12" ht="15.75" customHeight="1">
+    <row r="521" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="9:12" ht="15.75" customHeight="1">
+    <row r="522" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="9:12" ht="15.75" customHeight="1">
+    <row r="523" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="9:12" ht="15.75" customHeight="1">
+    <row r="524" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="9:12" ht="15.75" customHeight="1">
+    <row r="525" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
       <c r="L525" s="2"/>
     </row>
-    <row r="526" spans="9:12" ht="15.75" customHeight="1">
+    <row r="526" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="9:12" ht="15.75" customHeight="1">
+    <row r="527" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="9:12" ht="15.75" customHeight="1">
+    <row r="528" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="9:12" ht="15.75" customHeight="1">
+    <row r="529" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="9:12" ht="15.75" customHeight="1">
+    <row r="530" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
     </row>
-    <row r="531" spans="9:12" ht="15.75" customHeight="1">
+    <row r="531" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="9:12" ht="15.75" customHeight="1">
+    <row r="532" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="9:12" ht="15.75" customHeight="1">
+    <row r="533" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="9:12" ht="15.75" customHeight="1">
+    <row r="534" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
       <c r="L534" s="2"/>
     </row>
-    <row r="535" spans="9:12" ht="15.75" customHeight="1">
+    <row r="535" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="9:12" ht="15.75" customHeight="1">
+    <row r="536" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="9:12" ht="15.75" customHeight="1">
+    <row r="537" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="9:12" ht="15.75" customHeight="1">
+    <row r="538" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="9:12" ht="15.75" customHeight="1">
+    <row r="539" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I539" s="2"/>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="9:12" ht="15.75" customHeight="1">
+    <row r="540" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I540" s="2"/>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="9:12" ht="15.75" customHeight="1">
+    <row r="541" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I541" s="2"/>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
       <c r="L541" s="2"/>
     </row>
-    <row r="542" spans="9:12" ht="15.75" customHeight="1">
+    <row r="542" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I542" s="2"/>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="9:12" ht="15.75" customHeight="1">
+    <row r="543" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I543" s="2"/>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="9:12" ht="15.75" customHeight="1">
+    <row r="544" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I544" s="2"/>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="9:12" ht="15.75" customHeight="1">
+    <row r="545" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I545" s="2"/>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="9:12" ht="15.75" customHeight="1">
+    <row r="546" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I546" s="2"/>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
     </row>
-    <row r="547" spans="9:12" ht="15.75" customHeight="1">
+    <row r="547" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I547" s="2"/>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="9:12" ht="15.75" customHeight="1">
+    <row r="548" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I548" s="2"/>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="9:12" ht="15.75" customHeight="1">
+    <row r="549" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I549" s="2"/>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="9:12" ht="15.75" customHeight="1">
+    <row r="550" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I550" s="2"/>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="9:12" ht="15.75" customHeight="1">
+    <row r="551" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I551" s="2"/>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
     </row>
-    <row r="552" spans="9:12" ht="15.75" customHeight="1">
+    <row r="552" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I552" s="2"/>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="9:12" ht="15.75" customHeight="1">
+    <row r="553" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I553" s="2"/>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="9:12" ht="15.75" customHeight="1">
+    <row r="554" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I554" s="2"/>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="9:12" ht="15.75" customHeight="1">
+    <row r="555" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I555" s="2"/>
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
     </row>
-    <row r="556" spans="9:12" ht="15.75" customHeight="1">
+    <row r="556" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I556" s="2"/>
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="9:12" ht="15.75" customHeight="1">
+    <row r="557" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I557" s="2"/>
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
       <c r="L557" s="2"/>
     </row>
-    <row r="558" spans="9:12" ht="15.75" customHeight="1">
+    <row r="558" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I558" s="2"/>
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="9:12" ht="15.75" customHeight="1">
+    <row r="559" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I559" s="2"/>
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="9:12" ht="15.75" customHeight="1">
+    <row r="560" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I560" s="2"/>
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
       <c r="L560" s="2"/>
     </row>
-    <row r="561" spans="9:12" ht="15.75" customHeight="1">
+    <row r="561" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I561" s="2"/>
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="9:12" ht="15.75" customHeight="1">
+    <row r="562" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I562" s="2"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="9:12" ht="15.75" customHeight="1">
+    <row r="563" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I563" s="2"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="9:12" ht="15.75" customHeight="1">
+    <row r="564" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I564" s="2"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
     </row>
-    <row r="565" spans="9:12" ht="15.75" customHeight="1">
+    <row r="565" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I565" s="2"/>
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="9:12" ht="15.75" customHeight="1">
+    <row r="566" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I566" s="2"/>
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
     </row>
-    <row r="567" spans="9:12" ht="15.75" customHeight="1">
+    <row r="567" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I567" s="2"/>
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="9:12" ht="15.75" customHeight="1">
+    <row r="568" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I568" s="2"/>
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="9:12" ht="15.75" customHeight="1">
+    <row r="569" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I569" s="2"/>
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
       <c r="L569" s="2"/>
     </row>
-    <row r="570" spans="9:12" ht="15.75" customHeight="1">
+    <row r="570" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I570" s="2"/>
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
     </row>
-    <row r="571" spans="9:12" ht="15.75" customHeight="1">
+    <row r="571" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="9:12" ht="15.75" customHeight="1">
+    <row r="572" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I572" s="2"/>
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
-    <row r="573" spans="9:12" ht="15.75" customHeight="1">
+    <row r="573" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I573" s="2"/>
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
       <c r="L573" s="2"/>
     </row>
-    <row r="574" spans="9:12" ht="15.75" customHeight="1">
+    <row r="574" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I574" s="2"/>
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
       <c r="L574" s="2"/>
     </row>
-    <row r="575" spans="9:12" ht="15.75" customHeight="1">
+    <row r="575" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I575" s="2"/>
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="9:12" ht="15.75" customHeight="1">
+    <row r="576" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I576" s="2"/>
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
     </row>
-    <row r="577" spans="9:12" ht="15.75" customHeight="1">
+    <row r="577" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I577" s="2"/>
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
       <c r="L577" s="2"/>
     </row>
-    <row r="578" spans="9:12" ht="15.75" customHeight="1">
+    <row r="578" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I578" s="2"/>
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="9:12" ht="15.75" customHeight="1">
+    <row r="579" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I579" s="2"/>
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
       <c r="L579" s="2"/>
     </row>
-    <row r="580" spans="9:12" ht="15.75" customHeight="1">
+    <row r="580" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I580" s="2"/>
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
     </row>
-    <row r="581" spans="9:12" ht="15.75" customHeight="1">
+    <row r="581" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I581" s="2"/>
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
     </row>
-    <row r="582" spans="9:12" ht="15.75" customHeight="1">
+    <row r="582" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I582" s="2"/>
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
     </row>
-    <row r="583" spans="9:12" ht="15.75" customHeight="1">
+    <row r="583" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I583" s="2"/>
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
-    <row r="584" spans="9:12" ht="15.75" customHeight="1">
+    <row r="584" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I584" s="2"/>
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
-    <row r="585" spans="9:12" ht="15.75" customHeight="1">
+    <row r="585" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I585" s="2"/>
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
-    <row r="586" spans="9:12" ht="15.75" customHeight="1">
+    <row r="586" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I586" s="2"/>
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="9:12" ht="15.75" customHeight="1">
+    <row r="587" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I587" s="2"/>
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
     </row>
-    <row r="588" spans="9:12" ht="15.75" customHeight="1">
+    <row r="588" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I588" s="2"/>
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
       <c r="L588" s="2"/>
     </row>
-    <row r="589" spans="9:12" ht="15.75" customHeight="1">
+    <row r="589" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I589" s="2"/>
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
     </row>
-    <row r="590" spans="9:12" ht="15.75" customHeight="1">
+    <row r="590" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I590" s="2"/>
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
       <c r="L590" s="2"/>
     </row>
-    <row r="591" spans="9:12" ht="15.75" customHeight="1">
+    <row r="591" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I591" s="2"/>
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
       <c r="L591" s="2"/>
     </row>
-    <row r="592" spans="9:12" ht="15.75" customHeight="1">
+    <row r="592" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I592" s="2"/>
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
       <c r="L592" s="2"/>
     </row>
-    <row r="593" spans="9:12" ht="15.75" customHeight="1">
+    <row r="593" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I593" s="2"/>
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
       <c r="L593" s="2"/>
     </row>
-    <row r="594" spans="9:12" ht="15.75" customHeight="1">
+    <row r="594" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I594" s="2"/>
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
       <c r="L594" s="2"/>
     </row>
-    <row r="595" spans="9:12" ht="15.75" customHeight="1">
+    <row r="595" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I595" s="2"/>
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="9:12" ht="15.75" customHeight="1">
+    <row r="596" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I596" s="2"/>
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
       <c r="L596" s="2"/>
     </row>
-    <row r="597" spans="9:12" ht="15.75" customHeight="1">
+    <row r="597" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I597" s="2"/>
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
       <c r="L597" s="2"/>
     </row>
-    <row r="598" spans="9:12" ht="15.75" customHeight="1">
+    <row r="598" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I598" s="2"/>
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
       <c r="L598" s="2"/>
     </row>
-    <row r="599" spans="9:12" ht="15.75" customHeight="1">
+    <row r="599" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I599" s="2"/>
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
       <c r="L599" s="2"/>
     </row>
-    <row r="600" spans="9:12" ht="15.75" customHeight="1">
+    <row r="600" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I600" s="2"/>
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
     </row>
-    <row r="601" spans="9:12" ht="15.75" customHeight="1">
+    <row r="601" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I601" s="2"/>
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
     </row>
-    <row r="602" spans="9:12" ht="15.75" customHeight="1">
+    <row r="602" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I602" s="2"/>
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
     </row>
-    <row r="603" spans="9:12" ht="15.75" customHeight="1">
+    <row r="603" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I603" s="2"/>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
     </row>
-    <row r="604" spans="9:12" ht="15.75" customHeight="1">
+    <row r="604" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I604" s="2"/>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
-    <row r="605" spans="9:12" ht="15.75" customHeight="1">
+    <row r="605" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I605" s="2"/>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
     </row>
-    <row r="606" spans="9:12" ht="15.75" customHeight="1">
+    <row r="606" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
       <c r="L606" s="2"/>
     </row>
-    <row r="607" spans="9:12" ht="15.75" customHeight="1">
+    <row r="607" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I607" s="2"/>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
     </row>
-    <row r="608" spans="9:12" ht="15.75" customHeight="1">
+    <row r="608" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I608" s="2"/>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
       <c r="L608" s="2"/>
     </row>
-    <row r="609" spans="9:12" ht="15.75" customHeight="1">
+    <row r="609" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I609" s="2"/>
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
       <c r="L609" s="2"/>
     </row>
-    <row r="610" spans="9:12" ht="15.75" customHeight="1">
+    <row r="610" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I610" s="2"/>
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
       <c r="L610" s="2"/>
     </row>
-    <row r="611" spans="9:12" ht="15.75" customHeight="1">
+    <row r="611" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I611" s="2"/>
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
       <c r="L611" s="2"/>
     </row>
-    <row r="612" spans="9:12" ht="15.75" customHeight="1">
+    <row r="612" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I612" s="2"/>
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
       <c r="L612" s="2"/>
     </row>
-    <row r="613" spans="9:12" ht="15.75" customHeight="1">
+    <row r="613" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I613" s="2"/>
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
     </row>
-    <row r="614" spans="9:12" ht="15.75" customHeight="1">
+    <row r="614" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I614" s="2"/>
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
-    <row r="615" spans="9:12" ht="15.75" customHeight="1">
+    <row r="615" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I615" s="2"/>
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
     </row>
-    <row r="616" spans="9:12" ht="15.75" customHeight="1">
+    <row r="616" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I616" s="2"/>
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
       <c r="L616" s="2"/>
     </row>
-    <row r="617" spans="9:12" ht="15.75" customHeight="1">
+    <row r="617" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I617" s="2"/>
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
       <c r="L617" s="2"/>
     </row>
-    <row r="618" spans="9:12" ht="15.75" customHeight="1">
+    <row r="618" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I618" s="2"/>
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
-    <row r="619" spans="9:12" ht="15.75" customHeight="1">
+    <row r="619" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I619" s="2"/>
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
       <c r="L619" s="2"/>
     </row>
-    <row r="620" spans="9:12" ht="15.75" customHeight="1">
+    <row r="620" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I620" s="2"/>
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
       <c r="L620" s="2"/>
     </row>
-    <row r="621" spans="9:12" ht="15.75" customHeight="1">
+    <row r="621" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I621" s="2"/>
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
       <c r="L621" s="2"/>
     </row>
-    <row r="622" spans="9:12" ht="15.75" customHeight="1">
+    <row r="622" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I622" s="2"/>
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
       <c r="L622" s="2"/>
     </row>
-    <row r="623" spans="9:12" ht="15.75" customHeight="1">
+    <row r="623" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I623" s="2"/>
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
       <c r="L623" s="2"/>
     </row>
-    <row r="624" spans="9:12" ht="15.75" customHeight="1">
+    <row r="624" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I624" s="2"/>
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
     </row>
-    <row r="625" spans="9:12" ht="15.75" customHeight="1">
+    <row r="625" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
       <c r="L625" s="2"/>
     </row>
-    <row r="626" spans="9:12" ht="15.75" customHeight="1">
+    <row r="626" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I626" s="2"/>
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
       <c r="L626" s="2"/>
     </row>
-    <row r="627" spans="9:12" ht="15.75" customHeight="1">
+    <row r="627" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I627" s="2"/>
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
       <c r="L627" s="2"/>
     </row>
-    <row r="628" spans="9:12" ht="15.75" customHeight="1">
+    <row r="628" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I628" s="2"/>
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
       <c r="L628" s="2"/>
     </row>
-    <row r="629" spans="9:12" ht="15.75" customHeight="1">
+    <row r="629" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I629" s="2"/>
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
-    <row r="630" spans="9:12" ht="15.75" customHeight="1">
+    <row r="630" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I630" s="2"/>
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
-    <row r="631" spans="9:12" ht="15.75" customHeight="1">
+    <row r="631" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I631" s="2"/>
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
     </row>
-    <row r="632" spans="9:12" ht="15.75" customHeight="1">
+    <row r="632" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I632" s="2"/>
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
       <c r="L632" s="2"/>
     </row>
-    <row r="633" spans="9:12" ht="15.75" customHeight="1">
+    <row r="633" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I633" s="2"/>
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
     </row>
-    <row r="634" spans="9:12" ht="15.75" customHeight="1">
+    <row r="634" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I634" s="2"/>
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
       <c r="L634" s="2"/>
     </row>
-    <row r="635" spans="9:12" ht="15.75" customHeight="1">
+    <row r="635" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I635" s="2"/>
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
       <c r="L635" s="2"/>
     </row>
-    <row r="636" spans="9:12" ht="15.75" customHeight="1">
+    <row r="636" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I636" s="2"/>
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
       <c r="L636" s="2"/>
     </row>
-    <row r="637" spans="9:12" ht="15.75" customHeight="1">
+    <row r="637" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I637" s="2"/>
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
       <c r="L637" s="2"/>
     </row>
-    <row r="638" spans="9:12" ht="15.75" customHeight="1">
+    <row r="638" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I638" s="2"/>
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
       <c r="L638" s="2"/>
     </row>
-    <row r="639" spans="9:12" ht="15.75" customHeight="1">
+    <row r="639" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I639" s="2"/>
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
       <c r="L639" s="2"/>
     </row>
-    <row r="640" spans="9:12" ht="15.75" customHeight="1">
+    <row r="640" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I640" s="2"/>
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
       <c r="L640" s="2"/>
     </row>
-    <row r="641" spans="9:12" ht="15.75" customHeight="1">
+    <row r="641" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I641" s="2"/>
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
       <c r="L641" s="2"/>
     </row>
-    <row r="642" spans="9:12" ht="15.75" customHeight="1">
+    <row r="642" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
       <c r="L642" s="2"/>
     </row>
-    <row r="643" spans="9:12" ht="15.75" customHeight="1">
+    <row r="643" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I643" s="2"/>
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
       <c r="L643" s="2"/>
     </row>
-    <row r="644" spans="9:12" ht="15.75" customHeight="1">
+    <row r="644" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I644" s="2"/>
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
       <c r="L644" s="2"/>
     </row>
-    <row r="645" spans="9:12" ht="15.75" customHeight="1">
+    <row r="645" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I645" s="2"/>
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
       <c r="L645" s="2"/>
     </row>
-    <row r="646" spans="9:12" ht="15.75" customHeight="1">
+    <row r="646" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I646" s="2"/>
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
       <c r="L646" s="2"/>
     </row>
-    <row r="647" spans="9:12" ht="15.75" customHeight="1">
+    <row r="647" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I647" s="2"/>
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
       <c r="L647" s="2"/>
     </row>
-    <row r="648" spans="9:12" ht="15.75" customHeight="1">
+    <row r="648" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I648" s="2"/>
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
-    <row r="649" spans="9:12" ht="15.75" customHeight="1">
+    <row r="649" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I649" s="2"/>
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
-    <row r="650" spans="9:12" ht="15.75" customHeight="1">
+    <row r="650" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I650" s="2"/>
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
     </row>
-    <row r="651" spans="9:12" ht="15.75" customHeight="1">
+    <row r="651" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I651" s="2"/>
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
       <c r="L651" s="2"/>
     </row>
-    <row r="652" spans="9:12" ht="15.75" customHeight="1">
+    <row r="652" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
       <c r="L652" s="2"/>
     </row>
-    <row r="653" spans="9:12" ht="15.75" customHeight="1">
+    <row r="653" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I653" s="2"/>
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
       <c r="L653" s="2"/>
     </row>
-    <row r="654" spans="9:12" ht="15.75" customHeight="1">
+    <row r="654" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I654" s="2"/>
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
       <c r="L654" s="2"/>
     </row>
-    <row r="655" spans="9:12" ht="15.75" customHeight="1">
+    <row r="655" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I655" s="2"/>
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
       <c r="L655" s="2"/>
     </row>
-    <row r="656" spans="9:12" ht="15.75" customHeight="1">
+    <row r="656" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I656" s="2"/>
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
       <c r="L656" s="2"/>
     </row>
-    <row r="657" spans="9:12" ht="15.75" customHeight="1">
+    <row r="657" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I657" s="2"/>
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
       <c r="L657" s="2"/>
     </row>
-    <row r="658" spans="9:12" ht="15.75" customHeight="1">
+    <row r="658" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I658" s="2"/>
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
       <c r="L658" s="2"/>
     </row>
-    <row r="659" spans="9:12" ht="15.75" customHeight="1">
+    <row r="659" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I659" s="2"/>
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
       <c r="L659" s="2"/>
     </row>
-    <row r="660" spans="9:12" ht="15.75" customHeight="1">
+    <row r="660" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I660" s="2"/>
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
       <c r="L660" s="2"/>
     </row>
-    <row r="661" spans="9:12" ht="15.75" customHeight="1">
+    <row r="661" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I661" s="2"/>
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
       <c r="L661" s="2"/>
     </row>
-    <row r="662" spans="9:12" ht="15.75" customHeight="1">
+    <row r="662" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I662" s="2"/>
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
       <c r="L662" s="2"/>
     </row>
-    <row r="663" spans="9:12" ht="15.75" customHeight="1">
+    <row r="663" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I663" s="2"/>
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
       <c r="L663" s="2"/>
     </row>
-    <row r="664" spans="9:12" ht="15.75" customHeight="1">
+    <row r="664" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I664" s="2"/>
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
       <c r="L664" s="2"/>
     </row>
-    <row r="665" spans="9:12" ht="15.75" customHeight="1">
+    <row r="665" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I665" s="2"/>
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
     </row>
-    <row r="666" spans="9:12" ht="15.75" customHeight="1">
+    <row r="666" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I666" s="2"/>
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
       <c r="L666" s="2"/>
     </row>
-    <row r="667" spans="9:12" ht="15.75" customHeight="1">
+    <row r="667" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I667" s="2"/>
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
       <c r="L667" s="2"/>
     </row>
-    <row r="668" spans="9:12" ht="15.75" customHeight="1">
+    <row r="668" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I668" s="2"/>
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
       <c r="L668" s="2"/>
     </row>
-    <row r="669" spans="9:12" ht="15.75" customHeight="1">
+    <row r="669" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I669" s="2"/>
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
       <c r="L669" s="2"/>
     </row>
-    <row r="670" spans="9:12" ht="15.75" customHeight="1">
+    <row r="670" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I670" s="2"/>
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
       <c r="L670" s="2"/>
     </row>
-    <row r="671" spans="9:12" ht="15.75" customHeight="1">
+    <row r="671" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I671" s="2"/>
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
       <c r="L671" s="2"/>
     </row>
-    <row r="672" spans="9:12" ht="15.75" customHeight="1">
+    <row r="672" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I672" s="2"/>
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
       <c r="L672" s="2"/>
     </row>
-    <row r="673" spans="9:12" ht="15.75" customHeight="1">
+    <row r="673" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I673" s="2"/>
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
       <c r="L673" s="2"/>
     </row>
-    <row r="674" spans="9:12" ht="15.75" customHeight="1">
+    <row r="674" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I674" s="2"/>
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
       <c r="L674" s="2"/>
     </row>
-    <row r="675" spans="9:12" ht="15.75" customHeight="1">
+    <row r="675" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I675" s="2"/>
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
       <c r="L675" s="2"/>
     </row>
-    <row r="676" spans="9:12" ht="15.75" customHeight="1">
+    <row r="676" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I676" s="2"/>
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
       <c r="L676" s="2"/>
     </row>
-    <row r="677" spans="9:12" ht="15.75" customHeight="1">
+    <row r="677" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I677" s="2"/>
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
       <c r="L677" s="2"/>
     </row>
-    <row r="678" spans="9:12" ht="15.75" customHeight="1">
+    <row r="678" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I678" s="2"/>
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
       <c r="L678" s="2"/>
     </row>
-    <row r="679" spans="9:12" ht="15.75" customHeight="1">
+    <row r="679" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I679" s="2"/>
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
       <c r="L679" s="2"/>
     </row>
-    <row r="680" spans="9:12" ht="15.75" customHeight="1">
+    <row r="680" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I680" s="2"/>
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
       <c r="L680" s="2"/>
     </row>
-    <row r="681" spans="9:12" ht="15.75" customHeight="1">
+    <row r="681" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
       <c r="L681" s="2"/>
     </row>
-    <row r="682" spans="9:12" ht="15.75" customHeight="1">
+    <row r="682" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I682" s="2"/>
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
       <c r="L682" s="2"/>
     </row>
-    <row r="683" spans="9:12" ht="15.75" customHeight="1">
+    <row r="683" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I683" s="2"/>
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
       <c r="L683" s="2"/>
     </row>
-    <row r="684" spans="9:12" ht="15.75" customHeight="1">
+    <row r="684" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I684" s="2"/>
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
       <c r="L684" s="2"/>
     </row>
-    <row r="685" spans="9:12" ht="15.75" customHeight="1">
+    <row r="685" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I685" s="2"/>
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
       <c r="L685" s="2"/>
     </row>
-    <row r="686" spans="9:12" ht="15.75" customHeight="1">
+    <row r="686" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I686" s="2"/>
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
       <c r="L686" s="2"/>
     </row>
-    <row r="687" spans="9:12" ht="15.75" customHeight="1">
+    <row r="687" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I687" s="2"/>
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
       <c r="L687" s="2"/>
     </row>
-    <row r="688" spans="9:12" ht="15.75" customHeight="1">
+    <row r="688" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I688" s="2"/>
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
       <c r="L688" s="2"/>
     </row>
-    <row r="689" spans="9:12" ht="15.75" customHeight="1">
+    <row r="689" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I689" s="2"/>
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
       <c r="L689" s="2"/>
     </row>
-    <row r="690" spans="9:12" ht="15.75" customHeight="1">
+    <row r="690" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I690" s="2"/>
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
       <c r="L690" s="2"/>
     </row>
-    <row r="691" spans="9:12" ht="15.75" customHeight="1">
+    <row r="691" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I691" s="2"/>
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
       <c r="L691" s="2"/>
     </row>
-    <row r="692" spans="9:12" ht="15.75" customHeight="1">
+    <row r="692" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I692" s="2"/>
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
       <c r="L692" s="2"/>
     </row>
-    <row r="693" spans="9:12" ht="15.75" customHeight="1">
+    <row r="693" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I693" s="2"/>
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
       <c r="L693" s="2"/>
     </row>
-    <row r="694" spans="9:12" ht="15.75" customHeight="1">
+    <row r="694" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I694" s="2"/>
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
     </row>
-    <row r="695" spans="9:12" ht="15.75" customHeight="1">
+    <row r="695" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I695" s="2"/>
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
       <c r="L695" s="2"/>
     </row>
-    <row r="696" spans="9:12" ht="15.75" customHeight="1">
+    <row r="696" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I696" s="2"/>
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
       <c r="L696" s="2"/>
     </row>
-    <row r="697" spans="9:12" ht="15.75" customHeight="1">
+    <row r="697" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I697" s="2"/>
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
       <c r="L697" s="2"/>
     </row>
-    <row r="698" spans="9:12" ht="15.75" customHeight="1">
+    <row r="698" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I698" s="2"/>
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
       <c r="L698" s="2"/>
     </row>
-    <row r="699" spans="9:12" ht="15.75" customHeight="1">
+    <row r="699" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I699" s="2"/>
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
       <c r="L699" s="2"/>
     </row>
-    <row r="700" spans="9:12" ht="15.75" customHeight="1">
+    <row r="700" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I700" s="2"/>
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
       <c r="L700" s="2"/>
     </row>
-    <row r="701" spans="9:12" ht="15.75" customHeight="1">
+    <row r="701" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I701" s="2"/>
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
       <c r="L701" s="2"/>
     </row>
-    <row r="702" spans="9:12" ht="15.75" customHeight="1">
+    <row r="702" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I702" s="2"/>
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
       <c r="L702" s="2"/>
     </row>
-    <row r="703" spans="9:12" ht="15.75" customHeight="1">
+    <row r="703" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I703" s="2"/>
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
       <c r="L703" s="2"/>
     </row>
-    <row r="704" spans="9:12" ht="15.75" customHeight="1">
+    <row r="704" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I704" s="2"/>
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
       <c r="L704" s="2"/>
     </row>
-    <row r="705" spans="9:12" ht="15.75" customHeight="1">
+    <row r="705" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I705" s="2"/>
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
       <c r="L705" s="2"/>
     </row>
-    <row r="706" spans="9:12" ht="15.75" customHeight="1">
+    <row r="706" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I706" s="2"/>
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
       <c r="L706" s="2"/>
     </row>
-    <row r="707" spans="9:12" ht="15.75" customHeight="1">
+    <row r="707" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I707" s="2"/>
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
       <c r="L707" s="2"/>
     </row>
-    <row r="708" spans="9:12" ht="15.75" customHeight="1">
+    <row r="708" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I708" s="2"/>
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
       <c r="L708" s="2"/>
     </row>
-    <row r="709" spans="9:12" ht="15.75" customHeight="1">
+    <row r="709" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I709" s="2"/>
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
       <c r="L709" s="2"/>
     </row>
-    <row r="710" spans="9:12" ht="15.75" customHeight="1">
+    <row r="710" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I710" s="2"/>
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
       <c r="L710" s="2"/>
     </row>
-    <row r="711" spans="9:12" ht="15.75" customHeight="1">
+    <row r="711" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I711" s="2"/>
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
       <c r="L711" s="2"/>
     </row>
-    <row r="712" spans="9:12" ht="15.75" customHeight="1">
+    <row r="712" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I712" s="2"/>
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
       <c r="L712" s="2"/>
     </row>
-    <row r="713" spans="9:12" ht="15.75" customHeight="1">
+    <row r="713" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I713" s="2"/>
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
       <c r="L713" s="2"/>
     </row>
-    <row r="714" spans="9:12" ht="15.75" customHeight="1">
+    <row r="714" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I714" s="2"/>
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
       <c r="L714" s="2"/>
     </row>
-    <row r="715" spans="9:12" ht="15.75" customHeight="1">
+    <row r="715" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I715" s="2"/>
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
       <c r="L715" s="2"/>
     </row>
-    <row r="716" spans="9:12" ht="15.75" customHeight="1">
+    <row r="716" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
       <c r="L716" s="2"/>
     </row>
-    <row r="717" spans="9:12" ht="15.75" customHeight="1">
+    <row r="717" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I717" s="2"/>
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
       <c r="L717" s="2"/>
     </row>
-    <row r="718" spans="9:12" ht="15.75" customHeight="1">
+    <row r="718" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I718" s="2"/>
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
       <c r="L718" s="2"/>
     </row>
-    <row r="719" spans="9:12" ht="15.75" customHeight="1">
+    <row r="719" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I719" s="2"/>
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
       <c r="L719" s="2"/>
     </row>
-    <row r="720" spans="9:12" ht="15.75" customHeight="1">
+    <row r="720" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I720" s="2"/>
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
       <c r="L720" s="2"/>
     </row>
-    <row r="721" spans="9:12" ht="15.75" customHeight="1">
+    <row r="721" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I721" s="2"/>
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
       <c r="L721" s="2"/>
     </row>
-    <row r="722" spans="9:12" ht="15.75" customHeight="1">
+    <row r="722" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I722" s="2"/>
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
       <c r="L722" s="2"/>
     </row>
-    <row r="723" spans="9:12" ht="15.75" customHeight="1">
+    <row r="723" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I723" s="2"/>
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
       <c r="L723" s="2"/>
     </row>
-    <row r="724" spans="9:12" ht="15.75" customHeight="1">
+    <row r="724" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I724" s="2"/>
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
       <c r="L724" s="2"/>
     </row>
-    <row r="725" spans="9:12" ht="15.75" customHeight="1">
+    <row r="725" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I725" s="2"/>
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
       <c r="L725" s="2"/>
     </row>
-    <row r="726" spans="9:12" ht="15.75" customHeight="1">
+    <row r="726" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I726" s="2"/>
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
       <c r="L726" s="2"/>
     </row>
-    <row r="727" spans="9:12" ht="15.75" customHeight="1">
+    <row r="727" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I727" s="2"/>
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
       <c r="L727" s="2"/>
     </row>
-    <row r="728" spans="9:12" ht="15.75" customHeight="1">
+    <row r="728" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I728" s="2"/>
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
       <c r="L728" s="2"/>
     </row>
-    <row r="729" spans="9:12" ht="15.75" customHeight="1">
+    <row r="729" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I729" s="2"/>
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
       <c r="L729" s="2"/>
     </row>
-    <row r="730" spans="9:12" ht="15.75" customHeight="1">
+    <row r="730" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I730" s="2"/>
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
       <c r="L730" s="2"/>
     </row>
-    <row r="731" spans="9:12" ht="15.75" customHeight="1">
+    <row r="731" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I731" s="2"/>
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
       <c r="L731" s="2"/>
     </row>
-    <row r="732" spans="9:12" ht="15.75" customHeight="1">
+    <row r="732" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I732" s="2"/>
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
       <c r="L732" s="2"/>
     </row>
-    <row r="733" spans="9:12" ht="15.75" customHeight="1">
+    <row r="733" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I733" s="2"/>
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
       <c r="L733" s="2"/>
     </row>
-    <row r="734" spans="9:12" ht="15.75" customHeight="1">
+    <row r="734" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I734" s="2"/>
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
       <c r="L734" s="2"/>
     </row>
-    <row r="735" spans="9:12" ht="15.75" customHeight="1">
+    <row r="735" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I735" s="2"/>
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
       <c r="L735" s="2"/>
     </row>
-    <row r="736" spans="9:12" ht="15.75" customHeight="1">
+    <row r="736" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I736" s="2"/>
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
       <c r="L736" s="2"/>
     </row>
-    <row r="737" spans="9:12" ht="15.75" customHeight="1">
+    <row r="737" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I737" s="2"/>
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
       <c r="L737" s="2"/>
     </row>
-    <row r="738" spans="9:12" ht="15.75" customHeight="1">
+    <row r="738" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I738" s="2"/>
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
       <c r="L738" s="2"/>
     </row>
-    <row r="739" spans="9:12" ht="15.75" customHeight="1">
+    <row r="739" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I739" s="2"/>
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
       <c r="L739" s="2"/>
     </row>
-    <row r="740" spans="9:12" ht="15.75" customHeight="1">
+    <row r="740" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I740" s="2"/>
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
       <c r="L740" s="2"/>
     </row>
-    <row r="741" spans="9:12" ht="15.75" customHeight="1">
+    <row r="741" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I741" s="2"/>
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
       <c r="L741" s="2"/>
     </row>
-    <row r="742" spans="9:12" ht="15.75" customHeight="1">
+    <row r="742" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I742" s="2"/>
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
       <c r="L742" s="2"/>
     </row>
-    <row r="743" spans="9:12" ht="15.75" customHeight="1">
+    <row r="743" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I743" s="2"/>
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
       <c r="L743" s="2"/>
     </row>
-    <row r="744" spans="9:12" ht="15.75" customHeight="1">
+    <row r="744" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I744" s="2"/>
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
       <c r="L744" s="2"/>
     </row>
-    <row r="745" spans="9:12" ht="15.75" customHeight="1">
+    <row r="745" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I745" s="2"/>
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
       <c r="L745" s="2"/>
     </row>
-    <row r="746" spans="9:12" ht="15.75" customHeight="1">
+    <row r="746" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I746" s="2"/>
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
       <c r="L746" s="2"/>
     </row>
-    <row r="747" spans="9:12" ht="15.75" customHeight="1">
+    <row r="747" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I747" s="2"/>
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
       <c r="L747" s="2"/>
     </row>
-    <row r="748" spans="9:12" ht="15.75" customHeight="1">
+    <row r="748" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I748" s="2"/>
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
       <c r="L748" s="2"/>
     </row>
-    <row r="749" spans="9:12" ht="15.75" customHeight="1">
+    <row r="749" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I749" s="2"/>
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
       <c r="L749" s="2"/>
     </row>
-    <row r="750" spans="9:12" ht="15.75" customHeight="1">
+    <row r="750" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I750" s="2"/>
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
       <c r="L750" s="2"/>
     </row>
-    <row r="751" spans="9:12" ht="15.75" customHeight="1">
+    <row r="751" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I751" s="2"/>
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
       <c r="L751" s="2"/>
     </row>
-    <row r="752" spans="9:12" ht="15.75" customHeight="1">
+    <row r="752" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I752" s="2"/>
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
       <c r="L752" s="2"/>
     </row>
-    <row r="753" spans="9:12" ht="15.75" customHeight="1">
+    <row r="753" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I753" s="2"/>
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
       <c r="L753" s="2"/>
     </row>
-    <row r="754" spans="9:12" ht="15.75" customHeight="1">
+    <row r="754" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I754" s="2"/>
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
       <c r="L754" s="2"/>
     </row>
-    <row r="755" spans="9:12" ht="15.75" customHeight="1">
+    <row r="755" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I755" s="2"/>
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
       <c r="L755" s="2"/>
     </row>
-    <row r="756" spans="9:12" ht="15.75" customHeight="1">
+    <row r="756" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I756" s="2"/>
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
       <c r="L756" s="2"/>
     </row>
-    <row r="757" spans="9:12" ht="15.75" customHeight="1">
+    <row r="757" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I757" s="2"/>
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
       <c r="L757" s="2"/>
     </row>
-    <row r="758" spans="9:12" ht="15.75" customHeight="1">
+    <row r="758" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I758" s="2"/>
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
       <c r="L758" s="2"/>
     </row>
-    <row r="759" spans="9:12" ht="15.75" customHeight="1">
+    <row r="759" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I759" s="2"/>
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
       <c r="L759" s="2"/>
     </row>
-    <row r="760" spans="9:12" ht="15.75" customHeight="1">
+    <row r="760" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I760" s="2"/>
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
       <c r="L760" s="2"/>
     </row>
-    <row r="761" spans="9:12" ht="15.75" customHeight="1">
+    <row r="761" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I761" s="2"/>
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
       <c r="L761" s="2"/>
     </row>
-    <row r="762" spans="9:12" ht="15.75" customHeight="1">
+    <row r="762" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I762" s="2"/>
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
       <c r="L762" s="2"/>
     </row>
-    <row r="763" spans="9:12" ht="15.75" customHeight="1">
+    <row r="763" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I763" s="2"/>
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
       <c r="L763" s="2"/>
     </row>
-    <row r="764" spans="9:12" ht="15.75" customHeight="1">
+    <row r="764" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I764" s="2"/>
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
       <c r="L764" s="2"/>
     </row>
-    <row r="765" spans="9:12" ht="15.75" customHeight="1">
+    <row r="765" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I765" s="2"/>
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
       <c r="L765" s="2"/>
     </row>
-    <row r="766" spans="9:12" ht="15.75" customHeight="1">
+    <row r="766" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I766" s="2"/>
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
       <c r="L766" s="2"/>
     </row>
-    <row r="767" spans="9:12" ht="15.75" customHeight="1">
+    <row r="767" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I767" s="2"/>
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
       <c r="L767" s="2"/>
     </row>
-    <row r="768" spans="9:12" ht="15.75" customHeight="1">
+    <row r="768" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I768" s="2"/>
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
       <c r="L768" s="2"/>
     </row>
-    <row r="769" spans="9:12" ht="15.75" customHeight="1">
+    <row r="769" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
       <c r="L769" s="2"/>
     </row>
-    <row r="770" spans="9:12" ht="15.75" customHeight="1">
+    <row r="770" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
       <c r="L770" s="2"/>
     </row>
-    <row r="771" spans="9:12" ht="15.75" customHeight="1">
+    <row r="771" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
       <c r="L771" s="2"/>
     </row>
-    <row r="772" spans="9:12" ht="15.75" customHeight="1">
+    <row r="772" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I772" s="2"/>
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
       <c r="L772" s="2"/>
     </row>
-    <row r="773" spans="9:12" ht="15.75" customHeight="1">
+    <row r="773" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
       <c r="L773" s="2"/>
     </row>
-    <row r="774" spans="9:12" ht="15.75" customHeight="1">
+    <row r="774" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I774" s="2"/>
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
       <c r="L774" s="2"/>
     </row>
-    <row r="775" spans="9:12" ht="15.75" customHeight="1">
+    <row r="775" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I775" s="2"/>
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
       <c r="L775" s="2"/>
     </row>
-    <row r="776" spans="9:12" ht="15.75" customHeight="1">
+    <row r="776" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I776" s="2"/>
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
       <c r="L776" s="2"/>
     </row>
-    <row r="777" spans="9:12" ht="15.75" customHeight="1">
+    <row r="777" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I777" s="2"/>
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
       <c r="L777" s="2"/>
     </row>
-    <row r="778" spans="9:12" ht="15.75" customHeight="1">
+    <row r="778" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I778" s="2"/>
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
       <c r="L778" s="2"/>
     </row>
-    <row r="779" spans="9:12" ht="15.75" customHeight="1">
+    <row r="779" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
       <c r="L779" s="2"/>
     </row>
-    <row r="780" spans="9:12" ht="15.75" customHeight="1">
+    <row r="780" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I780" s="2"/>
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
       <c r="L780" s="2"/>
     </row>
-    <row r="781" spans="9:12" ht="15.75" customHeight="1">
+    <row r="781" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I781" s="2"/>
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
       <c r="L781" s="2"/>
     </row>
-    <row r="782" spans="9:12" ht="15.75" customHeight="1">
+    <row r="782" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I782" s="2"/>
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
       <c r="L782" s="2"/>
     </row>
-    <row r="783" spans="9:12" ht="15.75" customHeight="1">
+    <row r="783" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I783" s="2"/>
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
       <c r="L783" s="2"/>
     </row>
-    <row r="784" spans="9:12" ht="15.75" customHeight="1">
+    <row r="784" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I784" s="2"/>
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
       <c r="L784" s="2"/>
     </row>
-    <row r="785" spans="9:12" ht="15.75" customHeight="1">
+    <row r="785" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I785" s="2"/>
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
       <c r="L785" s="2"/>
     </row>
-    <row r="786" spans="9:12" ht="15.75" customHeight="1">
+    <row r="786" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I786" s="2"/>
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
       <c r="L786" s="2"/>
     </row>
-    <row r="787" spans="9:12" ht="15.75" customHeight="1">
+    <row r="787" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I787" s="2"/>
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
       <c r="L787" s="2"/>
     </row>
-    <row r="788" spans="9:12" ht="15.75" customHeight="1">
+    <row r="788" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I788" s="2"/>
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
       <c r="L788" s="2"/>
     </row>
-    <row r="789" spans="9:12" ht="15.75" customHeight="1">
+    <row r="789" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I789" s="2"/>
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
       <c r="L789" s="2"/>
     </row>
-    <row r="790" spans="9:12" ht="15.75" customHeight="1">
+    <row r="790" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I790" s="2"/>
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
       <c r="L790" s="2"/>
     </row>
-    <row r="791" spans="9:12" ht="15.75" customHeight="1">
+    <row r="791" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I791" s="2"/>
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
       <c r="L791" s="2"/>
     </row>
-    <row r="792" spans="9:12" ht="15.75" customHeight="1">
+    <row r="792" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I792" s="2"/>
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
       <c r="L792" s="2"/>
     </row>
-    <row r="793" spans="9:12" ht="15.75" customHeight="1">
+    <row r="793" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I793" s="2"/>
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
       <c r="L793" s="2"/>
     </row>
-    <row r="794" spans="9:12" ht="15.75" customHeight="1">
+    <row r="794" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I794" s="2"/>
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
       <c r="L794" s="2"/>
     </row>
-    <row r="795" spans="9:12" ht="15.75" customHeight="1">
+    <row r="795" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I795" s="2"/>
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
       <c r="L795" s="2"/>
     </row>
-    <row r="796" spans="9:12" ht="15.75" customHeight="1">
+    <row r="796" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I796" s="2"/>
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
       <c r="L796" s="2"/>
     </row>
-    <row r="797" spans="9:12" ht="15.75" customHeight="1">
+    <row r="797" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I797" s="2"/>
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
       <c r="L797" s="2"/>
     </row>
-    <row r="798" spans="9:12" ht="15.75" customHeight="1">
+    <row r="798" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I798" s="2"/>
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
       <c r="L798" s="2"/>
     </row>
-    <row r="799" spans="9:12" ht="15.75" customHeight="1">
+    <row r="799" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I799" s="2"/>
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
       <c r="L799" s="2"/>
     </row>
-    <row r="800" spans="9:12" ht="15.75" customHeight="1">
+    <row r="800" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I800" s="2"/>
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
       <c r="L800" s="2"/>
     </row>
-    <row r="801" spans="9:12" ht="15.75" customHeight="1">
+    <row r="801" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I801" s="2"/>
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
       <c r="L801" s="2"/>
     </row>
-    <row r="802" spans="9:12" ht="15.75" customHeight="1">
+    <row r="802" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I802" s="2"/>
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
       <c r="L802" s="2"/>
     </row>
-    <row r="803" spans="9:12" ht="15.75" customHeight="1">
+    <row r="803" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I803" s="2"/>
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
       <c r="L803" s="2"/>
     </row>
-    <row r="804" spans="9:12" ht="15.75" customHeight="1">
+    <row r="804" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I804" s="2"/>
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
       <c r="L804" s="2"/>
     </row>
-    <row r="805" spans="9:12" ht="15.75" customHeight="1">
+    <row r="805" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I805" s="2"/>
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
       <c r="L805" s="2"/>
     </row>
-    <row r="806" spans="9:12" ht="15.75" customHeight="1">
+    <row r="806" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I806" s="2"/>
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
       <c r="L806" s="2"/>
     </row>
-    <row r="807" spans="9:12" ht="15.75" customHeight="1">
+    <row r="807" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I807" s="2"/>
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
       <c r="L807" s="2"/>
     </row>
-    <row r="808" spans="9:12" ht="15.75" customHeight="1">
+    <row r="808" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I808" s="2"/>
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
       <c r="L808" s="2"/>
     </row>
-    <row r="809" spans="9:12" ht="15.75" customHeight="1">
+    <row r="809" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I809" s="2"/>
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
       <c r="L809" s="2"/>
     </row>
-    <row r="810" spans="9:12" ht="15.75" customHeight="1">
+    <row r="810" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I810" s="2"/>
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
       <c r="L810" s="2"/>
     </row>
-    <row r="811" spans="9:12" ht="15.75" customHeight="1">
+    <row r="811" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I811" s="2"/>
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
       <c r="L811" s="2"/>
     </row>
-    <row r="812" spans="9:12" ht="15.75" customHeight="1">
+    <row r="812" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I812" s="2"/>
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
       <c r="L812" s="2"/>
     </row>
-    <row r="813" spans="9:12" ht="15.75" customHeight="1">
+    <row r="813" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I813" s="2"/>
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
       <c r="L813" s="2"/>
     </row>
-    <row r="814" spans="9:12" ht="15.75" customHeight="1">
+    <row r="814" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I814" s="2"/>
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
       <c r="L814" s="2"/>
     </row>
-    <row r="815" spans="9:12" ht="15.75" customHeight="1">
+    <row r="815" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I815" s="2"/>
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
       <c r="L815" s="2"/>
     </row>
-    <row r="816" spans="9:12" ht="15.75" customHeight="1">
+    <row r="816" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I816" s="2"/>
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
       <c r="L816" s="2"/>
     </row>
-    <row r="817" spans="9:12" ht="15.75" customHeight="1">
+    <row r="817" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I817" s="2"/>
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
       <c r="L817" s="2"/>
     </row>
-    <row r="818" spans="9:12" ht="15.75" customHeight="1">
+    <row r="818" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I818" s="2"/>
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
       <c r="L818" s="2"/>
     </row>
-    <row r="819" spans="9:12" ht="15.75" customHeight="1">
+    <row r="819" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I819" s="2"/>
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
       <c r="L819" s="2"/>
     </row>
-    <row r="820" spans="9:12" ht="15.75" customHeight="1">
+    <row r="820" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I820" s="2"/>
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
       <c r="L820" s="2"/>
     </row>
-    <row r="821" spans="9:12" ht="15.75" customHeight="1">
+    <row r="821" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I821" s="2"/>
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
       <c r="L821" s="2"/>
     </row>
-    <row r="822" spans="9:12" ht="15.75" customHeight="1">
+    <row r="822" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I822" s="2"/>
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
       <c r="L822" s="2"/>
     </row>
-    <row r="823" spans="9:12" ht="15.75" customHeight="1">
+    <row r="823" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I823" s="2"/>
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
       <c r="L823" s="2"/>
     </row>
-    <row r="824" spans="9:12" ht="15.75" customHeight="1">
+    <row r="824" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I824" s="2"/>
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
       <c r="L824" s="2"/>
     </row>
-    <row r="825" spans="9:12" ht="15.75" customHeight="1">
+    <row r="825" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I825" s="2"/>
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
       <c r="L825" s="2"/>
     </row>
-    <row r="826" spans="9:12" ht="15.75" customHeight="1">
+    <row r="826" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I826" s="2"/>
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
       <c r="L826" s="2"/>
     </row>
-    <row r="827" spans="9:12" ht="15.75" customHeight="1">
+    <row r="827" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I827" s="2"/>
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
       <c r="L827" s="2"/>
     </row>
-    <row r="828" spans="9:12" ht="15.75" customHeight="1">
+    <row r="828" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I828" s="2"/>
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
       <c r="L828" s="2"/>
     </row>
-    <row r="829" spans="9:12" ht="15.75" customHeight="1">
+    <row r="829" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I829" s="2"/>
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
       <c r="L829" s="2"/>
     </row>
-    <row r="830" spans="9:12" ht="15.75" customHeight="1">
+    <row r="830" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I830" s="2"/>
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
       <c r="L830" s="2"/>
     </row>
-    <row r="831" spans="9:12" ht="15.75" customHeight="1">
+    <row r="831" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I831" s="2"/>
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
       <c r="L831" s="2"/>
     </row>
-    <row r="832" spans="9:12" ht="15.75" customHeight="1">
+    <row r="832" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I832" s="2"/>
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
       <c r="L832" s="2"/>
     </row>
-    <row r="833" spans="9:12" ht="15.75" customHeight="1">
+    <row r="833" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I833" s="2"/>
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
       <c r="L833" s="2"/>
     </row>
-    <row r="834" spans="9:12" ht="15.75" customHeight="1">
+    <row r="834" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I834" s="2"/>
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
       <c r="L834" s="2"/>
     </row>
-    <row r="835" spans="9:12" ht="15.75" customHeight="1">
+    <row r="835" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I835" s="2"/>
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
       <c r="L835" s="2"/>
     </row>
-    <row r="836" spans="9:12" ht="15.75" customHeight="1">
+    <row r="836" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I836" s="2"/>
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
       <c r="L836" s="2"/>
     </row>
-    <row r="837" spans="9:12" ht="15.75" customHeight="1">
+    <row r="837" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I837" s="2"/>
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
       <c r="L837" s="2"/>
     </row>
-    <row r="838" spans="9:12" ht="15.75" customHeight="1">
+    <row r="838" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I838" s="2"/>
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
       <c r="L838" s="2"/>
     </row>
-    <row r="839" spans="9:12" ht="15.75" customHeight="1">
+    <row r="839" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I839" s="2"/>
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
       <c r="L839" s="2"/>
     </row>
-    <row r="840" spans="9:12" ht="15.75" customHeight="1">
+    <row r="840" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I840" s="2"/>
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
       <c r="L840" s="2"/>
     </row>
-    <row r="841" spans="9:12" ht="15.75" customHeight="1">
+    <row r="841" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I841" s="2"/>
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
       <c r="L841" s="2"/>
     </row>
-    <row r="842" spans="9:12" ht="15.75" customHeight="1">
+    <row r="842" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I842" s="2"/>
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
       <c r="L842" s="2"/>
     </row>
-    <row r="843" spans="9:12" ht="15.75" customHeight="1">
+    <row r="843" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I843" s="2"/>
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
       <c r="L843" s="2"/>
     </row>
-    <row r="844" spans="9:12" ht="15.75" customHeight="1">
+    <row r="844" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I844" s="2"/>
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
       <c r="L844" s="2"/>
     </row>
-    <row r="845" spans="9:12" ht="15.75" customHeight="1">
+    <row r="845" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I845" s="2"/>
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
       <c r="L845" s="2"/>
     </row>
-    <row r="846" spans="9:12" ht="15.75" customHeight="1">
+    <row r="846" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I846" s="2"/>
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
       <c r="L846" s="2"/>
     </row>
-    <row r="847" spans="9:12" ht="15.75" customHeight="1">
+    <row r="847" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I847" s="2"/>
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
       <c r="L847" s="2"/>
     </row>
-    <row r="848" spans="9:12" ht="15.75" customHeight="1">
+    <row r="848" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I848" s="2"/>
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
       <c r="L848" s="2"/>
     </row>
-    <row r="849" spans="9:12" ht="15.75" customHeight="1">
+    <row r="849" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I849" s="2"/>
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
       <c r="L849" s="2"/>
     </row>
-    <row r="850" spans="9:12" ht="15.75" customHeight="1">
+    <row r="850" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I850" s="2"/>
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
       <c r="L850" s="2"/>
     </row>
-    <row r="851" spans="9:12" ht="15.75" customHeight="1">
+    <row r="851" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I851" s="2"/>
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
       <c r="L851" s="2"/>
     </row>
-    <row r="852" spans="9:12" ht="15.75" customHeight="1">
+    <row r="852" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I852" s="2"/>
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
       <c r="L852" s="2"/>
     </row>
-    <row r="853" spans="9:12" ht="15.75" customHeight="1">
+    <row r="853" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I853" s="2"/>
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
       <c r="L853" s="2"/>
     </row>
-    <row r="854" spans="9:12" ht="15.75" customHeight="1">
+    <row r="854" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I854" s="2"/>
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
       <c r="L854" s="2"/>
     </row>
-    <row r="855" spans="9:12" ht="15.75" customHeight="1">
+    <row r="855" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I855" s="2"/>
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
       <c r="L855" s="2"/>
     </row>
-    <row r="856" spans="9:12" ht="15.75" customHeight="1">
+    <row r="856" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I856" s="2"/>
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
       <c r="L856" s="2"/>
     </row>
-    <row r="857" spans="9:12" ht="15.75" customHeight="1">
+    <row r="857" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I857" s="2"/>
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
       <c r="L857" s="2"/>
     </row>
-    <row r="858" spans="9:12" ht="15.75" customHeight="1">
+    <row r="858" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I858" s="2"/>
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
       <c r="L858" s="2"/>
     </row>
-    <row r="859" spans="9:12" ht="15.75" customHeight="1">
+    <row r="859" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I859" s="2"/>
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
       <c r="L859" s="2"/>
     </row>
-    <row r="860" spans="9:12" ht="15.75" customHeight="1">
+    <row r="860" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I860" s="2"/>
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
       <c r="L860" s="2"/>
     </row>
-    <row r="861" spans="9:12" ht="15.75" customHeight="1">
+    <row r="861" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I861" s="2"/>
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
       <c r="L861" s="2"/>
     </row>
-    <row r="862" spans="9:12" ht="15.75" customHeight="1">
+    <row r="862" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I862" s="2"/>
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
       <c r="L862" s="2"/>
     </row>
-    <row r="863" spans="9:12" ht="15.75" customHeight="1">
+    <row r="863" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I863" s="2"/>
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
       <c r="L863" s="2"/>
     </row>
-    <row r="864" spans="9:12" ht="15.75" customHeight="1">
+    <row r="864" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I864" s="2"/>
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
       <c r="L864" s="2"/>
     </row>
-    <row r="865" spans="9:12" ht="15.75" customHeight="1">
+    <row r="865" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I865" s="2"/>
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
       <c r="L865" s="2"/>
     </row>
-    <row r="866" spans="9:12" ht="15.75" customHeight="1">
+    <row r="866" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I866" s="2"/>
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
       <c r="L866" s="2"/>
     </row>
-    <row r="867" spans="9:12" ht="15.75" customHeight="1">
+    <row r="867" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I867" s="2"/>
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
       <c r="L867" s="2"/>
     </row>
-    <row r="868" spans="9:12" ht="15.75" customHeight="1">
+    <row r="868" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I868" s="2"/>
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
       <c r="L868" s="2"/>
     </row>
-    <row r="869" spans="9:12" ht="15.75" customHeight="1">
+    <row r="869" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I869" s="2"/>
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
       <c r="L869" s="2"/>
     </row>
-    <row r="870" spans="9:12" ht="15.75" customHeight="1">
+    <row r="870" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I870" s="2"/>
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
       <c r="L870" s="2"/>
     </row>
-    <row r="871" spans="9:12" ht="15.75" customHeight="1">
+    <row r="871" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I871" s="2"/>
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
       <c r="L871" s="2"/>
     </row>
-    <row r="872" spans="9:12" ht="15.75" customHeight="1">
+    <row r="872" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I872" s="2"/>
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
       <c r="L872" s="2"/>
     </row>
-    <row r="873" spans="9:12" ht="15.75" customHeight="1">
+    <row r="873" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I873" s="2"/>
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
       <c r="L873" s="2"/>
     </row>
-    <row r="874" spans="9:12" ht="15.75" customHeight="1">
+    <row r="874" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I874" s="2"/>
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
       <c r="L874" s="2"/>
     </row>
-    <row r="875" spans="9:12" ht="15.75" customHeight="1">
+    <row r="875" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I875" s="2"/>
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
       <c r="L875" s="2"/>
     </row>
-    <row r="876" spans="9:12" ht="15.75" customHeight="1">
+    <row r="876" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I876" s="2"/>
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
       <c r="L876" s="2"/>
     </row>
-    <row r="877" spans="9:12" ht="15.75" customHeight="1">
+    <row r="877" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I877" s="2"/>
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
       <c r="L877" s="2"/>
     </row>
-    <row r="878" spans="9:12" ht="15.75" customHeight="1">
+    <row r="878" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I878" s="2"/>
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
       <c r="L878" s="2"/>
     </row>
-    <row r="879" spans="9:12" ht="15.75" customHeight="1">
+    <row r="879" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I879" s="2"/>
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
       <c r="L879" s="2"/>
     </row>
-    <row r="880" spans="9:12" ht="15.75" customHeight="1">
+    <row r="880" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I880" s="2"/>
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
       <c r="L880" s="2"/>
     </row>
-    <row r="881" spans="9:12" ht="15.75" customHeight="1">
+    <row r="881" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I881" s="2"/>
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
       <c r="L881" s="2"/>
     </row>
-    <row r="882" spans="9:12" ht="15.75" customHeight="1">
+    <row r="882" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I882" s="2"/>
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
       <c r="L882" s="2"/>
     </row>
-    <row r="883" spans="9:12" ht="15.75" customHeight="1">
+    <row r="883" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I883" s="2"/>
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
       <c r="L883" s="2"/>
     </row>
-    <row r="884" spans="9:12" ht="15.75" customHeight="1">
+    <row r="884" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I884" s="2"/>
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
       <c r="L884" s="2"/>
     </row>
-    <row r="885" spans="9:12" ht="15.75" customHeight="1">
+    <row r="885" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I885" s="2"/>
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
       <c r="L885" s="2"/>
     </row>
-    <row r="886" spans="9:12" ht="15.75" customHeight="1">
+    <row r="886" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I886" s="2"/>
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
       <c r="L886" s="2"/>
     </row>
-    <row r="887" spans="9:12" ht="15.75" customHeight="1">
+    <row r="887" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I887" s="2"/>
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
       <c r="L887" s="2"/>
     </row>
-    <row r="888" spans="9:12" ht="15.75" customHeight="1">
+    <row r="888" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I888" s="2"/>
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
       <c r="L888" s="2"/>
     </row>
-    <row r="889" spans="9:12" ht="15.75" customHeight="1">
+    <row r="889" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I889" s="2"/>
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
       <c r="L889" s="2"/>
     </row>
-    <row r="890" spans="9:12" ht="15.75" customHeight="1">
+    <row r="890" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I890" s="2"/>
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
       <c r="L890" s="2"/>
     </row>
-    <row r="891" spans="9:12" ht="15.75" customHeight="1">
+    <row r="891" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I891" s="2"/>
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
       <c r="L891" s="2"/>
     </row>
-    <row r="892" spans="9:12" ht="15.75" customHeight="1">
+    <row r="892" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I892" s="2"/>
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
       <c r="L892" s="2"/>
     </row>
-    <row r="893" spans="9:12" ht="15.75" customHeight="1">
+    <row r="893" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I893" s="2"/>
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
       <c r="L893" s="2"/>
     </row>
-    <row r="894" spans="9:12" ht="15.75" customHeight="1">
+    <row r="894" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I894" s="2"/>
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
     </row>
-    <row r="895" spans="9:12" ht="15.75" customHeight="1">
+    <row r="895" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I895" s="2"/>
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
       <c r="L895" s="2"/>
     </row>
-    <row r="896" spans="9:12" ht="15.75" customHeight="1">
+    <row r="896" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I896" s="2"/>
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
       <c r="L896" s="2"/>
     </row>
-    <row r="897" spans="9:12" ht="15.75" customHeight="1">
+    <row r="897" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I897" s="2"/>
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
       <c r="L897" s="2"/>
     </row>
-    <row r="898" spans="9:12" ht="15.75" customHeight="1">
+    <row r="898" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I898" s="2"/>
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
       <c r="L898" s="2"/>
     </row>
-    <row r="899" spans="9:12" ht="15.75" customHeight="1">
+    <row r="899" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I899" s="2"/>
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
       <c r="L899" s="2"/>
     </row>
-    <row r="900" spans="9:12" ht="15.75" customHeight="1">
+    <row r="900" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I900" s="2"/>
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
       <c r="L900" s="2"/>
     </row>
-    <row r="901" spans="9:12" ht="15.75" customHeight="1">
+    <row r="901" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I901" s="2"/>
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
       <c r="L901" s="2"/>
     </row>
-    <row r="902" spans="9:12" ht="15.75" customHeight="1">
+    <row r="902" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I902" s="2"/>
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
       <c r="L902" s="2"/>
     </row>
-    <row r="903" spans="9:12" ht="15.75" customHeight="1">
+    <row r="903" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I903" s="2"/>
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
       <c r="L903" s="2"/>
     </row>
-    <row r="904" spans="9:12" ht="15.75" customHeight="1">
+    <row r="904" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I904" s="2"/>
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
       <c r="L904" s="2"/>
     </row>
-    <row r="905" spans="9:12" ht="15.75" customHeight="1">
+    <row r="905" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I905" s="2"/>
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
       <c r="L905" s="2"/>
     </row>
-    <row r="906" spans="9:12" ht="15.75" customHeight="1">
+    <row r="906" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I906" s="2"/>
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
       <c r="L906" s="2"/>
     </row>
-    <row r="907" spans="9:12" ht="15.75" customHeight="1">
+    <row r="907" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I907" s="2"/>
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
       <c r="L907" s="2"/>
     </row>
-    <row r="908" spans="9:12" ht="15.75" customHeight="1">
+    <row r="908" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I908" s="2"/>
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
       <c r="L908" s="2"/>
     </row>
-    <row r="909" spans="9:12" ht="15.75" customHeight="1">
+    <row r="909" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I909" s="2"/>
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
       <c r="L909" s="2"/>
     </row>
-    <row r="910" spans="9:12" ht="15.75" customHeight="1">
+    <row r="910" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I910" s="2"/>
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
       <c r="L910" s="2"/>
     </row>
-    <row r="911" spans="9:12" ht="15.75" customHeight="1">
+    <row r="911" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I911" s="2"/>
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
       <c r="L911" s="2"/>
     </row>
-    <row r="912" spans="9:12" ht="15.75" customHeight="1">
+    <row r="912" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I912" s="2"/>
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
       <c r="L912" s="2"/>
     </row>
-    <row r="913" spans="9:12" ht="15.75" customHeight="1">
+    <row r="913" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I913" s="2"/>
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
       <c r="L913" s="2"/>
     </row>
-    <row r="914" spans="9:12" ht="15.75" customHeight="1">
+    <row r="914" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I914" s="2"/>
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
       <c r="L914" s="2"/>
     </row>
-    <row r="915" spans="9:12" ht="15.75" customHeight="1">
+    <row r="915" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I915" s="2"/>
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
       <c r="L915" s="2"/>
     </row>
-    <row r="916" spans="9:12" ht="15.75" customHeight="1">
+    <row r="916" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I916" s="2"/>
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
       <c r="L916" s="2"/>
     </row>
-    <row r="917" spans="9:12" ht="15.75" customHeight="1">
+    <row r="917" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I917" s="2"/>
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
       <c r="L917" s="2"/>
     </row>
-    <row r="918" spans="9:12" ht="15.75" customHeight="1">
+    <row r="918" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I918" s="2"/>
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
       <c r="L918" s="2"/>
     </row>
-    <row r="919" spans="9:12" ht="15.75" customHeight="1">
+    <row r="919" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I919" s="2"/>
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
       <c r="L919" s="2"/>
     </row>
-    <row r="920" spans="9:12" ht="15.75" customHeight="1">
+    <row r="920" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I920" s="2"/>
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
       <c r="L920" s="2"/>
     </row>
-    <row r="921" spans="9:12" ht="15.75" customHeight="1">
+    <row r="921" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I921" s="2"/>
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
       <c r="L921" s="2"/>
     </row>
-    <row r="922" spans="9:12" ht="15.75" customHeight="1">
+    <row r="922" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I922" s="2"/>
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
       <c r="L922" s="2"/>
     </row>
-    <row r="923" spans="9:12" ht="15.75" customHeight="1">
+    <row r="923" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I923" s="2"/>
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
       <c r="L923" s="2"/>
     </row>
-    <row r="924" spans="9:12" ht="15.75" customHeight="1">
+    <row r="924" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I924" s="2"/>
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
       <c r="L924" s="2"/>
     </row>
-    <row r="925" spans="9:12" ht="15.75" customHeight="1">
+    <row r="925" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I925" s="2"/>
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
       <c r="L925" s="2"/>
     </row>
-    <row r="926" spans="9:12" ht="15.75" customHeight="1">
+    <row r="926" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I926" s="2"/>
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
       <c r="L926" s="2"/>
     </row>
-    <row r="927" spans="9:12" ht="15.75" customHeight="1">
+    <row r="927" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I927" s="2"/>
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
       <c r="L927" s="2"/>
     </row>
-    <row r="928" spans="9:12" ht="15.75" customHeight="1">
+    <row r="928" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I928" s="2"/>
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
       <c r="L928" s="2"/>
     </row>
-    <row r="929" spans="9:12" ht="15.75" customHeight="1">
+    <row r="929" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I929" s="2"/>
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
       <c r="L929" s="2"/>
     </row>
-    <row r="930" spans="9:12" ht="15.75" customHeight="1">
+    <row r="930" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I930" s="2"/>
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
       <c r="L930" s="2"/>
     </row>
-    <row r="931" spans="9:12" ht="15.75" customHeight="1">
+    <row r="931" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I931" s="2"/>
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
       <c r="L931" s="2"/>
     </row>
-    <row r="932" spans="9:12" ht="15.75" customHeight="1">
+    <row r="932" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I932" s="2"/>
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
       <c r="L932" s="2"/>
     </row>
-    <row r="933" spans="9:12" ht="15.75" customHeight="1">
+    <row r="933" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I933" s="2"/>
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
       <c r="L933" s="2"/>
     </row>
-    <row r="934" spans="9:12" ht="15.75" customHeight="1">
+    <row r="934" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I934" s="2"/>
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
       <c r="L934" s="2"/>
     </row>
-    <row r="935" spans="9:12" ht="15.75" customHeight="1">
+    <row r="935" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I935" s="2"/>
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
       <c r="L935" s="2"/>
     </row>
-    <row r="936" spans="9:12" ht="15.75" customHeight="1">
+    <row r="936" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I936" s="2"/>
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
       <c r="L936" s="2"/>
     </row>
-    <row r="937" spans="9:12" ht="15.75" customHeight="1">
+    <row r="937" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I937" s="2"/>
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
       <c r="L937" s="2"/>
     </row>
-    <row r="938" spans="9:12" ht="15.75" customHeight="1">
+    <row r="938" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I938" s="2"/>
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
       <c r="L938" s="2"/>
     </row>
-    <row r="939" spans="9:12" ht="15.75" customHeight="1">
+    <row r="939" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I939" s="2"/>
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
       <c r="L939" s="2"/>
     </row>
-    <row r="940" spans="9:12" ht="15.75" customHeight="1">
+    <row r="940" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I940" s="2"/>
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
       <c r="L940" s="2"/>
     </row>
-    <row r="941" spans="9:12" ht="15.75" customHeight="1">
+    <row r="941" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I941" s="2"/>
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
       <c r="L941" s="2"/>
     </row>
-    <row r="942" spans="9:12" ht="15.75" customHeight="1">
+    <row r="942" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I942" s="2"/>
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
       <c r="L942" s="2"/>
     </row>
-    <row r="943" spans="9:12" ht="15.75" customHeight="1">
+    <row r="943" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I943" s="2"/>
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
       <c r="L943" s="2"/>
     </row>
-    <row r="944" spans="9:12" ht="15.75" customHeight="1">
+    <row r="944" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I944" s="2"/>
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
       <c r="L944" s="2"/>
     </row>
-    <row r="945" spans="9:12" ht="15.75" customHeight="1">
+    <row r="945" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I945" s="2"/>
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
       <c r="L945" s="2"/>
     </row>
-    <row r="946" spans="9:12" ht="15.75" customHeight="1">
+    <row r="946" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I946" s="2"/>
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
       <c r="L946" s="2"/>
     </row>
-    <row r="947" spans="9:12" ht="15.75" customHeight="1">
+    <row r="947" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I947" s="2"/>
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
       <c r="L947" s="2"/>
     </row>
-    <row r="948" spans="9:12" ht="15.75" customHeight="1">
+    <row r="948" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I948" s="2"/>
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
       <c r="L948" s="2"/>
     </row>
-    <row r="949" spans="9:12" ht="15.75" customHeight="1">
+    <row r="949" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I949" s="2"/>
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
       <c r="L949" s="2"/>
     </row>
-    <row r="950" spans="9:12" ht="15.75" customHeight="1">
+    <row r="950" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I950" s="2"/>
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
       <c r="L950" s="2"/>
     </row>
-    <row r="951" spans="9:12" ht="15.75" customHeight="1">
+    <row r="951" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I951" s="2"/>
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
       <c r="L951" s="2"/>
     </row>
-    <row r="952" spans="9:12" ht="15.75" customHeight="1">
+    <row r="952" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I952" s="2"/>
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
       <c r="L952" s="2"/>
     </row>
-    <row r="953" spans="9:12" ht="15.75" customHeight="1">
+    <row r="953" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I953" s="2"/>
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
       <c r="L953" s="2"/>
     </row>
-    <row r="954" spans="9:12" ht="15.75" customHeight="1">
+    <row r="954" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I954" s="2"/>
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
       <c r="L954" s="2"/>
     </row>
-    <row r="955" spans="9:12" ht="15.75" customHeight="1">
+    <row r="955" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I955" s="2"/>
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
       <c r="L955" s="2"/>
     </row>
-    <row r="956" spans="9:12" ht="15.75" customHeight="1">
+    <row r="956" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I956" s="2"/>
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
       <c r="L956" s="2"/>
     </row>
-    <row r="957" spans="9:12" ht="15.75" customHeight="1">
+    <row r="957" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I957" s="2"/>
       <c r="J957" s="2"/>
       <c r="K957" s="2"/>
       <c r="L957" s="2"/>
     </row>
-    <row r="958" spans="9:12" ht="15.75" customHeight="1">
+    <row r="958" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I958" s="2"/>
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
       <c r="L958" s="2"/>
     </row>
-    <row r="959" spans="9:12" ht="15.75" customHeight="1">
+    <row r="959" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I959" s="2"/>
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
       <c r="L959" s="2"/>
     </row>
-    <row r="960" spans="9:12" ht="15.75" customHeight="1">
+    <row r="960" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I960" s="2"/>
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
       <c r="L960" s="2"/>
     </row>
-    <row r="961" spans="9:12" ht="15.75" customHeight="1">
+    <row r="961" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I961" s="2"/>
       <c r="J961" s="2"/>
       <c r="K961" s="2"/>
       <c r="L961" s="2"/>
     </row>
-    <row r="962" spans="9:12" ht="15.75" customHeight="1">
+    <row r="962" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I962" s="2"/>
       <c r="J962" s="2"/>
       <c r="K962" s="2"/>
       <c r="L962" s="2"/>
     </row>
-    <row r="963" spans="9:12" ht="15.75" customHeight="1">
+    <row r="963" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I963" s="2"/>
       <c r="J963" s="2"/>
       <c r="K963" s="2"/>
       <c r="L963" s="2"/>
     </row>
-    <row r="964" spans="9:12" ht="15.75" customHeight="1">
+    <row r="964" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I964" s="2"/>
       <c r="J964" s="2"/>
       <c r="K964" s="2"/>
       <c r="L964" s="2"/>
     </row>
-    <row r="965" spans="9:12" ht="15.75" customHeight="1">
+    <row r="965" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I965" s="2"/>
       <c r="J965" s="2"/>
       <c r="K965" s="2"/>
       <c r="L965" s="2"/>
     </row>
-    <row r="966" spans="9:12" ht="15.75" customHeight="1">
+    <row r="966" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I966" s="2"/>
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
       <c r="L966" s="2"/>
     </row>
-    <row r="967" spans="9:12" ht="15.75" customHeight="1">
+    <row r="967" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I967" s="2"/>
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
       <c r="L967" s="2"/>
     </row>
-    <row r="968" spans="9:12" ht="15.75" customHeight="1">
+    <row r="968" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I968" s="2"/>
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
       <c r="L968" s="2"/>
     </row>
-    <row r="969" spans="9:12" ht="15.75" customHeight="1">
+    <row r="969" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I969" s="2"/>
       <c r="J969" s="2"/>
       <c r="K969" s="2"/>
       <c r="L969" s="2"/>
     </row>
-    <row r="970" spans="9:12" ht="15.75" customHeight="1">
+    <row r="970" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I970" s="2"/>
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
       <c r="L970" s="2"/>
     </row>
-    <row r="971" spans="9:12" ht="15.75" customHeight="1">
+    <row r="971" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I971" s="2"/>
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
       <c r="L971" s="2"/>
     </row>
-    <row r="972" spans="9:12" ht="15.75" customHeight="1">
+    <row r="972" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I972" s="2"/>
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
       <c r="L972" s="2"/>
     </row>
-    <row r="973" spans="9:12" ht="15.75" customHeight="1">
+    <row r="973" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I973" s="2"/>
       <c r="J973" s="2"/>
       <c r="K973" s="2"/>
       <c r="L973" s="2"/>
     </row>
-    <row r="974" spans="9:12" ht="15.75" customHeight="1">
+    <row r="974" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I974" s="2"/>
       <c r="J974" s="2"/>
       <c r="K974" s="2"/>
       <c r="L974" s="2"/>
     </row>
-    <row r="975" spans="9:12" ht="15.75" customHeight="1">
+    <row r="975" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I975" s="2"/>
       <c r="J975" s="2"/>
       <c r="K975" s="2"/>
       <c r="L975" s="2"/>
     </row>
-    <row r="976" spans="9:12" ht="15.75" customHeight="1">
+    <row r="976" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I976" s="2"/>
       <c r="J976" s="2"/>
       <c r="K976" s="2"/>
       <c r="L976" s="2"/>
     </row>
-    <row r="977" spans="9:12" ht="15.75" customHeight="1">
+    <row r="977" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I977" s="2"/>
       <c r="J977" s="2"/>
       <c r="K977" s="2"/>
       <c r="L977" s="2"/>
     </row>
-    <row r="978" spans="9:12" ht="15.75" customHeight="1">
+    <row r="978" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I978" s="2"/>
       <c r="J978" s="2"/>
       <c r="K978" s="2"/>
       <c r="L978" s="2"/>
     </row>
-    <row r="979" spans="9:12" ht="15.75" customHeight="1">
+    <row r="979" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I979" s="2"/>
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
       <c r="L979" s="2"/>
     </row>
-    <row r="980" spans="9:12" ht="15.75" customHeight="1">
+    <row r="980" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I980" s="2"/>
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
       <c r="L980" s="2"/>
     </row>
-    <row r="981" spans="9:12" ht="15.75" customHeight="1">
+    <row r="981" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I981" s="2"/>
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
       <c r="L981" s="2"/>
     </row>
-    <row r="982" spans="9:12" ht="15.75" customHeight="1">
+    <row r="982" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I982" s="2"/>
       <c r="J982" s="2"/>
       <c r="K982" s="2"/>
       <c r="L982" s="2"/>
     </row>
-    <row r="983" spans="9:12" ht="15.75" customHeight="1">
+    <row r="983" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I983" s="2"/>
       <c r="J983" s="2"/>
       <c r="K983" s="2"/>
       <c r="L983" s="2"/>
     </row>
-    <row r="984" spans="9:12" ht="15.75" customHeight="1">
+    <row r="984" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I984" s="2"/>
       <c r="J984" s="2"/>
       <c r="K984" s="2"/>
       <c r="L984" s="2"/>
     </row>
-    <row r="985" spans="9:12" ht="15.75" customHeight="1">
+    <row r="985" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I985" s="2"/>
       <c r="J985" s="2"/>
       <c r="K985" s="2"/>
       <c r="L985" s="2"/>
     </row>
-    <row r="986" spans="9:12" ht="15.75" customHeight="1">
+    <row r="986" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I986" s="2"/>
       <c r="J986" s="2"/>
       <c r="K986" s="2"/>
       <c r="L986" s="2"/>
     </row>
-    <row r="987" spans="9:12" ht="15.75" customHeight="1">
+    <row r="987" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I987" s="2"/>
       <c r="J987" s="2"/>
       <c r="K987" s="2"/>
       <c r="L987" s="2"/>
     </row>
-    <row r="988" spans="9:12" ht="15.75" customHeight="1">
+    <row r="988" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I988" s="2"/>
       <c r="J988" s="2"/>
       <c r="K988" s="2"/>
       <c r="L988" s="2"/>
     </row>
-    <row r="989" spans="9:12" ht="15.75" customHeight="1">
+    <row r="989" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I989" s="2"/>
       <c r="J989" s="2"/>
       <c r="K989" s="2"/>
       <c r="L989" s="2"/>
     </row>
-    <row r="990" spans="9:12" ht="15.75" customHeight="1">
+    <row r="990" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I990" s="2"/>
       <c r="J990" s="2"/>
       <c r="K990" s="2"/>
       <c r="L990" s="2"/>
     </row>
-    <row r="991" spans="9:12" ht="15.75" customHeight="1">
+    <row r="991" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I991" s="2"/>
       <c r="J991" s="2"/>
       <c r="K991" s="2"/>
       <c r="L991" s="2"/>
     </row>
-    <row r="992" spans="9:12" ht="15.75" customHeight="1">
+    <row r="992" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I992" s="2"/>
       <c r="J992" s="2"/>
       <c r="K992" s="2"/>
       <c r="L992" s="2"/>
     </row>
-    <row r="993" spans="9:12" ht="15.75" customHeight="1">
+    <row r="993" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I993" s="2"/>
       <c r="J993" s="2"/>
       <c r="K993" s="2"/>
       <c r="L993" s="2"/>
     </row>
-    <row r="994" spans="9:12" ht="15.75" customHeight="1">
+    <row r="994" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I994" s="2"/>
       <c r="J994" s="2"/>
       <c r="K994" s="2"/>
       <c r="L994" s="2"/>
     </row>
-    <row r="995" spans="9:12" ht="15.75" customHeight="1">
+    <row r="995" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I995" s="2"/>
       <c r="J995" s="2"/>
       <c r="K995" s="2"/>
       <c r="L995" s="2"/>
     </row>
-    <row r="996" spans="9:12" ht="15.75" customHeight="1">
+    <row r="996" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I996" s="2"/>
       <c r="J996" s="2"/>
       <c r="K996" s="2"/>
       <c r="L996" s="2"/>
     </row>
-    <row r="997" spans="9:12" ht="15.75" customHeight="1">
+    <row r="997" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I997" s="2"/>
       <c r="J997" s="2"/>
       <c r="K997" s="2"/>
       <c r="L997" s="2"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/SituationalDashboard.xlsx
+++ b/SituationalDashboard.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/rhizome/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
@@ -12,7 +17,7 @@
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -612,14 +617,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -720,7 +719,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -984,22 +983,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="4" width="25.33203125" customWidth="1"/>
@@ -1007,7 +1006,7 @@
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1350,16 +1349,11 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L997"/>
   <sheetViews>
@@ -1367,7 +1361,7 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
@@ -1382,7 +1376,7 @@
     <col min="13" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -1411,7 +1405,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>161</v>
       </c>
@@ -1440,7 +1434,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>162</v>
       </c>
@@ -1470,7 +1464,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>166</v>
       </c>
@@ -1500,7 +1494,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>167</v>
       </c>
@@ -1530,7 +1524,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>168</v>
       </c>
@@ -1560,7 +1554,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>111</v>
       </c>
@@ -1590,7 +1584,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>70</v>
       </c>
@@ -1620,7 +1614,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
@@ -1650,7 +1644,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
@@ -1680,7 +1674,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>73</v>
       </c>
@@ -1710,7 +1704,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -1740,7 +1734,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>88</v>
       </c>
@@ -1770,7 +1764,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>92</v>
       </c>
@@ -1800,7 +1794,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -1830,7 +1824,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1860,7 +1854,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -1890,7 +1884,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1920,7 +1914,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
@@ -1950,7 +1944,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1974,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
@@ -2010,7 +2004,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
@@ -2040,7 +2034,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
@@ -2070,7 +2064,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -2100,7 +2094,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
@@ -2130,7 +2124,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -2160,7 +2154,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2184,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>115</v>
       </c>
@@ -2220,7 +2214,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>32</v>
       </c>
@@ -2250,7 +2244,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
@@ -2280,7 +2274,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>121</v>
       </c>
@@ -2310,7 +2304,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>134</v>
       </c>
@@ -2340,7 +2334,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>122</v>
       </c>
@@ -2370,7 +2364,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>123</v>
       </c>
@@ -2400,7 +2394,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>124</v>
       </c>
@@ -2430,7 +2424,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>125</v>
       </c>
@@ -2460,7 +2454,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>126</v>
       </c>
@@ -2490,7 +2484,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>127</v>
       </c>
@@ -2520,7 +2514,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>128</v>
       </c>
@@ -2550,7 +2544,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>129</v>
       </c>
@@ -2580,7 +2574,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>130</v>
       </c>
@@ -2610,7 +2604,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>130</v>
       </c>
@@ -2640,7 +2634,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>136</v>
       </c>
@@ -2670,7 +2664,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>137</v>
       </c>
@@ -2700,7 +2694,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>138</v>
       </c>
@@ -2730,7 +2724,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>139</v>
       </c>
@@ -2760,7 +2754,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>140</v>
       </c>
@@ -2790,7 +2784,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>141</v>
       </c>
@@ -2820,7 +2814,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>130</v>
       </c>
@@ -2850,7 +2844,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>125</v>
       </c>
@@ -2880,7 +2874,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>129</v>
       </c>
@@ -2910,7 +2904,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +2934,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>145</v>
       </c>
@@ -2970,7 +2964,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>146</v>
       </c>
@@ -3000,7 +2994,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>147</v>
       </c>
@@ -3030,7 +3024,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>148</v>
       </c>
@@ -3060,7 +3054,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>149</v>
       </c>
@@ -3090,7 +3084,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>150</v>
       </c>
@@ -3120,7 +3114,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>151</v>
       </c>
@@ -3150,7 +3144,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>152</v>
       </c>
@@ -3180,7 +3174,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>156</v>
       </c>
@@ -3210,7 +3204,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>157</v>
       </c>
@@ -3240,7 +3234,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>158</v>
       </c>
@@ -3270,7 +3264,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>6</v>
       </c>
@@ -3300,7 +3294,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>11</v>
       </c>
@@ -3330,7 +3324,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
@@ -3360,7 +3354,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3374,7 +3368,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3388,7 +3382,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3402,7 +3396,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3416,7 +3410,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3430,7 +3424,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3444,7 +3438,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3458,7 +3452,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3472,7 +3466,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3486,7 +3480,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3500,7 +3494,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3514,7 +3508,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3528,7 +3522,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3542,7 +3536,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3556,7 +3550,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3570,7 +3564,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3584,7 +3578,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3598,7 +3592,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3612,7 +3606,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3626,7 +3620,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3640,7 +3634,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3654,7 +3648,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3668,7 +3662,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3682,7 +3676,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3696,7 +3690,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3710,7 +3704,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3724,7 +3718,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3738,7 +3732,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3752,7 +3746,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3766,7 +3760,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3780,7 +3774,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3794,7 +3788,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3808,7 +3802,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3822,7 +3816,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3836,7 +3830,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3850,7 +3844,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3864,7 +3858,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3878,7 +3872,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3892,7 +3886,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3906,7 +3900,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3920,7 +3914,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3934,7 +3928,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3948,7 +3942,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3962,7 +3956,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3976,7 +3970,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3990,7 +3984,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4004,7 +3998,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4018,7 +4012,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4032,7 +4026,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4046,7 +4040,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4060,7 +4054,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4074,7 +4068,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4088,7 +4082,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4102,7 +4096,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4116,7 +4110,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4130,7 +4124,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4144,7 +4138,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4158,7 +4152,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4172,7 +4166,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4186,7 +4180,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4200,7 +4194,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4214,7 +4208,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4228,7 +4222,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4242,7 +4236,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4256,7 +4250,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4270,7 +4264,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4284,7 +4278,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4298,7 +4292,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4312,7 +4306,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4326,7 +4320,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4340,7 +4334,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4354,7 +4348,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4368,7 +4362,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4382,7 +4376,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4396,7 +4390,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4410,7 +4404,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4424,7 +4418,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4438,7 +4432,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4452,7 +4446,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4466,7 +4460,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4480,7 +4474,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1">
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4494,7 +4488,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1">
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4508,7 +4502,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12" ht="15.75" customHeight="1">
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4522,7 +4516,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1">
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4536,7 +4530,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4550,7 +4544,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12" ht="15.75" customHeight="1">
+    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4564,7 +4558,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:12" ht="15.75" customHeight="1">
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4578,7 +4572,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4592,7 +4586,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4606,7 +4600,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" ht="15.75" customHeight="1">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4620,7 +4614,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12" ht="15.75" customHeight="1">
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4634,7 +4628,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:12" ht="15.75" customHeight="1">
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4648,7 +4642,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" ht="15.75" customHeight="1">
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4662,7 +4656,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:12" ht="15.75" customHeight="1">
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4676,7 +4670,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" ht="15.75" customHeight="1">
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -4690,7 +4684,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" ht="15.75" customHeight="1">
+    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -4704,7 +4698,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" ht="15.75" customHeight="1">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -4718,7 +4712,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" ht="15.75" customHeight="1">
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -4732,7 +4726,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1">
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -4746,7 +4740,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" ht="15.75" customHeight="1">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -4760,7 +4754,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -4774,7 +4768,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" ht="15.75" customHeight="1">
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -4788,7 +4782,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12" ht="15.75" customHeight="1">
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4802,7 +4796,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" ht="15.75" customHeight="1">
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4816,7 +4810,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" ht="15.75" customHeight="1">
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -4830,7 +4824,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" ht="15.75" customHeight="1">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -4844,7 +4838,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" ht="15.75" customHeight="1">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -4858,7 +4852,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="15.75" customHeight="1">
+    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -4872,7 +4866,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" ht="15.75" customHeight="1">
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -4886,7 +4880,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1">
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -4900,7 +4894,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4914,7 +4908,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4928,7 +4922,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4942,7 +4936,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4956,7 +4950,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4970,7 +4964,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4984,7 +4978,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4998,7 +4992,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" ht="15.75" customHeight="1">
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5012,7 +5006,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" ht="15.75" customHeight="1">
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5026,7 +5020,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" ht="15.75" customHeight="1">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5040,7 +5034,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5054,7 +5048,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" ht="15.75" customHeight="1">
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5068,7 +5062,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1">
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5082,7 +5076,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5096,7 +5090,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1">
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5110,7 +5104,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" ht="15.75" customHeight="1">
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5124,7 +5118,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12" ht="15.75" customHeight="1">
+    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5138,7 +5132,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" ht="15.75" customHeight="1">
+    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5152,7 +5146,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12" ht="15.75" customHeight="1">
+    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5166,7 +5160,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12" ht="15.75" customHeight="1">
+    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5180,7 +5174,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" ht="15.75" customHeight="1">
+    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5194,7 +5188,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12" ht="15.75" customHeight="1">
+    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5208,7 +5202,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12" ht="15.75" customHeight="1">
+    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5222,7 +5216,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" ht="15.75" customHeight="1">
+    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5236,7 +5230,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12" ht="15.75" customHeight="1">
+    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5250,7 +5244,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12" ht="15.75" customHeight="1">
+    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5264,7 +5258,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12" ht="15.75" customHeight="1">
+    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5278,7 +5272,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:12" ht="15.75" customHeight="1">
+    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5292,7 +5286,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:12" ht="15.75" customHeight="1">
+    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -5306,7 +5300,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:12" ht="15.75" customHeight="1">
+    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -5320,7 +5314,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:12" ht="15.75" customHeight="1">
+    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -5334,7 +5328,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:12" ht="15.75" customHeight="1">
+    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -5348,7 +5342,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12" ht="15.75" customHeight="1">
+    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -5362,7 +5356,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" ht="15.75" customHeight="1">
+    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -5376,7 +5370,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12" ht="15.75" customHeight="1">
+    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -5390,7 +5384,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12" ht="15.75" customHeight="1">
+    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -5404,7 +5398,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" ht="15.75" customHeight="1">
+    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -5418,7 +5412,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" ht="15.75" customHeight="1">
+    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -5432,7 +5426,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" ht="15.75" customHeight="1">
+    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -5446,7 +5440,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12" ht="15.75" customHeight="1">
+    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -5460,7 +5454,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" ht="15.75" customHeight="1">
+    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -5474,7 +5468,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12" ht="15.75" customHeight="1">
+    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -5488,7 +5482,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12" ht="15.75" customHeight="1">
+    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -5502,7 +5496,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12" ht="15.75" customHeight="1">
+    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -5516,7 +5510,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" spans="1:12" ht="15.75" customHeight="1">
+    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -5530,7 +5524,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12" ht="15.75" customHeight="1">
+    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -5544,7 +5538,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" ht="15.75" customHeight="1">
+    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -5558,7 +5552,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12" ht="15.75" customHeight="1">
+    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -5572,7 +5566,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" ht="15.75" customHeight="1">
+    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -5586,7 +5580,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="15.75" customHeight="1">
+    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -5600,7 +5594,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" ht="15.75" customHeight="1">
+    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -5614,7 +5608,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" ht="15.75" customHeight="1">
+    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -5628,7 +5622,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:12" ht="15.75" customHeight="1">
+    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5642,7 +5636,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" ht="15.75" customHeight="1">
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -5656,7 +5650,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" ht="15.75" customHeight="1">
+    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -5670,7 +5664,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="15.75" customHeight="1">
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -5684,7 +5678,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12" ht="15.75" customHeight="1">
+    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -5698,7 +5692,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" ht="15.75" customHeight="1">
+    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -5712,7 +5706,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" ht="15.75" customHeight="1">
+    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -5726,7 +5720,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" ht="15.75" customHeight="1">
+    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -5740,7 +5734,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12" ht="15.75" customHeight="1">
+    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -5754,7 +5748,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12" ht="15.75" customHeight="1">
+    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5768,7 +5762,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12" ht="15.75" customHeight="1">
+    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5782,7 +5776,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" customHeight="1">
+    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5796,7 +5790,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" ht="15.75" customHeight="1">
+    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5810,7 +5804,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" ht="15.75" customHeight="1">
+    <row r="242" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5824,7 +5818,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" ht="15.75" customHeight="1">
+    <row r="243" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5838,7 +5832,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" ht="15.75" customHeight="1">
+    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5852,7 +5846,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" ht="15.75" customHeight="1">
+    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -5866,7 +5860,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" ht="15.75" customHeight="1">
+    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -5880,7 +5874,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" ht="15.75" customHeight="1">
+    <row r="247" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -5894,7 +5888,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="15.75" customHeight="1">
+    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -5908,7 +5902,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="15.75" customHeight="1">
+    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -5922,7 +5916,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" ht="15.75" customHeight="1">
+    <row r="250" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -5936,7 +5930,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="15.75" customHeight="1">
+    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -5950,7 +5944,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12" ht="15.75" customHeight="1">
+    <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -5964,7 +5958,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12" ht="15.75" customHeight="1">
+    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -5978,7 +5972,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" ht="15.75" customHeight="1">
+    <row r="254" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -5992,7 +5986,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" ht="15.75" customHeight="1">
+    <row r="255" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -6006,7 +6000,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" ht="15.75" customHeight="1">
+    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -6020,7 +6014,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
     </row>
-    <row r="257" spans="1:12" ht="15.75" customHeight="1">
+    <row r="257" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -6034,7 +6028,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12" ht="15.75" customHeight="1">
+    <row r="258" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -6048,7 +6042,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12" ht="15.75" customHeight="1">
+    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -6062,7 +6056,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12" ht="15.75" customHeight="1">
+    <row r="260" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -6076,7 +6070,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12" ht="15.75" customHeight="1">
+    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -6090,7 +6084,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" ht="15.75" customHeight="1">
+    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -6104,7 +6098,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12" ht="15.75" customHeight="1">
+    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -6118,7 +6112,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" ht="15.75" customHeight="1">
+    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -6132,7 +6126,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" ht="15.75" customHeight="1">
+    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -6146,7 +6140,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" ht="15.75" customHeight="1">
+    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -6160,7 +6154,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12" ht="15.75" customHeight="1">
+    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -6174,7 +6168,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12" ht="15.75" customHeight="1">
+    <row r="268" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -6188,7 +6182,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12" ht="15.75" customHeight="1">
+    <row r="269" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -6202,7 +6196,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12" ht="15.75" customHeight="1">
+    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -6216,7 +6210,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12" ht="15.75" customHeight="1">
+    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -6230,7 +6224,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
     </row>
-    <row r="272" spans="1:12" ht="15.75" customHeight="1">
+    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -6244,7 +6238,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12" ht="15.75" customHeight="1">
+    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -6258,7 +6252,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="15.75" customHeight="1">
+    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -6272,7 +6266,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12" ht="15.75" customHeight="1">
+    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -6286,7 +6280,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" ht="15.75" customHeight="1">
+    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -6300,7 +6294,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="15.75" customHeight="1">
+    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -6314,7 +6308,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12" ht="15.75" customHeight="1">
+    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -6328,7 +6322,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" ht="15.75" customHeight="1">
+    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -6342,7 +6336,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" ht="15.75" customHeight="1">
+    <row r="280" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -6356,7 +6350,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" ht="15.75" customHeight="1">
+    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -6370,7 +6364,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" ht="15.75" customHeight="1">
+    <row r="282" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -6384,7 +6378,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" ht="15.75" customHeight="1">
+    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -6398,7 +6392,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="15.75" customHeight="1">
+    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -6412,7 +6406,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12" ht="15.75" customHeight="1">
+    <row r="285" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -6426,7 +6420,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="15.75" customHeight="1">
+    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -6440,7 +6434,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" ht="15.75" customHeight="1">
+    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -6454,7 +6448,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" ht="15.75" customHeight="1">
+    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -6468,7 +6462,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12" ht="15.75" customHeight="1">
+    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -6482,7 +6476,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
     </row>
-    <row r="290" spans="1:12" ht="15.75" customHeight="1">
+    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -6496,7 +6490,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12" ht="15.75" customHeight="1">
+    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -6510,7 +6504,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
     </row>
-    <row r="292" spans="1:12" ht="15.75" customHeight="1">
+    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -6524,7 +6518,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12" ht="15.75" customHeight="1">
+    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -6538,7 +6532,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
     </row>
-    <row r="294" spans="1:12" ht="15.75" customHeight="1">
+    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -6552,7 +6546,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" ht="15.75" customHeight="1">
+    <row r="295" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -6566,7 +6560,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" ht="15.75" customHeight="1">
+    <row r="296" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -6580,7 +6574,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12" ht="15.75" customHeight="1">
+    <row r="297" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -6594,7 +6588,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" ht="15.75" customHeight="1">
+    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -6608,7 +6602,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" ht="15.75" customHeight="1">
+    <row r="299" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -6622,7 +6616,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" ht="15.75" customHeight="1">
+    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -6636,7 +6630,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" ht="15.75" customHeight="1">
+    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -6650,7 +6644,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" ht="15.75" customHeight="1">
+    <row r="302" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -6664,7 +6658,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="15.75" customHeight="1">
+    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -6678,7 +6672,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12" ht="15.75" customHeight="1">
+    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -6692,7 +6686,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" ht="15.75" customHeight="1">
+    <row r="305" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -6706,7 +6700,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12" ht="15.75" customHeight="1">
+    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -6720,7 +6714,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" ht="15.75" customHeight="1">
+    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -6734,7 +6728,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12" ht="15.75" customHeight="1">
+    <row r="308" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -6748,7 +6742,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12" ht="15.75" customHeight="1">
+    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -6762,7 +6756,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" ht="15.75" customHeight="1">
+    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -6776,7 +6770,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12" ht="15.75" customHeight="1">
+    <row r="311" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -6790,7 +6784,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12" ht="15.75" customHeight="1">
+    <row r="312" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -6804,7 +6798,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12" ht="15.75" customHeight="1">
+    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -6818,7 +6812,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12" ht="15.75" customHeight="1">
+    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -6832,7 +6826,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
     </row>
-    <row r="315" spans="1:12" ht="15.75" customHeight="1">
+    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -6846,7 +6840,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12" ht="15.75" customHeight="1">
+    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -6860,7 +6854,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12" ht="15.75" customHeight="1">
+    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -6874,7 +6868,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12" ht="15.75" customHeight="1">
+    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -6888,7 +6882,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
-    <row r="319" spans="1:12" ht="15.75" customHeight="1">
+    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -6902,7 +6896,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12" ht="15.75" customHeight="1">
+    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -6916,7 +6910,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
     </row>
-    <row r="321" spans="1:12" ht="15.75" customHeight="1">
+    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -6930,7 +6924,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
     </row>
-    <row r="322" spans="1:12" ht="15.75" customHeight="1">
+    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -6944,7 +6938,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12" ht="15.75" customHeight="1">
+    <row r="323" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -6958,7 +6952,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" ht="15.75" customHeight="1">
+    <row r="324" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -6972,7 +6966,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12" ht="15.75" customHeight="1">
+    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -6986,7 +6980,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="15.75" customHeight="1">
+    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -7000,7 +6994,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12" ht="15.75" customHeight="1">
+    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -7014,7 +7008,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="15.75" customHeight="1">
+    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -7028,7 +7022,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" ht="15.75" customHeight="1">
+    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -7042,7 +7036,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12" ht="15.75" customHeight="1">
+    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -7056,7 +7050,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12" ht="15.75" customHeight="1">
+    <row r="331" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -7070,7 +7064,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12" ht="15.75" customHeight="1">
+    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -7084,7 +7078,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
     </row>
-    <row r="333" spans="1:12" ht="15.75" customHeight="1">
+    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -7098,7 +7092,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" ht="15.75" customHeight="1">
+    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -7112,7 +7106,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12" ht="15.75" customHeight="1">
+    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -7126,7 +7120,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12" ht="15.75" customHeight="1">
+    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -7140,7 +7134,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" ht="15.75" customHeight="1">
+    <row r="337" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -7154,7 +7148,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" ht="15.75" customHeight="1">
+    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -7168,7 +7162,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="15.75" customHeight="1">
+    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -7182,7 +7176,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12" ht="15.75" customHeight="1">
+    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -7196,7 +7190,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" ht="15.75" customHeight="1">
+    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -7210,7 +7204,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" ht="15.75" customHeight="1">
+    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -7224,7 +7218,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12" ht="15.75" customHeight="1">
+    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -7238,7 +7232,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12" ht="15.75" customHeight="1">
+    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -7252,7 +7246,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12" ht="15.75" customHeight="1">
+    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -7266,7 +7260,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12" ht="15.75" customHeight="1">
+    <row r="346" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -7280,7 +7274,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="2"/>
     </row>
-    <row r="347" spans="1:12" ht="15.75" customHeight="1">
+    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -7294,7 +7288,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12" ht="15.75" customHeight="1">
+    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -7308,7 +7302,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
     </row>
-    <row r="349" spans="1:12" ht="15.75" customHeight="1">
+    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -7322,7 +7316,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
     </row>
-    <row r="350" spans="1:12" ht="15.75" customHeight="1">
+    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -7336,7 +7330,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12" ht="15.75" customHeight="1">
+    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -7350,7 +7344,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12" ht="15.75" customHeight="1">
+    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -7364,7 +7358,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12" ht="15.75" customHeight="1">
+    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -7378,7 +7372,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12" ht="15.75" customHeight="1">
+    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -7392,7 +7386,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12" ht="15.75" customHeight="1">
+    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -7406,7 +7400,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
     </row>
-    <row r="356" spans="1:12" ht="15.75" customHeight="1">
+    <row r="356" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -7420,7 +7414,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
     </row>
-    <row r="357" spans="1:12" ht="15.75" customHeight="1">
+    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -7434,7 +7428,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" ht="15.75" customHeight="1">
+    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -7448,7 +7442,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12" ht="15.75" customHeight="1">
+    <row r="359" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -7462,7 +7456,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12" ht="15.75" customHeight="1">
+    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -7476,7 +7470,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12" ht="15.75" customHeight="1">
+    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -7490,7 +7484,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" ht="15.75" customHeight="1">
+    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -7504,7 +7498,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" ht="15.75" customHeight="1">
+    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -7518,7 +7512,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" ht="15.75" customHeight="1">
+    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -7532,7 +7526,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12" ht="15.75" customHeight="1">
+    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -7546,7 +7540,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
     </row>
-    <row r="366" spans="1:12" ht="15.75" customHeight="1">
+    <row r="366" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -7560,7 +7554,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" ht="15.75" customHeight="1">
+    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -7574,7 +7568,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" ht="15.75" customHeight="1">
+    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -7588,7 +7582,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" ht="15.75" customHeight="1">
+    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -7602,7 +7596,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" ht="15.75" customHeight="1">
+    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -7616,7 +7610,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" ht="15.75" customHeight="1">
+    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -7630,7 +7624,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" ht="15.75" customHeight="1">
+    <row r="372" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -7644,7 +7638,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="2"/>
     </row>
-    <row r="373" spans="1:12" ht="15.75" customHeight="1">
+    <row r="373" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -7658,7 +7652,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="2"/>
     </row>
-    <row r="374" spans="1:12" ht="15.75" customHeight="1">
+    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -7672,7 +7666,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12" ht="15.75" customHeight="1">
+    <row r="375" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -7686,7 +7680,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12" ht="15.75" customHeight="1">
+    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -7700,7 +7694,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12" ht="15.75" customHeight="1">
+    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -7714,7 +7708,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12" ht="15.75" customHeight="1">
+    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -7728,7 +7722,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12" ht="15.75" customHeight="1">
+    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -7742,7 +7736,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
     </row>
-    <row r="380" spans="1:12" ht="15.75" customHeight="1">
+    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -7756,7 +7750,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
     </row>
-    <row r="381" spans="1:12" ht="15.75" customHeight="1">
+    <row r="381" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -7770,7 +7764,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12" ht="15.75" customHeight="1">
+    <row r="382" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -7784,7 +7778,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12" ht="15.75" customHeight="1">
+    <row r="383" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -7798,7 +7792,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12" ht="15.75" customHeight="1">
+    <row r="384" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -7812,7 +7806,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" ht="15.75" customHeight="1">
+    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -7826,7 +7820,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" ht="15.75" customHeight="1">
+    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -7840,7 +7834,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" ht="15.75" customHeight="1">
+    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -7854,7 +7848,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="15.75" customHeight="1">
+    <row r="388" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -7868,7 +7862,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" ht="15.75" customHeight="1">
+    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -7882,7 +7876,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" ht="15.75" customHeight="1">
+    <row r="390" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -7896,7 +7890,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12" ht="15.75" customHeight="1">
+    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -7910,7 +7904,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12" ht="15.75" customHeight="1">
+    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -7924,7 +7918,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" ht="15.75" customHeight="1">
+    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -7938,7 +7932,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" ht="15.75" customHeight="1">
+    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -7952,7 +7946,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12" ht="15.75" customHeight="1">
+    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -7966,7 +7960,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12" ht="15.75" customHeight="1">
+    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -7980,7 +7974,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12" ht="15.75" customHeight="1">
+    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -7994,7 +7988,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12" ht="15.75" customHeight="1">
+    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -8008,7 +8002,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="2"/>
     </row>
-    <row r="399" spans="1:12" ht="15.75" customHeight="1">
+    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -8022,7 +8016,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12" ht="15.75" customHeight="1">
+    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -8036,7 +8030,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="2"/>
     </row>
-    <row r="401" spans="1:12" ht="15.75" customHeight="1">
+    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -8050,7 +8044,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12" ht="15.75" customHeight="1">
+    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -8064,7 +8058,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="2"/>
     </row>
-    <row r="403" spans="1:12" ht="15.75" customHeight="1">
+    <row r="403" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -8078,7 +8072,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
     </row>
-    <row r="404" spans="1:12" ht="15.75" customHeight="1">
+    <row r="404" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -8092,7 +8086,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12" ht="15.75" customHeight="1">
+    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -8106,7 +8100,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12" ht="15.75" customHeight="1">
+    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -8120,7 +8114,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12" ht="15.75" customHeight="1">
+    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -8134,7 +8128,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12" ht="15.75" customHeight="1">
+    <row r="408" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -8148,7 +8142,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12" ht="15.75" customHeight="1">
+    <row r="409" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -8162,7 +8156,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="2"/>
     </row>
-    <row r="410" spans="1:12" ht="15.75" customHeight="1">
+    <row r="410" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -8176,7 +8170,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12" ht="15.75" customHeight="1">
+    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -8190,7 +8184,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="2"/>
     </row>
-    <row r="412" spans="1:12" ht="15.75" customHeight="1">
+    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -8204,7 +8198,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="2"/>
     </row>
-    <row r="413" spans="1:12" ht="15.75" customHeight="1">
+    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -8218,7 +8212,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="2"/>
     </row>
-    <row r="414" spans="1:12" ht="15.75" customHeight="1">
+    <row r="414" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -8232,7 +8226,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12" ht="15.75" customHeight="1">
+    <row r="415" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -8246,7 +8240,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:12" ht="15.75" customHeight="1">
+    <row r="416" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -8260,7 +8254,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12" ht="15.75" customHeight="1">
+    <row r="417" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -8274,7 +8268,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12" ht="15.75" customHeight="1">
+    <row r="418" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -8288,7 +8282,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" ht="15.75" customHeight="1">
+    <row r="419" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -8302,7 +8296,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12" ht="15.75" customHeight="1">
+    <row r="420" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -8316,7 +8310,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="2"/>
     </row>
-    <row r="421" spans="1:12" ht="15.75" customHeight="1">
+    <row r="421" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -8330,7 +8324,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" ht="15.75" customHeight="1">
+    <row r="422" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -8344,7 +8338,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" ht="15.75" customHeight="1">
+    <row r="423" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -8358,7 +8352,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" ht="15.75" customHeight="1">
+    <row r="424" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -8372,7 +8366,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" ht="15.75" customHeight="1">
+    <row r="425" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -8386,7 +8380,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12" ht="15.75" customHeight="1">
+    <row r="426" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -8400,7 +8394,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12" ht="15.75" customHeight="1">
+    <row r="427" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -8414,7 +8408,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12" ht="15.75" customHeight="1">
+    <row r="428" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -8428,7 +8422,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12" ht="15.75" customHeight="1">
+    <row r="429" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -8442,7 +8436,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
     </row>
-    <row r="430" spans="1:12" ht="15.75" customHeight="1">
+    <row r="430" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -8456,7 +8450,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" ht="15.75" customHeight="1">
+    <row r="431" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -8470,3397 +8464,3397 @@
       <c r="K431" s="2"/>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12" ht="15.75" customHeight="1">
+    <row r="432" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="9:12" ht="15.75" customHeight="1">
+    <row r="433" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="9:12" ht="15.75" customHeight="1">
+    <row r="434" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="9:12" ht="15.75" customHeight="1">
+    <row r="435" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="9:12" ht="15.75" customHeight="1">
+    <row r="436" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="9:12" ht="15.75" customHeight="1">
+    <row r="437" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="9:12" ht="15.75" customHeight="1">
+    <row r="438" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
       <c r="L438" s="2"/>
     </row>
-    <row r="439" spans="9:12" ht="15.75" customHeight="1">
+    <row r="439" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="9:12" ht="15.75" customHeight="1">
+    <row r="440" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="9:12" ht="15.75" customHeight="1">
+    <row r="441" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="9:12" ht="15.75" customHeight="1">
+    <row r="442" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
     </row>
-    <row r="443" spans="9:12" ht="15.75" customHeight="1">
+    <row r="443" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="9:12" ht="15.75" customHeight="1">
+    <row r="444" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="9:12" ht="15.75" customHeight="1">
+    <row r="445" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="9:12" ht="15.75" customHeight="1">
+    <row r="446" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="9:12" ht="15.75" customHeight="1">
+    <row r="447" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
     </row>
-    <row r="448" spans="9:12" ht="15.75" customHeight="1">
+    <row r="448" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="9:12" ht="15.75" customHeight="1">
+    <row r="449" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="9:12" ht="15.75" customHeight="1">
+    <row r="450" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="9:12" ht="15.75" customHeight="1">
+    <row r="451" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="9:12" ht="15.75" customHeight="1">
+    <row r="452" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
       <c r="L452" s="2"/>
     </row>
-    <row r="453" spans="9:12" ht="15.75" customHeight="1">
+    <row r="453" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="9:12" ht="15.75" customHeight="1">
+    <row r="454" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="9:12" ht="15.75" customHeight="1">
+    <row r="455" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="9:12" ht="15.75" customHeight="1">
+    <row r="456" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="9:12" ht="15.75" customHeight="1">
+    <row r="457" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="9:12" ht="15.75" customHeight="1">
+    <row r="458" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="9:12" ht="15.75" customHeight="1">
+    <row r="459" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="9:12" ht="15.75" customHeight="1">
+    <row r="460" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="9:12" ht="15.75" customHeight="1">
+    <row r="461" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="9:12" ht="15.75" customHeight="1">
+    <row r="462" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="9:12" ht="15.75" customHeight="1">
+    <row r="463" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="9:12" ht="15.75" customHeight="1">
+    <row r="464" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="9:12" ht="15.75" customHeight="1">
+    <row r="465" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="9:12" ht="15.75" customHeight="1">
+    <row r="466" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="9:12" ht="15.75" customHeight="1">
+    <row r="467" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="9:12" ht="15.75" customHeight="1">
+    <row r="468" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="9:12" ht="15.75" customHeight="1">
+    <row r="469" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="9:12" ht="15.75" customHeight="1">
+    <row r="470" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="9:12" ht="15.75" customHeight="1">
+    <row r="471" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="9:12" ht="15.75" customHeight="1">
+    <row r="472" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="9:12" ht="15.75" customHeight="1">
+    <row r="473" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="9:12" ht="15.75" customHeight="1">
+    <row r="474" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="9:12" ht="15.75" customHeight="1">
+    <row r="475" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="9:12" ht="15.75" customHeight="1">
+    <row r="476" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="9:12" ht="15.75" customHeight="1">
+    <row r="477" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="9:12" ht="15.75" customHeight="1">
+    <row r="478" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="9:12" ht="15.75" customHeight="1">
+    <row r="479" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="9:12" ht="15.75" customHeight="1">
+    <row r="480" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="9:12" ht="15.75" customHeight="1">
+    <row r="481" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="9:12" ht="15.75" customHeight="1">
+    <row r="482" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="9:12" ht="15.75" customHeight="1">
+    <row r="483" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="9:12" ht="15.75" customHeight="1">
+    <row r="484" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="9:12" ht="15.75" customHeight="1">
+    <row r="485" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="9:12" ht="15.75" customHeight="1">
+    <row r="486" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="9:12" ht="15.75" customHeight="1">
+    <row r="487" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="9:12" ht="15.75" customHeight="1">
+    <row r="488" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="9:12" ht="15.75" customHeight="1">
+    <row r="489" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="9:12" ht="15.75" customHeight="1">
+    <row r="490" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="9:12" ht="15.75" customHeight="1">
+    <row r="491" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="9:12" ht="15.75" customHeight="1">
+    <row r="492" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="9:12" ht="15.75" customHeight="1">
+    <row r="493" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="9:12" ht="15.75" customHeight="1">
+    <row r="494" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="9:12" ht="15.75" customHeight="1">
+    <row r="495" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="9:12" ht="15.75" customHeight="1">
+    <row r="496" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="9:12" ht="15.75" customHeight="1">
+    <row r="497" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="9:12" ht="15.75" customHeight="1">
+    <row r="498" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="9:12" ht="15.75" customHeight="1">
+    <row r="499" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="9:12" ht="15.75" customHeight="1">
+    <row r="500" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="9:12" ht="15.75" customHeight="1">
+    <row r="501" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="9:12" ht="15.75" customHeight="1">
+    <row r="502" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="9:12" ht="15.75" customHeight="1">
+    <row r="503" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="9:12" ht="15.75" customHeight="1">
+    <row r="504" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="9:12" ht="15.75" customHeight="1">
+    <row r="505" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="9:12" ht="15.75" customHeight="1">
+    <row r="506" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="9:12" ht="15.75" customHeight="1">
+    <row r="507" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="9:12" ht="15.75" customHeight="1">
+    <row r="508" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="9:12" ht="15.75" customHeight="1">
+    <row r="509" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="9:12" ht="15.75" customHeight="1">
+    <row r="510" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="9:12" ht="15.75" customHeight="1">
+    <row r="511" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="9:12" ht="15.75" customHeight="1">
+    <row r="512" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="9:12" ht="15.75" customHeight="1">
+    <row r="513" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="9:12" ht="15.75" customHeight="1">
+    <row r="514" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="9:12" ht="15.75" customHeight="1">
+    <row r="515" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="9:12" ht="15.75" customHeight="1">
+    <row r="516" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="9:12" ht="15.75" customHeight="1">
+    <row r="517" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="9:12" ht="15.75" customHeight="1">
+    <row r="518" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="9:12" ht="15.75" customHeight="1">
+    <row r="519" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
-    <row r="520" spans="9:12" ht="15.75" customHeight="1">
+    <row r="520" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="9:12" ht="15.75" customHeight="1">
+    <row r="521" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="9:12" ht="15.75" customHeight="1">
+    <row r="522" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="9:12" ht="15.75" customHeight="1">
+    <row r="523" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="9:12" ht="15.75" customHeight="1">
+    <row r="524" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="9:12" ht="15.75" customHeight="1">
+    <row r="525" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
       <c r="L525" s="2"/>
     </row>
-    <row r="526" spans="9:12" ht="15.75" customHeight="1">
+    <row r="526" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="9:12" ht="15.75" customHeight="1">
+    <row r="527" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="9:12" ht="15.75" customHeight="1">
+    <row r="528" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="9:12" ht="15.75" customHeight="1">
+    <row r="529" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="9:12" ht="15.75" customHeight="1">
+    <row r="530" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
     </row>
-    <row r="531" spans="9:12" ht="15.75" customHeight="1">
+    <row r="531" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="9:12" ht="15.75" customHeight="1">
+    <row r="532" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="9:12" ht="15.75" customHeight="1">
+    <row r="533" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="9:12" ht="15.75" customHeight="1">
+    <row r="534" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
       <c r="L534" s="2"/>
     </row>
-    <row r="535" spans="9:12" ht="15.75" customHeight="1">
+    <row r="535" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="9:12" ht="15.75" customHeight="1">
+    <row r="536" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="9:12" ht="15.75" customHeight="1">
+    <row r="537" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="9:12" ht="15.75" customHeight="1">
+    <row r="538" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="9:12" ht="15.75" customHeight="1">
+    <row r="539" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I539" s="2"/>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="9:12" ht="15.75" customHeight="1">
+    <row r="540" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I540" s="2"/>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="9:12" ht="15.75" customHeight="1">
+    <row r="541" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I541" s="2"/>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
       <c r="L541" s="2"/>
     </row>
-    <row r="542" spans="9:12" ht="15.75" customHeight="1">
+    <row r="542" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I542" s="2"/>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="9:12" ht="15.75" customHeight="1">
+    <row r="543" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I543" s="2"/>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="9:12" ht="15.75" customHeight="1">
+    <row r="544" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I544" s="2"/>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="9:12" ht="15.75" customHeight="1">
+    <row r="545" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I545" s="2"/>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="9:12" ht="15.75" customHeight="1">
+    <row r="546" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I546" s="2"/>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
     </row>
-    <row r="547" spans="9:12" ht="15.75" customHeight="1">
+    <row r="547" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I547" s="2"/>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="9:12" ht="15.75" customHeight="1">
+    <row r="548" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I548" s="2"/>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="9:12" ht="15.75" customHeight="1">
+    <row r="549" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I549" s="2"/>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="9:12" ht="15.75" customHeight="1">
+    <row r="550" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I550" s="2"/>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="9:12" ht="15.75" customHeight="1">
+    <row r="551" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I551" s="2"/>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
     </row>
-    <row r="552" spans="9:12" ht="15.75" customHeight="1">
+    <row r="552" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I552" s="2"/>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="9:12" ht="15.75" customHeight="1">
+    <row r="553" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I553" s="2"/>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="9:12" ht="15.75" customHeight="1">
+    <row r="554" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I554" s="2"/>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="9:12" ht="15.75" customHeight="1">
+    <row r="555" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I555" s="2"/>
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
     </row>
-    <row r="556" spans="9:12" ht="15.75" customHeight="1">
+    <row r="556" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I556" s="2"/>
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="9:12" ht="15.75" customHeight="1">
+    <row r="557" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I557" s="2"/>
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
       <c r="L557" s="2"/>
     </row>
-    <row r="558" spans="9:12" ht="15.75" customHeight="1">
+    <row r="558" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I558" s="2"/>
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="9:12" ht="15.75" customHeight="1">
+    <row r="559" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I559" s="2"/>
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="9:12" ht="15.75" customHeight="1">
+    <row r="560" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I560" s="2"/>
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
       <c r="L560" s="2"/>
     </row>
-    <row r="561" spans="9:12" ht="15.75" customHeight="1">
+    <row r="561" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I561" s="2"/>
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="9:12" ht="15.75" customHeight="1">
+    <row r="562" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I562" s="2"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="9:12" ht="15.75" customHeight="1">
+    <row r="563" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I563" s="2"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="9:12" ht="15.75" customHeight="1">
+    <row r="564" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I564" s="2"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
     </row>
-    <row r="565" spans="9:12" ht="15.75" customHeight="1">
+    <row r="565" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I565" s="2"/>
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="9:12" ht="15.75" customHeight="1">
+    <row r="566" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I566" s="2"/>
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
     </row>
-    <row r="567" spans="9:12" ht="15.75" customHeight="1">
+    <row r="567" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I567" s="2"/>
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="9:12" ht="15.75" customHeight="1">
+    <row r="568" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I568" s="2"/>
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="9:12" ht="15.75" customHeight="1">
+    <row r="569" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I569" s="2"/>
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
       <c r="L569" s="2"/>
     </row>
-    <row r="570" spans="9:12" ht="15.75" customHeight="1">
+    <row r="570" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I570" s="2"/>
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
     </row>
-    <row r="571" spans="9:12" ht="15.75" customHeight="1">
+    <row r="571" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="9:12" ht="15.75" customHeight="1">
+    <row r="572" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I572" s="2"/>
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
-    <row r="573" spans="9:12" ht="15.75" customHeight="1">
+    <row r="573" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I573" s="2"/>
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
       <c r="L573" s="2"/>
     </row>
-    <row r="574" spans="9:12" ht="15.75" customHeight="1">
+    <row r="574" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I574" s="2"/>
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
       <c r="L574" s="2"/>
     </row>
-    <row r="575" spans="9:12" ht="15.75" customHeight="1">
+    <row r="575" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I575" s="2"/>
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="9:12" ht="15.75" customHeight="1">
+    <row r="576" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I576" s="2"/>
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
     </row>
-    <row r="577" spans="9:12" ht="15.75" customHeight="1">
+    <row r="577" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I577" s="2"/>
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
       <c r="L577" s="2"/>
     </row>
-    <row r="578" spans="9:12" ht="15.75" customHeight="1">
+    <row r="578" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I578" s="2"/>
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="9:12" ht="15.75" customHeight="1">
+    <row r="579" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I579" s="2"/>
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
       <c r="L579" s="2"/>
     </row>
-    <row r="580" spans="9:12" ht="15.75" customHeight="1">
+    <row r="580" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I580" s="2"/>
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
     </row>
-    <row r="581" spans="9:12" ht="15.75" customHeight="1">
+    <row r="581" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I581" s="2"/>
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
     </row>
-    <row r="582" spans="9:12" ht="15.75" customHeight="1">
+    <row r="582" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I582" s="2"/>
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
     </row>
-    <row r="583" spans="9:12" ht="15.75" customHeight="1">
+    <row r="583" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I583" s="2"/>
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
-    <row r="584" spans="9:12" ht="15.75" customHeight="1">
+    <row r="584" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I584" s="2"/>
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
-    <row r="585" spans="9:12" ht="15.75" customHeight="1">
+    <row r="585" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I585" s="2"/>
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
-    <row r="586" spans="9:12" ht="15.75" customHeight="1">
+    <row r="586" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I586" s="2"/>
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="9:12" ht="15.75" customHeight="1">
+    <row r="587" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I587" s="2"/>
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
     </row>
-    <row r="588" spans="9:12" ht="15.75" customHeight="1">
+    <row r="588" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I588" s="2"/>
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
       <c r="L588" s="2"/>
     </row>
-    <row r="589" spans="9:12" ht="15.75" customHeight="1">
+    <row r="589" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I589" s="2"/>
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
     </row>
-    <row r="590" spans="9:12" ht="15.75" customHeight="1">
+    <row r="590" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I590" s="2"/>
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
       <c r="L590" s="2"/>
     </row>
-    <row r="591" spans="9:12" ht="15.75" customHeight="1">
+    <row r="591" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I591" s="2"/>
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
       <c r="L591" s="2"/>
     </row>
-    <row r="592" spans="9:12" ht="15.75" customHeight="1">
+    <row r="592" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I592" s="2"/>
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
       <c r="L592" s="2"/>
     </row>
-    <row r="593" spans="9:12" ht="15.75" customHeight="1">
+    <row r="593" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I593" s="2"/>
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
       <c r="L593" s="2"/>
     </row>
-    <row r="594" spans="9:12" ht="15.75" customHeight="1">
+    <row r="594" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I594" s="2"/>
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
       <c r="L594" s="2"/>
     </row>
-    <row r="595" spans="9:12" ht="15.75" customHeight="1">
+    <row r="595" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I595" s="2"/>
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="9:12" ht="15.75" customHeight="1">
+    <row r="596" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I596" s="2"/>
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
       <c r="L596" s="2"/>
     </row>
-    <row r="597" spans="9:12" ht="15.75" customHeight="1">
+    <row r="597" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I597" s="2"/>
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
       <c r="L597" s="2"/>
     </row>
-    <row r="598" spans="9:12" ht="15.75" customHeight="1">
+    <row r="598" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I598" s="2"/>
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
       <c r="L598" s="2"/>
     </row>
-    <row r="599" spans="9:12" ht="15.75" customHeight="1">
+    <row r="599" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I599" s="2"/>
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
       <c r="L599" s="2"/>
     </row>
-    <row r="600" spans="9:12" ht="15.75" customHeight="1">
+    <row r="600" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I600" s="2"/>
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
     </row>
-    <row r="601" spans="9:12" ht="15.75" customHeight="1">
+    <row r="601" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I601" s="2"/>
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
     </row>
-    <row r="602" spans="9:12" ht="15.75" customHeight="1">
+    <row r="602" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I602" s="2"/>
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
     </row>
-    <row r="603" spans="9:12" ht="15.75" customHeight="1">
+    <row r="603" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I603" s="2"/>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
     </row>
-    <row r="604" spans="9:12" ht="15.75" customHeight="1">
+    <row r="604" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I604" s="2"/>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
-    <row r="605" spans="9:12" ht="15.75" customHeight="1">
+    <row r="605" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I605" s="2"/>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
     </row>
-    <row r="606" spans="9:12" ht="15.75" customHeight="1">
+    <row r="606" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
       <c r="L606" s="2"/>
     </row>
-    <row r="607" spans="9:12" ht="15.75" customHeight="1">
+    <row r="607" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I607" s="2"/>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
     </row>
-    <row r="608" spans="9:12" ht="15.75" customHeight="1">
+    <row r="608" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I608" s="2"/>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
       <c r="L608" s="2"/>
     </row>
-    <row r="609" spans="9:12" ht="15.75" customHeight="1">
+    <row r="609" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I609" s="2"/>
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
       <c r="L609" s="2"/>
     </row>
-    <row r="610" spans="9:12" ht="15.75" customHeight="1">
+    <row r="610" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I610" s="2"/>
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
       <c r="L610" s="2"/>
     </row>
-    <row r="611" spans="9:12" ht="15.75" customHeight="1">
+    <row r="611" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I611" s="2"/>
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
       <c r="L611" s="2"/>
     </row>
-    <row r="612" spans="9:12" ht="15.75" customHeight="1">
+    <row r="612" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I612" s="2"/>
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
       <c r="L612" s="2"/>
     </row>
-    <row r="613" spans="9:12" ht="15.75" customHeight="1">
+    <row r="613" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I613" s="2"/>
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
     </row>
-    <row r="614" spans="9:12" ht="15.75" customHeight="1">
+    <row r="614" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I614" s="2"/>
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
-    <row r="615" spans="9:12" ht="15.75" customHeight="1">
+    <row r="615" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I615" s="2"/>
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
     </row>
-    <row r="616" spans="9:12" ht="15.75" customHeight="1">
+    <row r="616" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I616" s="2"/>
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
       <c r="L616" s="2"/>
     </row>
-    <row r="617" spans="9:12" ht="15.75" customHeight="1">
+    <row r="617" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I617" s="2"/>
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
       <c r="L617" s="2"/>
     </row>
-    <row r="618" spans="9:12" ht="15.75" customHeight="1">
+    <row r="618" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I618" s="2"/>
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
-    <row r="619" spans="9:12" ht="15.75" customHeight="1">
+    <row r="619" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I619" s="2"/>
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
       <c r="L619" s="2"/>
     </row>
-    <row r="620" spans="9:12" ht="15.75" customHeight="1">
+    <row r="620" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I620" s="2"/>
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
       <c r="L620" s="2"/>
     </row>
-    <row r="621" spans="9:12" ht="15.75" customHeight="1">
+    <row r="621" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I621" s="2"/>
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
       <c r="L621" s="2"/>
     </row>
-    <row r="622" spans="9:12" ht="15.75" customHeight="1">
+    <row r="622" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I622" s="2"/>
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
       <c r="L622" s="2"/>
     </row>
-    <row r="623" spans="9:12" ht="15.75" customHeight="1">
+    <row r="623" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I623" s="2"/>
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
       <c r="L623" s="2"/>
     </row>
-    <row r="624" spans="9:12" ht="15.75" customHeight="1">
+    <row r="624" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I624" s="2"/>
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
     </row>
-    <row r="625" spans="9:12" ht="15.75" customHeight="1">
+    <row r="625" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
       <c r="L625" s="2"/>
     </row>
-    <row r="626" spans="9:12" ht="15.75" customHeight="1">
+    <row r="626" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I626" s="2"/>
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
       <c r="L626" s="2"/>
     </row>
-    <row r="627" spans="9:12" ht="15.75" customHeight="1">
+    <row r="627" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I627" s="2"/>
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
       <c r="L627" s="2"/>
     </row>
-    <row r="628" spans="9:12" ht="15.75" customHeight="1">
+    <row r="628" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I628" s="2"/>
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
       <c r="L628" s="2"/>
     </row>
-    <row r="629" spans="9:12" ht="15.75" customHeight="1">
+    <row r="629" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I629" s="2"/>
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
-    <row r="630" spans="9:12" ht="15.75" customHeight="1">
+    <row r="630" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I630" s="2"/>
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
-    <row r="631" spans="9:12" ht="15.75" customHeight="1">
+    <row r="631" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I631" s="2"/>
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
     </row>
-    <row r="632" spans="9:12" ht="15.75" customHeight="1">
+    <row r="632" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I632" s="2"/>
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
       <c r="L632" s="2"/>
     </row>
-    <row r="633" spans="9:12" ht="15.75" customHeight="1">
+    <row r="633" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I633" s="2"/>
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
     </row>
-    <row r="634" spans="9:12" ht="15.75" customHeight="1">
+    <row r="634" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I634" s="2"/>
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
       <c r="L634" s="2"/>
     </row>
-    <row r="635" spans="9:12" ht="15.75" customHeight="1">
+    <row r="635" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I635" s="2"/>
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
       <c r="L635" s="2"/>
     </row>
-    <row r="636" spans="9:12" ht="15.75" customHeight="1">
+    <row r="636" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I636" s="2"/>
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
       <c r="L636" s="2"/>
     </row>
-    <row r="637" spans="9:12" ht="15.75" customHeight="1">
+    <row r="637" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I637" s="2"/>
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
       <c r="L637" s="2"/>
     </row>
-    <row r="638" spans="9:12" ht="15.75" customHeight="1">
+    <row r="638" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I638" s="2"/>
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
       <c r="L638" s="2"/>
     </row>
-    <row r="639" spans="9:12" ht="15.75" customHeight="1">
+    <row r="639" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I639" s="2"/>
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
       <c r="L639" s="2"/>
     </row>
-    <row r="640" spans="9:12" ht="15.75" customHeight="1">
+    <row r="640" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I640" s="2"/>
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
       <c r="L640" s="2"/>
     </row>
-    <row r="641" spans="9:12" ht="15.75" customHeight="1">
+    <row r="641" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I641" s="2"/>
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
       <c r="L641" s="2"/>
     </row>
-    <row r="642" spans="9:12" ht="15.75" customHeight="1">
+    <row r="642" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
       <c r="L642" s="2"/>
     </row>
-    <row r="643" spans="9:12" ht="15.75" customHeight="1">
+    <row r="643" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I643" s="2"/>
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
       <c r="L643" s="2"/>
     </row>
-    <row r="644" spans="9:12" ht="15.75" customHeight="1">
+    <row r="644" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I644" s="2"/>
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
       <c r="L644" s="2"/>
     </row>
-    <row r="645" spans="9:12" ht="15.75" customHeight="1">
+    <row r="645" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I645" s="2"/>
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
       <c r="L645" s="2"/>
     </row>
-    <row r="646" spans="9:12" ht="15.75" customHeight="1">
+    <row r="646" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I646" s="2"/>
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
       <c r="L646" s="2"/>
     </row>
-    <row r="647" spans="9:12" ht="15.75" customHeight="1">
+    <row r="647" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I647" s="2"/>
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
       <c r="L647" s="2"/>
     </row>
-    <row r="648" spans="9:12" ht="15.75" customHeight="1">
+    <row r="648" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I648" s="2"/>
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
-    <row r="649" spans="9:12" ht="15.75" customHeight="1">
+    <row r="649" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I649" s="2"/>
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
-    <row r="650" spans="9:12" ht="15.75" customHeight="1">
+    <row r="650" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I650" s="2"/>
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
     </row>
-    <row r="651" spans="9:12" ht="15.75" customHeight="1">
+    <row r="651" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I651" s="2"/>
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
       <c r="L651" s="2"/>
     </row>
-    <row r="652" spans="9:12" ht="15.75" customHeight="1">
+    <row r="652" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
       <c r="L652" s="2"/>
     </row>
-    <row r="653" spans="9:12" ht="15.75" customHeight="1">
+    <row r="653" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I653" s="2"/>
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
       <c r="L653" s="2"/>
     </row>
-    <row r="654" spans="9:12" ht="15.75" customHeight="1">
+    <row r="654" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I654" s="2"/>
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
       <c r="L654" s="2"/>
     </row>
-    <row r="655" spans="9:12" ht="15.75" customHeight="1">
+    <row r="655" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I655" s="2"/>
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
       <c r="L655" s="2"/>
     </row>
-    <row r="656" spans="9:12" ht="15.75" customHeight="1">
+    <row r="656" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I656" s="2"/>
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
       <c r="L656" s="2"/>
     </row>
-    <row r="657" spans="9:12" ht="15.75" customHeight="1">
+    <row r="657" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I657" s="2"/>
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
       <c r="L657" s="2"/>
     </row>
-    <row r="658" spans="9:12" ht="15.75" customHeight="1">
+    <row r="658" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I658" s="2"/>
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
       <c r="L658" s="2"/>
     </row>
-    <row r="659" spans="9:12" ht="15.75" customHeight="1">
+    <row r="659" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I659" s="2"/>
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
       <c r="L659" s="2"/>
     </row>
-    <row r="660" spans="9:12" ht="15.75" customHeight="1">
+    <row r="660" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I660" s="2"/>
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
       <c r="L660" s="2"/>
     </row>
-    <row r="661" spans="9:12" ht="15.75" customHeight="1">
+    <row r="661" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I661" s="2"/>
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
       <c r="L661" s="2"/>
     </row>
-    <row r="662" spans="9:12" ht="15.75" customHeight="1">
+    <row r="662" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I662" s="2"/>
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
       <c r="L662" s="2"/>
     </row>
-    <row r="663" spans="9:12" ht="15.75" customHeight="1">
+    <row r="663" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I663" s="2"/>
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
       <c r="L663" s="2"/>
     </row>
-    <row r="664" spans="9:12" ht="15.75" customHeight="1">
+    <row r="664" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I664" s="2"/>
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
       <c r="L664" s="2"/>
     </row>
-    <row r="665" spans="9:12" ht="15.75" customHeight="1">
+    <row r="665" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I665" s="2"/>
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
     </row>
-    <row r="666" spans="9:12" ht="15.75" customHeight="1">
+    <row r="666" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I666" s="2"/>
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
       <c r="L666" s="2"/>
     </row>
-    <row r="667" spans="9:12" ht="15.75" customHeight="1">
+    <row r="667" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I667" s="2"/>
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
       <c r="L667" s="2"/>
     </row>
-    <row r="668" spans="9:12" ht="15.75" customHeight="1">
+    <row r="668" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I668" s="2"/>
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
       <c r="L668" s="2"/>
     </row>
-    <row r="669" spans="9:12" ht="15.75" customHeight="1">
+    <row r="669" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I669" s="2"/>
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
       <c r="L669" s="2"/>
     </row>
-    <row r="670" spans="9:12" ht="15.75" customHeight="1">
+    <row r="670" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I670" s="2"/>
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
       <c r="L670" s="2"/>
     </row>
-    <row r="671" spans="9:12" ht="15.75" customHeight="1">
+    <row r="671" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I671" s="2"/>
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
       <c r="L671" s="2"/>
     </row>
-    <row r="672" spans="9:12" ht="15.75" customHeight="1">
+    <row r="672" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I672" s="2"/>
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
       <c r="L672" s="2"/>
     </row>
-    <row r="673" spans="9:12" ht="15.75" customHeight="1">
+    <row r="673" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I673" s="2"/>
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
       <c r="L673" s="2"/>
     </row>
-    <row r="674" spans="9:12" ht="15.75" customHeight="1">
+    <row r="674" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I674" s="2"/>
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
       <c r="L674" s="2"/>
     </row>
-    <row r="675" spans="9:12" ht="15.75" customHeight="1">
+    <row r="675" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I675" s="2"/>
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
       <c r="L675" s="2"/>
     </row>
-    <row r="676" spans="9:12" ht="15.75" customHeight="1">
+    <row r="676" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I676" s="2"/>
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
       <c r="L676" s="2"/>
     </row>
-    <row r="677" spans="9:12" ht="15.75" customHeight="1">
+    <row r="677" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I677" s="2"/>
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
       <c r="L677" s="2"/>
     </row>
-    <row r="678" spans="9:12" ht="15.75" customHeight="1">
+    <row r="678" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I678" s="2"/>
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
       <c r="L678" s="2"/>
     </row>
-    <row r="679" spans="9:12" ht="15.75" customHeight="1">
+    <row r="679" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I679" s="2"/>
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
       <c r="L679" s="2"/>
     </row>
-    <row r="680" spans="9:12" ht="15.75" customHeight="1">
+    <row r="680" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I680" s="2"/>
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
       <c r="L680" s="2"/>
     </row>
-    <row r="681" spans="9:12" ht="15.75" customHeight="1">
+    <row r="681" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
       <c r="L681" s="2"/>
     </row>
-    <row r="682" spans="9:12" ht="15.75" customHeight="1">
+    <row r="682" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I682" s="2"/>
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
       <c r="L682" s="2"/>
     </row>
-    <row r="683" spans="9:12" ht="15.75" customHeight="1">
+    <row r="683" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I683" s="2"/>
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
       <c r="L683" s="2"/>
     </row>
-    <row r="684" spans="9:12" ht="15.75" customHeight="1">
+    <row r="684" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I684" s="2"/>
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
       <c r="L684" s="2"/>
     </row>
-    <row r="685" spans="9:12" ht="15.75" customHeight="1">
+    <row r="685" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I685" s="2"/>
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
       <c r="L685" s="2"/>
     </row>
-    <row r="686" spans="9:12" ht="15.75" customHeight="1">
+    <row r="686" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I686" s="2"/>
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
       <c r="L686" s="2"/>
     </row>
-    <row r="687" spans="9:12" ht="15.75" customHeight="1">
+    <row r="687" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I687" s="2"/>
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
       <c r="L687" s="2"/>
     </row>
-    <row r="688" spans="9:12" ht="15.75" customHeight="1">
+    <row r="688" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I688" s="2"/>
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
       <c r="L688" s="2"/>
     </row>
-    <row r="689" spans="9:12" ht="15.75" customHeight="1">
+    <row r="689" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I689" s="2"/>
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
       <c r="L689" s="2"/>
     </row>
-    <row r="690" spans="9:12" ht="15.75" customHeight="1">
+    <row r="690" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I690" s="2"/>
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
       <c r="L690" s="2"/>
     </row>
-    <row r="691" spans="9:12" ht="15.75" customHeight="1">
+    <row r="691" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I691" s="2"/>
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
       <c r="L691" s="2"/>
     </row>
-    <row r="692" spans="9:12" ht="15.75" customHeight="1">
+    <row r="692" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I692" s="2"/>
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
       <c r="L692" s="2"/>
     </row>
-    <row r="693" spans="9:12" ht="15.75" customHeight="1">
+    <row r="693" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I693" s="2"/>
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
       <c r="L693" s="2"/>
     </row>
-    <row r="694" spans="9:12" ht="15.75" customHeight="1">
+    <row r="694" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I694" s="2"/>
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
     </row>
-    <row r="695" spans="9:12" ht="15.75" customHeight="1">
+    <row r="695" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I695" s="2"/>
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
       <c r="L695" s="2"/>
     </row>
-    <row r="696" spans="9:12" ht="15.75" customHeight="1">
+    <row r="696" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I696" s="2"/>
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
       <c r="L696" s="2"/>
     </row>
-    <row r="697" spans="9:12" ht="15.75" customHeight="1">
+    <row r="697" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I697" s="2"/>
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
       <c r="L697" s="2"/>
     </row>
-    <row r="698" spans="9:12" ht="15.75" customHeight="1">
+    <row r="698" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I698" s="2"/>
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
       <c r="L698" s="2"/>
     </row>
-    <row r="699" spans="9:12" ht="15.75" customHeight="1">
+    <row r="699" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I699" s="2"/>
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
       <c r="L699" s="2"/>
     </row>
-    <row r="700" spans="9:12" ht="15.75" customHeight="1">
+    <row r="700" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I700" s="2"/>
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
       <c r="L700" s="2"/>
     </row>
-    <row r="701" spans="9:12" ht="15.75" customHeight="1">
+    <row r="701" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I701" s="2"/>
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
       <c r="L701" s="2"/>
     </row>
-    <row r="702" spans="9:12" ht="15.75" customHeight="1">
+    <row r="702" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I702" s="2"/>
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
       <c r="L702" s="2"/>
     </row>
-    <row r="703" spans="9:12" ht="15.75" customHeight="1">
+    <row r="703" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I703" s="2"/>
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
       <c r="L703" s="2"/>
     </row>
-    <row r="704" spans="9:12" ht="15.75" customHeight="1">
+    <row r="704" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I704" s="2"/>
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
       <c r="L704" s="2"/>
     </row>
-    <row r="705" spans="9:12" ht="15.75" customHeight="1">
+    <row r="705" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I705" s="2"/>
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
       <c r="L705" s="2"/>
     </row>
-    <row r="706" spans="9:12" ht="15.75" customHeight="1">
+    <row r="706" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I706" s="2"/>
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
       <c r="L706" s="2"/>
     </row>
-    <row r="707" spans="9:12" ht="15.75" customHeight="1">
+    <row r="707" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I707" s="2"/>
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
       <c r="L707" s="2"/>
     </row>
-    <row r="708" spans="9:12" ht="15.75" customHeight="1">
+    <row r="708" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I708" s="2"/>
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
       <c r="L708" s="2"/>
     </row>
-    <row r="709" spans="9:12" ht="15.75" customHeight="1">
+    <row r="709" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I709" s="2"/>
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
       <c r="L709" s="2"/>
     </row>
-    <row r="710" spans="9:12" ht="15.75" customHeight="1">
+    <row r="710" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I710" s="2"/>
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
       <c r="L710" s="2"/>
     </row>
-    <row r="711" spans="9:12" ht="15.75" customHeight="1">
+    <row r="711" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I711" s="2"/>
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
       <c r="L711" s="2"/>
     </row>
-    <row r="712" spans="9:12" ht="15.75" customHeight="1">
+    <row r="712" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I712" s="2"/>
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
       <c r="L712" s="2"/>
     </row>
-    <row r="713" spans="9:12" ht="15.75" customHeight="1">
+    <row r="713" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I713" s="2"/>
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
       <c r="L713" s="2"/>
     </row>
-    <row r="714" spans="9:12" ht="15.75" customHeight="1">
+    <row r="714" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I714" s="2"/>
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
       <c r="L714" s="2"/>
     </row>
-    <row r="715" spans="9:12" ht="15.75" customHeight="1">
+    <row r="715" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I715" s="2"/>
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
       <c r="L715" s="2"/>
     </row>
-    <row r="716" spans="9:12" ht="15.75" customHeight="1">
+    <row r="716" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
       <c r="L716" s="2"/>
     </row>
-    <row r="717" spans="9:12" ht="15.75" customHeight="1">
+    <row r="717" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I717" s="2"/>
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
       <c r="L717" s="2"/>
     </row>
-    <row r="718" spans="9:12" ht="15.75" customHeight="1">
+    <row r="718" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I718" s="2"/>
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
       <c r="L718" s="2"/>
     </row>
-    <row r="719" spans="9:12" ht="15.75" customHeight="1">
+    <row r="719" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I719" s="2"/>
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
       <c r="L719" s="2"/>
     </row>
-    <row r="720" spans="9:12" ht="15.75" customHeight="1">
+    <row r="720" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I720" s="2"/>
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
       <c r="L720" s="2"/>
     </row>
-    <row r="721" spans="9:12" ht="15.75" customHeight="1">
+    <row r="721" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I721" s="2"/>
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
       <c r="L721" s="2"/>
     </row>
-    <row r="722" spans="9:12" ht="15.75" customHeight="1">
+    <row r="722" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I722" s="2"/>
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
       <c r="L722" s="2"/>
     </row>
-    <row r="723" spans="9:12" ht="15.75" customHeight="1">
+    <row r="723" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I723" s="2"/>
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
       <c r="L723" s="2"/>
     </row>
-    <row r="724" spans="9:12" ht="15.75" customHeight="1">
+    <row r="724" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I724" s="2"/>
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
       <c r="L724" s="2"/>
     </row>
-    <row r="725" spans="9:12" ht="15.75" customHeight="1">
+    <row r="725" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I725" s="2"/>
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
       <c r="L725" s="2"/>
     </row>
-    <row r="726" spans="9:12" ht="15.75" customHeight="1">
+    <row r="726" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I726" s="2"/>
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
       <c r="L726" s="2"/>
     </row>
-    <row r="727" spans="9:12" ht="15.75" customHeight="1">
+    <row r="727" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I727" s="2"/>
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
       <c r="L727" s="2"/>
     </row>
-    <row r="728" spans="9:12" ht="15.75" customHeight="1">
+    <row r="728" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I728" s="2"/>
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
       <c r="L728" s="2"/>
     </row>
-    <row r="729" spans="9:12" ht="15.75" customHeight="1">
+    <row r="729" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I729" s="2"/>
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
       <c r="L729" s="2"/>
     </row>
-    <row r="730" spans="9:12" ht="15.75" customHeight="1">
+    <row r="730" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I730" s="2"/>
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
       <c r="L730" s="2"/>
     </row>
-    <row r="731" spans="9:12" ht="15.75" customHeight="1">
+    <row r="731" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I731" s="2"/>
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
       <c r="L731" s="2"/>
     </row>
-    <row r="732" spans="9:12" ht="15.75" customHeight="1">
+    <row r="732" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I732" s="2"/>
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
       <c r="L732" s="2"/>
     </row>
-    <row r="733" spans="9:12" ht="15.75" customHeight="1">
+    <row r="733" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I733" s="2"/>
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
       <c r="L733" s="2"/>
     </row>
-    <row r="734" spans="9:12" ht="15.75" customHeight="1">
+    <row r="734" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I734" s="2"/>
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
       <c r="L734" s="2"/>
     </row>
-    <row r="735" spans="9:12" ht="15.75" customHeight="1">
+    <row r="735" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I735" s="2"/>
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
       <c r="L735" s="2"/>
     </row>
-    <row r="736" spans="9:12" ht="15.75" customHeight="1">
+    <row r="736" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I736" s="2"/>
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
       <c r="L736" s="2"/>
     </row>
-    <row r="737" spans="9:12" ht="15.75" customHeight="1">
+    <row r="737" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I737" s="2"/>
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
       <c r="L737" s="2"/>
     </row>
-    <row r="738" spans="9:12" ht="15.75" customHeight="1">
+    <row r="738" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I738" s="2"/>
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
       <c r="L738" s="2"/>
     </row>
-    <row r="739" spans="9:12" ht="15.75" customHeight="1">
+    <row r="739" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I739" s="2"/>
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
       <c r="L739" s="2"/>
     </row>
-    <row r="740" spans="9:12" ht="15.75" customHeight="1">
+    <row r="740" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I740" s="2"/>
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
       <c r="L740" s="2"/>
     </row>
-    <row r="741" spans="9:12" ht="15.75" customHeight="1">
+    <row r="741" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I741" s="2"/>
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
       <c r="L741" s="2"/>
     </row>
-    <row r="742" spans="9:12" ht="15.75" customHeight="1">
+    <row r="742" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I742" s="2"/>
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
       <c r="L742" s="2"/>
     </row>
-    <row r="743" spans="9:12" ht="15.75" customHeight="1">
+    <row r="743" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I743" s="2"/>
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
       <c r="L743" s="2"/>
     </row>
-    <row r="744" spans="9:12" ht="15.75" customHeight="1">
+    <row r="744" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I744" s="2"/>
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
       <c r="L744" s="2"/>
     </row>
-    <row r="745" spans="9:12" ht="15.75" customHeight="1">
+    <row r="745" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I745" s="2"/>
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
       <c r="L745" s="2"/>
     </row>
-    <row r="746" spans="9:12" ht="15.75" customHeight="1">
+    <row r="746" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I746" s="2"/>
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
       <c r="L746" s="2"/>
     </row>
-    <row r="747" spans="9:12" ht="15.75" customHeight="1">
+    <row r="747" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I747" s="2"/>
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
       <c r="L747" s="2"/>
     </row>
-    <row r="748" spans="9:12" ht="15.75" customHeight="1">
+    <row r="748" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I748" s="2"/>
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
       <c r="L748" s="2"/>
     </row>
-    <row r="749" spans="9:12" ht="15.75" customHeight="1">
+    <row r="749" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I749" s="2"/>
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
       <c r="L749" s="2"/>
     </row>
-    <row r="750" spans="9:12" ht="15.75" customHeight="1">
+    <row r="750" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I750" s="2"/>
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
       <c r="L750" s="2"/>
     </row>
-    <row r="751" spans="9:12" ht="15.75" customHeight="1">
+    <row r="751" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I751" s="2"/>
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
       <c r="L751" s="2"/>
     </row>
-    <row r="752" spans="9:12" ht="15.75" customHeight="1">
+    <row r="752" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I752" s="2"/>
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
       <c r="L752" s="2"/>
     </row>
-    <row r="753" spans="9:12" ht="15.75" customHeight="1">
+    <row r="753" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I753" s="2"/>
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
       <c r="L753" s="2"/>
     </row>
-    <row r="754" spans="9:12" ht="15.75" customHeight="1">
+    <row r="754" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I754" s="2"/>
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
       <c r="L754" s="2"/>
     </row>
-    <row r="755" spans="9:12" ht="15.75" customHeight="1">
+    <row r="755" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I755" s="2"/>
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
       <c r="L755" s="2"/>
     </row>
-    <row r="756" spans="9:12" ht="15.75" customHeight="1">
+    <row r="756" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I756" s="2"/>
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
       <c r="L756" s="2"/>
     </row>
-    <row r="757" spans="9:12" ht="15.75" customHeight="1">
+    <row r="757" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I757" s="2"/>
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
       <c r="L757" s="2"/>
     </row>
-    <row r="758" spans="9:12" ht="15.75" customHeight="1">
+    <row r="758" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I758" s="2"/>
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
       <c r="L758" s="2"/>
     </row>
-    <row r="759" spans="9:12" ht="15.75" customHeight="1">
+    <row r="759" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I759" s="2"/>
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
       <c r="L759" s="2"/>
     </row>
-    <row r="760" spans="9:12" ht="15.75" customHeight="1">
+    <row r="760" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I760" s="2"/>
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
       <c r="L760" s="2"/>
     </row>
-    <row r="761" spans="9:12" ht="15.75" customHeight="1">
+    <row r="761" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I761" s="2"/>
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
       <c r="L761" s="2"/>
     </row>
-    <row r="762" spans="9:12" ht="15.75" customHeight="1">
+    <row r="762" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I762" s="2"/>
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
       <c r="L762" s="2"/>
     </row>
-    <row r="763" spans="9:12" ht="15.75" customHeight="1">
+    <row r="763" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I763" s="2"/>
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
       <c r="L763" s="2"/>
     </row>
-    <row r="764" spans="9:12" ht="15.75" customHeight="1">
+    <row r="764" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I764" s="2"/>
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
       <c r="L764" s="2"/>
     </row>
-    <row r="765" spans="9:12" ht="15.75" customHeight="1">
+    <row r="765" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I765" s="2"/>
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
       <c r="L765" s="2"/>
     </row>
-    <row r="766" spans="9:12" ht="15.75" customHeight="1">
+    <row r="766" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I766" s="2"/>
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
       <c r="L766" s="2"/>
     </row>
-    <row r="767" spans="9:12" ht="15.75" customHeight="1">
+    <row r="767" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I767" s="2"/>
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
       <c r="L767" s="2"/>
     </row>
-    <row r="768" spans="9:12" ht="15.75" customHeight="1">
+    <row r="768" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I768" s="2"/>
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
       <c r="L768" s="2"/>
     </row>
-    <row r="769" spans="9:12" ht="15.75" customHeight="1">
+    <row r="769" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
       <c r="L769" s="2"/>
     </row>
-    <row r="770" spans="9:12" ht="15.75" customHeight="1">
+    <row r="770" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
       <c r="L770" s="2"/>
     </row>
-    <row r="771" spans="9:12" ht="15.75" customHeight="1">
+    <row r="771" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
       <c r="L771" s="2"/>
     </row>
-    <row r="772" spans="9:12" ht="15.75" customHeight="1">
+    <row r="772" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I772" s="2"/>
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
       <c r="L772" s="2"/>
     </row>
-    <row r="773" spans="9:12" ht="15.75" customHeight="1">
+    <row r="773" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
       <c r="L773" s="2"/>
     </row>
-    <row r="774" spans="9:12" ht="15.75" customHeight="1">
+    <row r="774" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I774" s="2"/>
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
       <c r="L774" s="2"/>
     </row>
-    <row r="775" spans="9:12" ht="15.75" customHeight="1">
+    <row r="775" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I775" s="2"/>
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
       <c r="L775" s="2"/>
     </row>
-    <row r="776" spans="9:12" ht="15.75" customHeight="1">
+    <row r="776" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I776" s="2"/>
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
       <c r="L776" s="2"/>
     </row>
-    <row r="777" spans="9:12" ht="15.75" customHeight="1">
+    <row r="777" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I777" s="2"/>
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
       <c r="L777" s="2"/>
     </row>
-    <row r="778" spans="9:12" ht="15.75" customHeight="1">
+    <row r="778" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I778" s="2"/>
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
       <c r="L778" s="2"/>
     </row>
-    <row r="779" spans="9:12" ht="15.75" customHeight="1">
+    <row r="779" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
       <c r="L779" s="2"/>
     </row>
-    <row r="780" spans="9:12" ht="15.75" customHeight="1">
+    <row r="780" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I780" s="2"/>
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
       <c r="L780" s="2"/>
     </row>
-    <row r="781" spans="9:12" ht="15.75" customHeight="1">
+    <row r="781" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I781" s="2"/>
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
       <c r="L781" s="2"/>
     </row>
-    <row r="782" spans="9:12" ht="15.75" customHeight="1">
+    <row r="782" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I782" s="2"/>
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
       <c r="L782" s="2"/>
     </row>
-    <row r="783" spans="9:12" ht="15.75" customHeight="1">
+    <row r="783" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I783" s="2"/>
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
       <c r="L783" s="2"/>
     </row>
-    <row r="784" spans="9:12" ht="15.75" customHeight="1">
+    <row r="784" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I784" s="2"/>
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
       <c r="L784" s="2"/>
     </row>
-    <row r="785" spans="9:12" ht="15.75" customHeight="1">
+    <row r="785" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I785" s="2"/>
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
       <c r="L785" s="2"/>
     </row>
-    <row r="786" spans="9:12" ht="15.75" customHeight="1">
+    <row r="786" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I786" s="2"/>
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
       <c r="L786" s="2"/>
     </row>
-    <row r="787" spans="9:12" ht="15.75" customHeight="1">
+    <row r="787" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I787" s="2"/>
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
       <c r="L787" s="2"/>
     </row>
-    <row r="788" spans="9:12" ht="15.75" customHeight="1">
+    <row r="788" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I788" s="2"/>
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
       <c r="L788" s="2"/>
     </row>
-    <row r="789" spans="9:12" ht="15.75" customHeight="1">
+    <row r="789" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I789" s="2"/>
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
       <c r="L789" s="2"/>
     </row>
-    <row r="790" spans="9:12" ht="15.75" customHeight="1">
+    <row r="790" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I790" s="2"/>
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
       <c r="L790" s="2"/>
     </row>
-    <row r="791" spans="9:12" ht="15.75" customHeight="1">
+    <row r="791" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I791" s="2"/>
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
       <c r="L791" s="2"/>
     </row>
-    <row r="792" spans="9:12" ht="15.75" customHeight="1">
+    <row r="792" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I792" s="2"/>
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
       <c r="L792" s="2"/>
     </row>
-    <row r="793" spans="9:12" ht="15.75" customHeight="1">
+    <row r="793" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I793" s="2"/>
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
       <c r="L793" s="2"/>
     </row>
-    <row r="794" spans="9:12" ht="15.75" customHeight="1">
+    <row r="794" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I794" s="2"/>
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
       <c r="L794" s="2"/>
     </row>
-    <row r="795" spans="9:12" ht="15.75" customHeight="1">
+    <row r="795" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I795" s="2"/>
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
       <c r="L795" s="2"/>
     </row>
-    <row r="796" spans="9:12" ht="15.75" customHeight="1">
+    <row r="796" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I796" s="2"/>
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
       <c r="L796" s="2"/>
     </row>
-    <row r="797" spans="9:12" ht="15.75" customHeight="1">
+    <row r="797" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I797" s="2"/>
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
       <c r="L797" s="2"/>
     </row>
-    <row r="798" spans="9:12" ht="15.75" customHeight="1">
+    <row r="798" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I798" s="2"/>
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
       <c r="L798" s="2"/>
     </row>
-    <row r="799" spans="9:12" ht="15.75" customHeight="1">
+    <row r="799" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I799" s="2"/>
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
       <c r="L799" s="2"/>
     </row>
-    <row r="800" spans="9:12" ht="15.75" customHeight="1">
+    <row r="800" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I800" s="2"/>
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
       <c r="L800" s="2"/>
     </row>
-    <row r="801" spans="9:12" ht="15.75" customHeight="1">
+    <row r="801" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I801" s="2"/>
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
       <c r="L801" s="2"/>
     </row>
-    <row r="802" spans="9:12" ht="15.75" customHeight="1">
+    <row r="802" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I802" s="2"/>
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
       <c r="L802" s="2"/>
     </row>
-    <row r="803" spans="9:12" ht="15.75" customHeight="1">
+    <row r="803" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I803" s="2"/>
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
       <c r="L803" s="2"/>
     </row>
-    <row r="804" spans="9:12" ht="15.75" customHeight="1">
+    <row r="804" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I804" s="2"/>
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
       <c r="L804" s="2"/>
     </row>
-    <row r="805" spans="9:12" ht="15.75" customHeight="1">
+    <row r="805" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I805" s="2"/>
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
       <c r="L805" s="2"/>
     </row>
-    <row r="806" spans="9:12" ht="15.75" customHeight="1">
+    <row r="806" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I806" s="2"/>
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
       <c r="L806" s="2"/>
     </row>
-    <row r="807" spans="9:12" ht="15.75" customHeight="1">
+    <row r="807" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I807" s="2"/>
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
       <c r="L807" s="2"/>
     </row>
-    <row r="808" spans="9:12" ht="15.75" customHeight="1">
+    <row r="808" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I808" s="2"/>
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
       <c r="L808" s="2"/>
     </row>
-    <row r="809" spans="9:12" ht="15.75" customHeight="1">
+    <row r="809" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I809" s="2"/>
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
       <c r="L809" s="2"/>
     </row>
-    <row r="810" spans="9:12" ht="15.75" customHeight="1">
+    <row r="810" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I810" s="2"/>
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
       <c r="L810" s="2"/>
     </row>
-    <row r="811" spans="9:12" ht="15.75" customHeight="1">
+    <row r="811" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I811" s="2"/>
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
       <c r="L811" s="2"/>
     </row>
-    <row r="812" spans="9:12" ht="15.75" customHeight="1">
+    <row r="812" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I812" s="2"/>
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
       <c r="L812" s="2"/>
     </row>
-    <row r="813" spans="9:12" ht="15.75" customHeight="1">
+    <row r="813" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I813" s="2"/>
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
       <c r="L813" s="2"/>
     </row>
-    <row r="814" spans="9:12" ht="15.75" customHeight="1">
+    <row r="814" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I814" s="2"/>
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
       <c r="L814" s="2"/>
     </row>
-    <row r="815" spans="9:12" ht="15.75" customHeight="1">
+    <row r="815" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I815" s="2"/>
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
       <c r="L815" s="2"/>
     </row>
-    <row r="816" spans="9:12" ht="15.75" customHeight="1">
+    <row r="816" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I816" s="2"/>
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
       <c r="L816" s="2"/>
     </row>
-    <row r="817" spans="9:12" ht="15.75" customHeight="1">
+    <row r="817" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I817" s="2"/>
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
       <c r="L817" s="2"/>
     </row>
-    <row r="818" spans="9:12" ht="15.75" customHeight="1">
+    <row r="818" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I818" s="2"/>
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
       <c r="L818" s="2"/>
     </row>
-    <row r="819" spans="9:12" ht="15.75" customHeight="1">
+    <row r="819" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I819" s="2"/>
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
       <c r="L819" s="2"/>
     </row>
-    <row r="820" spans="9:12" ht="15.75" customHeight="1">
+    <row r="820" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I820" s="2"/>
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
       <c r="L820" s="2"/>
     </row>
-    <row r="821" spans="9:12" ht="15.75" customHeight="1">
+    <row r="821" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I821" s="2"/>
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
       <c r="L821" s="2"/>
     </row>
-    <row r="822" spans="9:12" ht="15.75" customHeight="1">
+    <row r="822" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I822" s="2"/>
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
       <c r="L822" s="2"/>
     </row>
-    <row r="823" spans="9:12" ht="15.75" customHeight="1">
+    <row r="823" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I823" s="2"/>
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
       <c r="L823" s="2"/>
     </row>
-    <row r="824" spans="9:12" ht="15.75" customHeight="1">
+    <row r="824" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I824" s="2"/>
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
       <c r="L824" s="2"/>
     </row>
-    <row r="825" spans="9:12" ht="15.75" customHeight="1">
+    <row r="825" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I825" s="2"/>
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
       <c r="L825" s="2"/>
     </row>
-    <row r="826" spans="9:12" ht="15.75" customHeight="1">
+    <row r="826" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I826" s="2"/>
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
       <c r="L826" s="2"/>
     </row>
-    <row r="827" spans="9:12" ht="15.75" customHeight="1">
+    <row r="827" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I827" s="2"/>
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
       <c r="L827" s="2"/>
     </row>
-    <row r="828" spans="9:12" ht="15.75" customHeight="1">
+    <row r="828" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I828" s="2"/>
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
       <c r="L828" s="2"/>
     </row>
-    <row r="829" spans="9:12" ht="15.75" customHeight="1">
+    <row r="829" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I829" s="2"/>
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
       <c r="L829" s="2"/>
     </row>
-    <row r="830" spans="9:12" ht="15.75" customHeight="1">
+    <row r="830" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I830" s="2"/>
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
       <c r="L830" s="2"/>
     </row>
-    <row r="831" spans="9:12" ht="15.75" customHeight="1">
+    <row r="831" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I831" s="2"/>
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
       <c r="L831" s="2"/>
     </row>
-    <row r="832" spans="9:12" ht="15.75" customHeight="1">
+    <row r="832" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I832" s="2"/>
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
       <c r="L832" s="2"/>
     </row>
-    <row r="833" spans="9:12" ht="15.75" customHeight="1">
+    <row r="833" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I833" s="2"/>
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
       <c r="L833" s="2"/>
     </row>
-    <row r="834" spans="9:12" ht="15.75" customHeight="1">
+    <row r="834" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I834" s="2"/>
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
       <c r="L834" s="2"/>
     </row>
-    <row r="835" spans="9:12" ht="15.75" customHeight="1">
+    <row r="835" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I835" s="2"/>
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
       <c r="L835" s="2"/>
     </row>
-    <row r="836" spans="9:12" ht="15.75" customHeight="1">
+    <row r="836" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I836" s="2"/>
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
       <c r="L836" s="2"/>
     </row>
-    <row r="837" spans="9:12" ht="15.75" customHeight="1">
+    <row r="837" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I837" s="2"/>
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
       <c r="L837" s="2"/>
     </row>
-    <row r="838" spans="9:12" ht="15.75" customHeight="1">
+    <row r="838" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I838" s="2"/>
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
       <c r="L838" s="2"/>
     </row>
-    <row r="839" spans="9:12" ht="15.75" customHeight="1">
+    <row r="839" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I839" s="2"/>
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
       <c r="L839" s="2"/>
     </row>
-    <row r="840" spans="9:12" ht="15.75" customHeight="1">
+    <row r="840" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I840" s="2"/>
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
       <c r="L840" s="2"/>
     </row>
-    <row r="841" spans="9:12" ht="15.75" customHeight="1">
+    <row r="841" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I841" s="2"/>
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
       <c r="L841" s="2"/>
     </row>
-    <row r="842" spans="9:12" ht="15.75" customHeight="1">
+    <row r="842" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I842" s="2"/>
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
       <c r="L842" s="2"/>
     </row>
-    <row r="843" spans="9:12" ht="15.75" customHeight="1">
+    <row r="843" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I843" s="2"/>
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
       <c r="L843" s="2"/>
     </row>
-    <row r="844" spans="9:12" ht="15.75" customHeight="1">
+    <row r="844" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I844" s="2"/>
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
       <c r="L844" s="2"/>
     </row>
-    <row r="845" spans="9:12" ht="15.75" customHeight="1">
+    <row r="845" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I845" s="2"/>
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
       <c r="L845" s="2"/>
     </row>
-    <row r="846" spans="9:12" ht="15.75" customHeight="1">
+    <row r="846" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I846" s="2"/>
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
       <c r="L846" s="2"/>
     </row>
-    <row r="847" spans="9:12" ht="15.75" customHeight="1">
+    <row r="847" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I847" s="2"/>
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
       <c r="L847" s="2"/>
     </row>
-    <row r="848" spans="9:12" ht="15.75" customHeight="1">
+    <row r="848" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I848" s="2"/>
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
       <c r="L848" s="2"/>
     </row>
-    <row r="849" spans="9:12" ht="15.75" customHeight="1">
+    <row r="849" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I849" s="2"/>
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
       <c r="L849" s="2"/>
     </row>
-    <row r="850" spans="9:12" ht="15.75" customHeight="1">
+    <row r="850" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I850" s="2"/>
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
       <c r="L850" s="2"/>
     </row>
-    <row r="851" spans="9:12" ht="15.75" customHeight="1">
+    <row r="851" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I851" s="2"/>
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
       <c r="L851" s="2"/>
     </row>
-    <row r="852" spans="9:12" ht="15.75" customHeight="1">
+    <row r="852" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I852" s="2"/>
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
       <c r="L852" s="2"/>
     </row>
-    <row r="853" spans="9:12" ht="15.75" customHeight="1">
+    <row r="853" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I853" s="2"/>
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
       <c r="L853" s="2"/>
     </row>
-    <row r="854" spans="9:12" ht="15.75" customHeight="1">
+    <row r="854" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I854" s="2"/>
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
       <c r="L854" s="2"/>
     </row>
-    <row r="855" spans="9:12" ht="15.75" customHeight="1">
+    <row r="855" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I855" s="2"/>
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
       <c r="L855" s="2"/>
     </row>
-    <row r="856" spans="9:12" ht="15.75" customHeight="1">
+    <row r="856" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I856" s="2"/>
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
       <c r="L856" s="2"/>
     </row>
-    <row r="857" spans="9:12" ht="15.75" customHeight="1">
+    <row r="857" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I857" s="2"/>
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
       <c r="L857" s="2"/>
     </row>
-    <row r="858" spans="9:12" ht="15.75" customHeight="1">
+    <row r="858" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I858" s="2"/>
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
       <c r="L858" s="2"/>
     </row>
-    <row r="859" spans="9:12" ht="15.75" customHeight="1">
+    <row r="859" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I859" s="2"/>
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
       <c r="L859" s="2"/>
     </row>
-    <row r="860" spans="9:12" ht="15.75" customHeight="1">
+    <row r="860" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I860" s="2"/>
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
       <c r="L860" s="2"/>
     </row>
-    <row r="861" spans="9:12" ht="15.75" customHeight="1">
+    <row r="861" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I861" s="2"/>
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
       <c r="L861" s="2"/>
     </row>
-    <row r="862" spans="9:12" ht="15.75" customHeight="1">
+    <row r="862" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I862" s="2"/>
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
       <c r="L862" s="2"/>
     </row>
-    <row r="863" spans="9:12" ht="15.75" customHeight="1">
+    <row r="863" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I863" s="2"/>
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
       <c r="L863" s="2"/>
     </row>
-    <row r="864" spans="9:12" ht="15.75" customHeight="1">
+    <row r="864" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I864" s="2"/>
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
       <c r="L864" s="2"/>
     </row>
-    <row r="865" spans="9:12" ht="15.75" customHeight="1">
+    <row r="865" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I865" s="2"/>
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
       <c r="L865" s="2"/>
     </row>
-    <row r="866" spans="9:12" ht="15.75" customHeight="1">
+    <row r="866" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I866" s="2"/>
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
       <c r="L866" s="2"/>
     </row>
-    <row r="867" spans="9:12" ht="15.75" customHeight="1">
+    <row r="867" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I867" s="2"/>
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
       <c r="L867" s="2"/>
     </row>
-    <row r="868" spans="9:12" ht="15.75" customHeight="1">
+    <row r="868" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I868" s="2"/>
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
       <c r="L868" s="2"/>
     </row>
-    <row r="869" spans="9:12" ht="15.75" customHeight="1">
+    <row r="869" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I869" s="2"/>
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
       <c r="L869" s="2"/>
     </row>
-    <row r="870" spans="9:12" ht="15.75" customHeight="1">
+    <row r="870" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I870" s="2"/>
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
       <c r="L870" s="2"/>
     </row>
-    <row r="871" spans="9:12" ht="15.75" customHeight="1">
+    <row r="871" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I871" s="2"/>
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
       <c r="L871" s="2"/>
     </row>
-    <row r="872" spans="9:12" ht="15.75" customHeight="1">
+    <row r="872" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I872" s="2"/>
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
       <c r="L872" s="2"/>
     </row>
-    <row r="873" spans="9:12" ht="15.75" customHeight="1">
+    <row r="873" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I873" s="2"/>
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
       <c r="L873" s="2"/>
     </row>
-    <row r="874" spans="9:12" ht="15.75" customHeight="1">
+    <row r="874" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I874" s="2"/>
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
       <c r="L874" s="2"/>
     </row>
-    <row r="875" spans="9:12" ht="15.75" customHeight="1">
+    <row r="875" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I875" s="2"/>
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
       <c r="L875" s="2"/>
     </row>
-    <row r="876" spans="9:12" ht="15.75" customHeight="1">
+    <row r="876" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I876" s="2"/>
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
       <c r="L876" s="2"/>
     </row>
-    <row r="877" spans="9:12" ht="15.75" customHeight="1">
+    <row r="877" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I877" s="2"/>
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
       <c r="L877" s="2"/>
     </row>
-    <row r="878" spans="9:12" ht="15.75" customHeight="1">
+    <row r="878" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I878" s="2"/>
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
       <c r="L878" s="2"/>
     </row>
-    <row r="879" spans="9:12" ht="15.75" customHeight="1">
+    <row r="879" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I879" s="2"/>
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
       <c r="L879" s="2"/>
     </row>
-    <row r="880" spans="9:12" ht="15.75" customHeight="1">
+    <row r="880" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I880" s="2"/>
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
       <c r="L880" s="2"/>
     </row>
-    <row r="881" spans="9:12" ht="15.75" customHeight="1">
+    <row r="881" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I881" s="2"/>
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
       <c r="L881" s="2"/>
     </row>
-    <row r="882" spans="9:12" ht="15.75" customHeight="1">
+    <row r="882" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I882" s="2"/>
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
       <c r="L882" s="2"/>
     </row>
-    <row r="883" spans="9:12" ht="15.75" customHeight="1">
+    <row r="883" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I883" s="2"/>
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
       <c r="L883" s="2"/>
     </row>
-    <row r="884" spans="9:12" ht="15.75" customHeight="1">
+    <row r="884" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I884" s="2"/>
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
       <c r="L884" s="2"/>
     </row>
-    <row r="885" spans="9:12" ht="15.75" customHeight="1">
+    <row r="885" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I885" s="2"/>
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
       <c r="L885" s="2"/>
     </row>
-    <row r="886" spans="9:12" ht="15.75" customHeight="1">
+    <row r="886" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I886" s="2"/>
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
       <c r="L886" s="2"/>
     </row>
-    <row r="887" spans="9:12" ht="15.75" customHeight="1">
+    <row r="887" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I887" s="2"/>
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
       <c r="L887" s="2"/>
     </row>
-    <row r="888" spans="9:12" ht="15.75" customHeight="1">
+    <row r="888" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I888" s="2"/>
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
       <c r="L888" s="2"/>
     </row>
-    <row r="889" spans="9:12" ht="15.75" customHeight="1">
+    <row r="889" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I889" s="2"/>
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
       <c r="L889" s="2"/>
     </row>
-    <row r="890" spans="9:12" ht="15.75" customHeight="1">
+    <row r="890" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I890" s="2"/>
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
       <c r="L890" s="2"/>
     </row>
-    <row r="891" spans="9:12" ht="15.75" customHeight="1">
+    <row r="891" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I891" s="2"/>
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
       <c r="L891" s="2"/>
     </row>
-    <row r="892" spans="9:12" ht="15.75" customHeight="1">
+    <row r="892" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I892" s="2"/>
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
       <c r="L892" s="2"/>
     </row>
-    <row r="893" spans="9:12" ht="15.75" customHeight="1">
+    <row r="893" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I893" s="2"/>
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
       <c r="L893" s="2"/>
     </row>
-    <row r="894" spans="9:12" ht="15.75" customHeight="1">
+    <row r="894" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I894" s="2"/>
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
     </row>
-    <row r="895" spans="9:12" ht="15.75" customHeight="1">
+    <row r="895" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I895" s="2"/>
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
       <c r="L895" s="2"/>
     </row>
-    <row r="896" spans="9:12" ht="15.75" customHeight="1">
+    <row r="896" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I896" s="2"/>
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
       <c r="L896" s="2"/>
     </row>
-    <row r="897" spans="9:12" ht="15.75" customHeight="1">
+    <row r="897" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I897" s="2"/>
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
       <c r="L897" s="2"/>
     </row>
-    <row r="898" spans="9:12" ht="15.75" customHeight="1">
+    <row r="898" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I898" s="2"/>
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
       <c r="L898" s="2"/>
     </row>
-    <row r="899" spans="9:12" ht="15.75" customHeight="1">
+    <row r="899" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I899" s="2"/>
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
       <c r="L899" s="2"/>
     </row>
-    <row r="900" spans="9:12" ht="15.75" customHeight="1">
+    <row r="900" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I900" s="2"/>
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
       <c r="L900" s="2"/>
     </row>
-    <row r="901" spans="9:12" ht="15.75" customHeight="1">
+    <row r="901" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I901" s="2"/>
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
       <c r="L901" s="2"/>
     </row>
-    <row r="902" spans="9:12" ht="15.75" customHeight="1">
+    <row r="902" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I902" s="2"/>
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
       <c r="L902" s="2"/>
     </row>
-    <row r="903" spans="9:12" ht="15.75" customHeight="1">
+    <row r="903" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I903" s="2"/>
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
       <c r="L903" s="2"/>
     </row>
-    <row r="904" spans="9:12" ht="15.75" customHeight="1">
+    <row r="904" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I904" s="2"/>
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
       <c r="L904" s="2"/>
     </row>
-    <row r="905" spans="9:12" ht="15.75" customHeight="1">
+    <row r="905" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I905" s="2"/>
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
       <c r="L905" s="2"/>
     </row>
-    <row r="906" spans="9:12" ht="15.75" customHeight="1">
+    <row r="906" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I906" s="2"/>
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
       <c r="L906" s="2"/>
     </row>
-    <row r="907" spans="9:12" ht="15.75" customHeight="1">
+    <row r="907" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I907" s="2"/>
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
       <c r="L907" s="2"/>
     </row>
-    <row r="908" spans="9:12" ht="15.75" customHeight="1">
+    <row r="908" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I908" s="2"/>
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
       <c r="L908" s="2"/>
     </row>
-    <row r="909" spans="9:12" ht="15.75" customHeight="1">
+    <row r="909" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I909" s="2"/>
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
       <c r="L909" s="2"/>
     </row>
-    <row r="910" spans="9:12" ht="15.75" customHeight="1">
+    <row r="910" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I910" s="2"/>
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
       <c r="L910" s="2"/>
     </row>
-    <row r="911" spans="9:12" ht="15.75" customHeight="1">
+    <row r="911" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I911" s="2"/>
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
       <c r="L911" s="2"/>
     </row>
-    <row r="912" spans="9:12" ht="15.75" customHeight="1">
+    <row r="912" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I912" s="2"/>
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
       <c r="L912" s="2"/>
     </row>
-    <row r="913" spans="9:12" ht="15.75" customHeight="1">
+    <row r="913" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I913" s="2"/>
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
       <c r="L913" s="2"/>
     </row>
-    <row r="914" spans="9:12" ht="15.75" customHeight="1">
+    <row r="914" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I914" s="2"/>
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
       <c r="L914" s="2"/>
     </row>
-    <row r="915" spans="9:12" ht="15.75" customHeight="1">
+    <row r="915" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I915" s="2"/>
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
       <c r="L915" s="2"/>
     </row>
-    <row r="916" spans="9:12" ht="15.75" customHeight="1">
+    <row r="916" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I916" s="2"/>
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
       <c r="L916" s="2"/>
     </row>
-    <row r="917" spans="9:12" ht="15.75" customHeight="1">
+    <row r="917" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I917" s="2"/>
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
       <c r="L917" s="2"/>
     </row>
-    <row r="918" spans="9:12" ht="15.75" customHeight="1">
+    <row r="918" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I918" s="2"/>
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
       <c r="L918" s="2"/>
     </row>
-    <row r="919" spans="9:12" ht="15.75" customHeight="1">
+    <row r="919" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I919" s="2"/>
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
       <c r="L919" s="2"/>
     </row>
-    <row r="920" spans="9:12" ht="15.75" customHeight="1">
+    <row r="920" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I920" s="2"/>
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
       <c r="L920" s="2"/>
     </row>
-    <row r="921" spans="9:12" ht="15.75" customHeight="1">
+    <row r="921" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I921" s="2"/>
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
       <c r="L921" s="2"/>
     </row>
-    <row r="922" spans="9:12" ht="15.75" customHeight="1">
+    <row r="922" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I922" s="2"/>
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
       <c r="L922" s="2"/>
     </row>
-    <row r="923" spans="9:12" ht="15.75" customHeight="1">
+    <row r="923" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I923" s="2"/>
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
       <c r="L923" s="2"/>
     </row>
-    <row r="924" spans="9:12" ht="15.75" customHeight="1">
+    <row r="924" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I924" s="2"/>
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
       <c r="L924" s="2"/>
     </row>
-    <row r="925" spans="9:12" ht="15.75" customHeight="1">
+    <row r="925" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I925" s="2"/>
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
       <c r="L925" s="2"/>
     </row>
-    <row r="926" spans="9:12" ht="15.75" customHeight="1">
+    <row r="926" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I926" s="2"/>
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
       <c r="L926" s="2"/>
     </row>
-    <row r="927" spans="9:12" ht="15.75" customHeight="1">
+    <row r="927" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I927" s="2"/>
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
       <c r="L927" s="2"/>
     </row>
-    <row r="928" spans="9:12" ht="15.75" customHeight="1">
+    <row r="928" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I928" s="2"/>
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
       <c r="L928" s="2"/>
     </row>
-    <row r="929" spans="9:12" ht="15.75" customHeight="1">
+    <row r="929" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I929" s="2"/>
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
       <c r="L929" s="2"/>
     </row>
-    <row r="930" spans="9:12" ht="15.75" customHeight="1">
+    <row r="930" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I930" s="2"/>
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
       <c r="L930" s="2"/>
     </row>
-    <row r="931" spans="9:12" ht="15.75" customHeight="1">
+    <row r="931" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I931" s="2"/>
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
       <c r="L931" s="2"/>
     </row>
-    <row r="932" spans="9:12" ht="15.75" customHeight="1">
+    <row r="932" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I932" s="2"/>
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
       <c r="L932" s="2"/>
     </row>
-    <row r="933" spans="9:12" ht="15.75" customHeight="1">
+    <row r="933" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I933" s="2"/>
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
       <c r="L933" s="2"/>
     </row>
-    <row r="934" spans="9:12" ht="15.75" customHeight="1">
+    <row r="934" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I934" s="2"/>
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
       <c r="L934" s="2"/>
     </row>
-    <row r="935" spans="9:12" ht="15.75" customHeight="1">
+    <row r="935" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I935" s="2"/>
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
       <c r="L935" s="2"/>
     </row>
-    <row r="936" spans="9:12" ht="15.75" customHeight="1">
+    <row r="936" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I936" s="2"/>
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
       <c r="L936" s="2"/>
     </row>
-    <row r="937" spans="9:12" ht="15.75" customHeight="1">
+    <row r="937" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I937" s="2"/>
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
       <c r="L937" s="2"/>
     </row>
-    <row r="938" spans="9:12" ht="15.75" customHeight="1">
+    <row r="938" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I938" s="2"/>
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
       <c r="L938" s="2"/>
     </row>
-    <row r="939" spans="9:12" ht="15.75" customHeight="1">
+    <row r="939" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I939" s="2"/>
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
       <c r="L939" s="2"/>
     </row>
-    <row r="940" spans="9:12" ht="15.75" customHeight="1">
+    <row r="940" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I940" s="2"/>
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
       <c r="L940" s="2"/>
     </row>
-    <row r="941" spans="9:12" ht="15.75" customHeight="1">
+    <row r="941" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I941" s="2"/>
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
       <c r="L941" s="2"/>
     </row>
-    <row r="942" spans="9:12" ht="15.75" customHeight="1">
+    <row r="942" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I942" s="2"/>
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
       <c r="L942" s="2"/>
     </row>
-    <row r="943" spans="9:12" ht="15.75" customHeight="1">
+    <row r="943" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I943" s="2"/>
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
       <c r="L943" s="2"/>
     </row>
-    <row r="944" spans="9:12" ht="15.75" customHeight="1">
+    <row r="944" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I944" s="2"/>
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
       <c r="L944" s="2"/>
     </row>
-    <row r="945" spans="9:12" ht="15.75" customHeight="1">
+    <row r="945" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I945" s="2"/>
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
       <c r="L945" s="2"/>
     </row>
-    <row r="946" spans="9:12" ht="15.75" customHeight="1">
+    <row r="946" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I946" s="2"/>
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
       <c r="L946" s="2"/>
     </row>
-    <row r="947" spans="9:12" ht="15.75" customHeight="1">
+    <row r="947" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I947" s="2"/>
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
       <c r="L947" s="2"/>
     </row>
-    <row r="948" spans="9:12" ht="15.75" customHeight="1">
+    <row r="948" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I948" s="2"/>
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
       <c r="L948" s="2"/>
     </row>
-    <row r="949" spans="9:12" ht="15.75" customHeight="1">
+    <row r="949" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I949" s="2"/>
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
       <c r="L949" s="2"/>
     </row>
-    <row r="950" spans="9:12" ht="15.75" customHeight="1">
+    <row r="950" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I950" s="2"/>
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
       <c r="L950" s="2"/>
     </row>
-    <row r="951" spans="9:12" ht="15.75" customHeight="1">
+    <row r="951" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I951" s="2"/>
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
       <c r="L951" s="2"/>
     </row>
-    <row r="952" spans="9:12" ht="15.75" customHeight="1">
+    <row r="952" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I952" s="2"/>
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
       <c r="L952" s="2"/>
     </row>
-    <row r="953" spans="9:12" ht="15.75" customHeight="1">
+    <row r="953" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I953" s="2"/>
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
       <c r="L953" s="2"/>
     </row>
-    <row r="954" spans="9:12" ht="15.75" customHeight="1">
+    <row r="954" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I954" s="2"/>
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
       <c r="L954" s="2"/>
     </row>
-    <row r="955" spans="9:12" ht="15.75" customHeight="1">
+    <row r="955" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I955" s="2"/>
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
       <c r="L955" s="2"/>
     </row>
-    <row r="956" spans="9:12" ht="15.75" customHeight="1">
+    <row r="956" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I956" s="2"/>
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
       <c r="L956" s="2"/>
     </row>
-    <row r="957" spans="9:12" ht="15.75" customHeight="1">
+    <row r="957" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I957" s="2"/>
       <c r="J957" s="2"/>
       <c r="K957" s="2"/>
       <c r="L957" s="2"/>
     </row>
-    <row r="958" spans="9:12" ht="15.75" customHeight="1">
+    <row r="958" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I958" s="2"/>
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
       <c r="L958" s="2"/>
     </row>
-    <row r="959" spans="9:12" ht="15.75" customHeight="1">
+    <row r="959" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I959" s="2"/>
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
       <c r="L959" s="2"/>
     </row>
-    <row r="960" spans="9:12" ht="15.75" customHeight="1">
+    <row r="960" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I960" s="2"/>
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
       <c r="L960" s="2"/>
     </row>
-    <row r="961" spans="9:12" ht="15.75" customHeight="1">
+    <row r="961" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I961" s="2"/>
       <c r="J961" s="2"/>
       <c r="K961" s="2"/>
       <c r="L961" s="2"/>
     </row>
-    <row r="962" spans="9:12" ht="15.75" customHeight="1">
+    <row r="962" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I962" s="2"/>
       <c r="J962" s="2"/>
       <c r="K962" s="2"/>
       <c r="L962" s="2"/>
     </row>
-    <row r="963" spans="9:12" ht="15.75" customHeight="1">
+    <row r="963" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I963" s="2"/>
       <c r="J963" s="2"/>
       <c r="K963" s="2"/>
       <c r="L963" s="2"/>
     </row>
-    <row r="964" spans="9:12" ht="15.75" customHeight="1">
+    <row r="964" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I964" s="2"/>
       <c r="J964" s="2"/>
       <c r="K964" s="2"/>
       <c r="L964" s="2"/>
     </row>
-    <row r="965" spans="9:12" ht="15.75" customHeight="1">
+    <row r="965" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I965" s="2"/>
       <c r="J965" s="2"/>
       <c r="K965" s="2"/>
       <c r="L965" s="2"/>
     </row>
-    <row r="966" spans="9:12" ht="15.75" customHeight="1">
+    <row r="966" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I966" s="2"/>
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
       <c r="L966" s="2"/>
     </row>
-    <row r="967" spans="9:12" ht="15.75" customHeight="1">
+    <row r="967" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I967" s="2"/>
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
       <c r="L967" s="2"/>
     </row>
-    <row r="968" spans="9:12" ht="15.75" customHeight="1">
+    <row r="968" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I968" s="2"/>
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
       <c r="L968" s="2"/>
     </row>
-    <row r="969" spans="9:12" ht="15.75" customHeight="1">
+    <row r="969" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I969" s="2"/>
       <c r="J969" s="2"/>
       <c r="K969" s="2"/>
       <c r="L969" s="2"/>
     </row>
-    <row r="970" spans="9:12" ht="15.75" customHeight="1">
+    <row r="970" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I970" s="2"/>
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
       <c r="L970" s="2"/>
     </row>
-    <row r="971" spans="9:12" ht="15.75" customHeight="1">
+    <row r="971" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I971" s="2"/>
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
       <c r="L971" s="2"/>
     </row>
-    <row r="972" spans="9:12" ht="15.75" customHeight="1">
+    <row r="972" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I972" s="2"/>
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
       <c r="L972" s="2"/>
     </row>
-    <row r="973" spans="9:12" ht="15.75" customHeight="1">
+    <row r="973" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I973" s="2"/>
       <c r="J973" s="2"/>
       <c r="K973" s="2"/>
       <c r="L973" s="2"/>
     </row>
-    <row r="974" spans="9:12" ht="15.75" customHeight="1">
+    <row r="974" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I974" s="2"/>
       <c r="J974" s="2"/>
       <c r="K974" s="2"/>
       <c r="L974" s="2"/>
     </row>
-    <row r="975" spans="9:12" ht="15.75" customHeight="1">
+    <row r="975" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I975" s="2"/>
       <c r="J975" s="2"/>
       <c r="K975" s="2"/>
       <c r="L975" s="2"/>
     </row>
-    <row r="976" spans="9:12" ht="15.75" customHeight="1">
+    <row r="976" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I976" s="2"/>
       <c r="J976" s="2"/>
       <c r="K976" s="2"/>
       <c r="L976" s="2"/>
     </row>
-    <row r="977" spans="9:12" ht="15.75" customHeight="1">
+    <row r="977" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I977" s="2"/>
       <c r="J977" s="2"/>
       <c r="K977" s="2"/>
       <c r="L977" s="2"/>
     </row>
-    <row r="978" spans="9:12" ht="15.75" customHeight="1">
+    <row r="978" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I978" s="2"/>
       <c r="J978" s="2"/>
       <c r="K978" s="2"/>
       <c r="L978" s="2"/>
     </row>
-    <row r="979" spans="9:12" ht="15.75" customHeight="1">
+    <row r="979" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I979" s="2"/>
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
       <c r="L979" s="2"/>
     </row>
-    <row r="980" spans="9:12" ht="15.75" customHeight="1">
+    <row r="980" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I980" s="2"/>
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
       <c r="L980" s="2"/>
     </row>
-    <row r="981" spans="9:12" ht="15.75" customHeight="1">
+    <row r="981" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I981" s="2"/>
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
       <c r="L981" s="2"/>
     </row>
-    <row r="982" spans="9:12" ht="15.75" customHeight="1">
+    <row r="982" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I982" s="2"/>
       <c r="J982" s="2"/>
       <c r="K982" s="2"/>
       <c r="L982" s="2"/>
     </row>
-    <row r="983" spans="9:12" ht="15.75" customHeight="1">
+    <row r="983" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I983" s="2"/>
       <c r="J983" s="2"/>
       <c r="K983" s="2"/>
       <c r="L983" s="2"/>
     </row>
-    <row r="984" spans="9:12" ht="15.75" customHeight="1">
+    <row r="984" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I984" s="2"/>
       <c r="J984" s="2"/>
       <c r="K984" s="2"/>
       <c r="L984" s="2"/>
     </row>
-    <row r="985" spans="9:12" ht="15.75" customHeight="1">
+    <row r="985" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I985" s="2"/>
       <c r="J985" s="2"/>
       <c r="K985" s="2"/>
       <c r="L985" s="2"/>
     </row>
-    <row r="986" spans="9:12" ht="15.75" customHeight="1">
+    <row r="986" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I986" s="2"/>
       <c r="J986" s="2"/>
       <c r="K986" s="2"/>
       <c r="L986" s="2"/>
     </row>
-    <row r="987" spans="9:12" ht="15.75" customHeight="1">
+    <row r="987" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I987" s="2"/>
       <c r="J987" s="2"/>
       <c r="K987" s="2"/>
       <c r="L987" s="2"/>
     </row>
-    <row r="988" spans="9:12" ht="15.75" customHeight="1">
+    <row r="988" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I988" s="2"/>
       <c r="J988" s="2"/>
       <c r="K988" s="2"/>
       <c r="L988" s="2"/>
     </row>
-    <row r="989" spans="9:12" ht="15.75" customHeight="1">
+    <row r="989" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I989" s="2"/>
       <c r="J989" s="2"/>
       <c r="K989" s="2"/>
       <c r="L989" s="2"/>
     </row>
-    <row r="990" spans="9:12" ht="15.75" customHeight="1">
+    <row r="990" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I990" s="2"/>
       <c r="J990" s="2"/>
       <c r="K990" s="2"/>
       <c r="L990" s="2"/>
     </row>
-    <row r="991" spans="9:12" ht="15.75" customHeight="1">
+    <row r="991" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I991" s="2"/>
       <c r="J991" s="2"/>
       <c r="K991" s="2"/>
       <c r="L991" s="2"/>
     </row>
-    <row r="992" spans="9:12" ht="15.75" customHeight="1">
+    <row r="992" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I992" s="2"/>
       <c r="J992" s="2"/>
       <c r="K992" s="2"/>
       <c r="L992" s="2"/>
     </row>
-    <row r="993" spans="9:12" ht="15.75" customHeight="1">
+    <row r="993" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I993" s="2"/>
       <c r="J993" s="2"/>
       <c r="K993" s="2"/>
       <c r="L993" s="2"/>
     </row>
-    <row r="994" spans="9:12" ht="15.75" customHeight="1">
+    <row r="994" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I994" s="2"/>
       <c r="J994" s="2"/>
       <c r="K994" s="2"/>
       <c r="L994" s="2"/>
     </row>
-    <row r="995" spans="9:12" ht="15.75" customHeight="1">
+    <row r="995" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I995" s="2"/>
       <c r="J995" s="2"/>
       <c r="K995" s="2"/>
       <c r="L995" s="2"/>
     </row>
-    <row r="996" spans="9:12" ht="15.75" customHeight="1">
+    <row r="996" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I996" s="2"/>
       <c r="J996" s="2"/>
       <c r="K996" s="2"/>
       <c r="L996" s="2"/>
     </row>
-    <row r="997" spans="9:12" ht="15.75" customHeight="1">
+    <row r="997" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I997" s="2"/>
       <c r="J997" s="2"/>
       <c r="K997" s="2"/>
@@ -11870,10 +11864,5 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/SituationalDashboard.xlsx
+++ b/SituationalDashboard.xlsx
@@ -995,12 +995,12 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
@@ -1060,7 +1060,7 @@
         <v>36</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>175</v>
@@ -1083,7 +1083,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>175</v>
@@ -1106,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>43</v>
@@ -1152,7 +1152,7 @@
         <v>49</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>50</v>

--- a/SituationalDashboard.xlsx
+++ b/SituationalDashboard.xlsx
@@ -1152,7 +1152,7 @@
         <v>49</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>50</v>

--- a/SituationalDashboard.xlsx
+++ b/SituationalDashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chart_index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,391 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="172">
+  <si>
+    <t>t7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target.Population</t>
+  </si>
+  <si>
+    <t>Number.Missed.Recorded.3days</t>
+  </si>
+  <si>
+    <t>Number.Recovered.3days</t>
+  </si>
+  <si>
+    <t>Percent.Vaccinated.Recorded.3days</t>
+  </si>
+  <si>
+    <t>Percent.Missed.Recorded.3days</t>
+  </si>
+  <si>
+    <t>Number.Recovered.5thDay</t>
+  </si>
+  <si>
+    <t>Total.Recovered</t>
+  </si>
+  <si>
+    <t>Number.Missed.Remain</t>
+  </si>
+  <si>
+    <t>Percent.Missed.Remain</t>
+  </si>
+  <si>
+    <t>Percent.Vaccinated.5days</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent of FLWs (social mobilisers) paid last campaign</t>
+  </si>
+  <si>
+    <t>Percent FLWs (operation) paid</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent FLWs (operation) paid last campaign</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>District review and planning meeting</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervision and monitoring plan updated</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social mobilisation plan in place</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social mobilisation plan</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>District governor multi-sectoral meeting</t>
+  </si>
+  <si>
+    <t>Number.Children.Seen.Market.Survey</t>
+  </si>
+  <si>
+    <t>Percent.Coverage.Market.Survey</t>
+  </si>
+  <si>
+    <t>Number.Children.withFM.PCA</t>
+  </si>
+  <si>
+    <t>Number.Children.SeenPCA</t>
+  </si>
+  <si>
+    <t>Percent.Coverage.PCA</t>
+  </si>
+  <si>
+    <t>t9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t># children seen - PCA</t>
+  </si>
+  <si>
+    <t># children missed due to refusal - PCA</t>
+  </si>
+  <si>
+    <t># children missed due to not available - PCA</t>
+  </si>
+  <si>
+    <t># children missed due to no team visit - PCA</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immunity Profile</t>
+  </si>
+  <si>
+    <t>100% Stacked Bar</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Non Polio AFP Rate &amp; Adequate Specimens</t>
+  </si>
+  <si>
+    <t>Bar / Line</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>Innaccessable Children</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>Environmental Results</t>
+  </si>
+  <si>
+    <t>100% Stacked bar</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>Campaign Analysis</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>Campaign Analysis - Pie Chart</t>
+  </si>
+  <si>
+    <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>Missed Children Trend</t>
+  </si>
+  <si>
+    <t>Grouped Bar</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>Number Inaccessible Children</t>
+  </si>
+  <si>
+    <t>Total target children</t>
+  </si>
+  <si>
+    <t>Last polio case</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infected district (Yes/No)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infected Province (Yes/No)</t>
+  </si>
+  <si>
+    <t>Number of WPV cases</t>
+  </si>
+  <si>
+    <t>data_level</t>
+  </si>
+  <si>
+    <t>date_key</t>
+  </si>
+  <si>
+    <t>month_trend_count</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>Basic Banner</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>m_1</t>
+  </si>
+  <si>
+    <t>Polio Cases 2014-Present</t>
+  </si>
+  <si>
+    <t>to_ingest</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>data_format</t>
+  </si>
+  <si>
+    <t>good_bound</t>
+  </si>
+  <si>
+    <t>bad_bound</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>chart_key</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>chart_type</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of Adequate Specimen </t>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Environmental Samples collected</t>
+  </si>
+  <si>
+    <t>Missed Chilren By Reason</t>
+  </si>
+  <si>
+    <t>Stacked and Grouped Bar</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>LQAS</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Number of reported Non Polio AFP cases</t>
+  </si>
+  <si>
+    <t>Number of Unvaccinated Non Polio AFP Cases</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 1-3 doses</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 4-6 doses</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 7+ doses</t>
+  </si>
+  <si>
+    <t>Non Polio AFP Rate</t>
+  </si>
+  <si>
+    <t>SIA service providers identified</t>
+  </si>
+  <si>
+    <t>Percent FLW_operation paid</t>
+  </si>
+  <si>
+    <t>Missed Children PCA vs. Out Of House</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of children missed due to all access issues</t>
+  </si>
+  <si>
+    <t>District</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>District</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent FLW_social mobilisers paid</t>
+  </si>
+  <si>
+    <t>IEC materials displayed</t>
+  </si>
+  <si>
+    <t>Percent volunteers attended training sessions</t>
+  </si>
+  <si>
+    <t>Adequate vaccine arrived</t>
+  </si>
   <si>
     <t>Number of Environmental Samples with Negative result</t>
   </si>
@@ -90,18 +474,10 @@
     <t>Perccent of children who are unvaccinated in the outside monitoring sample</t>
   </si>
   <si>
-    <t>pct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>fake</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>pct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>% Missed Children - PCA</t>
   </si>
   <si>
@@ -154,14 +530,6 @@
     <t>Percent children missed due to other reasons - PCA</t>
   </si>
   <si>
-    <t>pct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>pct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>t11</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -215,398 +583,6 @@
   </si>
   <si>
     <t>t3</t>
-  </si>
-  <si>
-    <t>Immunity Profile</t>
-  </si>
-  <si>
-    <t>100% Stacked Bar</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>Non Polio AFP Rate &amp; Adequate Specimens</t>
-  </si>
-  <si>
-    <t>Bar / Line</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>Innaccessable Children</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>campaign</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>Environmental Results</t>
-  </si>
-  <si>
-    <t>100% Stacked bar</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>Campaign Analysis</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>Campaign Analysis - Pie Chart</t>
-  </si>
-  <si>
-    <t>Pie Chart</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>Missed Children Trend</t>
-  </si>
-  <si>
-    <t>Grouped Bar</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>Number Inaccessible Children</t>
-  </si>
-  <si>
-    <t>Total target children</t>
-  </si>
-  <si>
-    <t>Last polio case</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infected district (Yes/No)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infected Province (Yes/No)</t>
-  </si>
-  <si>
-    <t>Number of WPV cases</t>
-  </si>
-  <si>
-    <t>data_level</t>
-  </si>
-  <si>
-    <t>date_key</t>
-  </si>
-  <si>
-    <t>month_trend_count</t>
-  </si>
-  <si>
-    <t>t0</t>
-  </si>
-  <si>
-    <t>Basic Banner</t>
-  </si>
-  <si>
-    <t>Banner</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>m_1</t>
-  </si>
-  <si>
-    <t>Polio Cases 2014-Present</t>
-  </si>
-  <si>
-    <t>to_ingest</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>data_format</t>
-  </si>
-  <si>
-    <t>good_bound</t>
-  </si>
-  <si>
-    <t>bad_bound</t>
-  </si>
-  <si>
-    <t>source_name</t>
-  </si>
-  <si>
-    <t>chart_key</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>chart_type</t>
-  </si>
-  <si>
-    <t>chart</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of Adequate Specimen </t>
-  </si>
-  <si>
-    <t>pct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Environmental Samples collected</t>
-  </si>
-  <si>
-    <t>Missed Chilren By Reason</t>
-  </si>
-  <si>
-    <t>Stacked and Grouped Bar</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>LQAS</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Number of reported Non Polio AFP cases</t>
-  </si>
-  <si>
-    <t>Number of Unvaccinated Non Polio AFP Cases</t>
-  </si>
-  <si>
-    <t>Number of Non Polio AFP cases vaccinated 1-3 doses</t>
-  </si>
-  <si>
-    <t>Number of Non Polio AFP cases vaccinated 4-6 doses</t>
-  </si>
-  <si>
-    <t>Number of Non Polio AFP cases vaccinated 7+ doses</t>
-  </si>
-  <si>
-    <t>Non Polio AFP Rate</t>
-  </si>
-  <si>
-    <t>SIA service providers identified</t>
-  </si>
-  <si>
-    <t>Percent FLW_operation paid</t>
-  </si>
-  <si>
-    <t>Missed Children PCA vs. Out Of House</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of children missed due to all access issues</t>
-  </si>
-  <si>
-    <t>District</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>District</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent FLW_social mobilisers paid</t>
-  </si>
-  <si>
-    <t>IEC materials displayed</t>
-  </si>
-  <si>
-    <t>Percent volunteers attended training sessions</t>
-  </si>
-  <si>
-    <t>Adequate vaccine arrived</t>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target.Population</t>
-  </si>
-  <si>
-    <t>Number.Missed.Recorded.3days</t>
-  </si>
-  <si>
-    <t>Number.Recovered.3days</t>
-  </si>
-  <si>
-    <t>Percent.Vaccinated.Recorded.3days</t>
-  </si>
-  <si>
-    <t>Percent.Missed.Recorded.3days</t>
-  </si>
-  <si>
-    <t>Number.Recovered.5thDay</t>
-  </si>
-  <si>
-    <t>Total.Recovered</t>
-  </si>
-  <si>
-    <t>Number.Missed.Remain</t>
-  </si>
-  <si>
-    <t>Percent.Missed.Remain</t>
-  </si>
-  <si>
-    <t>Percent.Vaccinated.5days</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>pct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent of FLWs (social mobilisers) paid last campaign</t>
-  </si>
-  <si>
-    <t>Percent FLWs (operation) paid</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent FLWs (operation) paid last campaign</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>District review and planning meeting</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervision and monitoring plan updated</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social mobilisation plan in place</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social mobilisation plan</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>District governor multi-sectoral meeting</t>
-  </si>
-  <si>
-    <t>Number.Children.Seen.Market.Survey</t>
-  </si>
-  <si>
-    <t>Percent.Coverage.Market.Survey</t>
-  </si>
-  <si>
-    <t>Number.Children.withFM.PCA</t>
-  </si>
-  <si>
-    <t>Number.Children.SeenPCA</t>
-  </si>
-  <si>
-    <t>Percent.Coverage.PCA</t>
-  </si>
-  <si>
-    <t>t9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t># children seen - PCA</t>
-  </si>
-  <si>
-    <t># children missed due to refusal - PCA</t>
-  </si>
-  <si>
-    <t># children missed due to not available - PCA</t>
-  </si>
-  <si>
-    <t># children missed due to no team visit - PCA</t>
   </si>
 </sst>
 </file>
@@ -984,7 +960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -995,7 +971,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1009,62 +985,62 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -1072,22 +1048,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1">
         <v>28</v>
@@ -1095,22 +1071,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <v>28</v>
@@ -1118,22 +1094,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1">
         <v>16</v>
@@ -1141,22 +1117,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -1164,22 +1140,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1">
         <v>28</v>
@@ -1187,22 +1163,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -1210,22 +1186,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1233,22 +1209,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1256,22 +1232,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -1279,22 +1255,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1302,22 +1278,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -1325,29 +1301,28 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G15" s="1">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1363,8 +1338,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -1384,28 +1359,28 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1413,16 +1388,16 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1431,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1442,16 +1417,16 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -1460,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1472,16 +1447,16 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1490,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1502,16 +1477,16 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1520,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1532,16 +1507,16 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1550,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1562,16 +1537,16 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1580,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1592,16 +1567,16 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1610,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1622,16 +1597,16 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1640,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1652,16 +1627,16 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1670,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1682,16 +1657,16 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1700,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1712,16 +1687,16 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1730,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1742,16 +1717,16 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -1760,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1772,16 +1747,16 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1790,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1802,16 +1777,16 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1820,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1832,16 +1807,16 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1850,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1862,16 +1837,16 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1880,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1892,16 +1867,16 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1910,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1922,16 +1897,16 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1940,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1952,16 +1927,16 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1970,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1982,16 +1957,16 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -2000,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2012,16 +1987,16 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -2030,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2042,16 +2017,16 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -2060,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2072,16 +2047,16 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2090,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2102,16 +2077,16 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -2120,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2132,16 +2107,16 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2150,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2162,16 +2137,16 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2180,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2192,16 +2167,16 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -2210,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2222,16 +2197,16 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -2240,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2252,16 +2227,16 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2270,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2282,16 +2257,16 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -2300,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2312,16 +2287,16 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2330,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2342,16 +2317,16 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2360,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2372,16 +2347,16 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -2390,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2402,16 +2377,16 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -2420,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2432,16 +2407,16 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -2450,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2462,16 +2437,16 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -2480,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2492,16 +2467,16 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -2510,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2522,16 +2497,16 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -2540,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2552,16 +2527,16 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -2570,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2582,16 +2557,16 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -2600,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2612,16 +2587,16 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -2630,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2642,16 +2617,16 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -2660,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2672,16 +2647,16 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -2690,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2702,16 +2677,16 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -2720,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2732,16 +2707,16 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
@@ -2750,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2762,16 +2737,16 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -2780,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2792,16 +2767,16 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
@@ -2810,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2822,16 +2797,16 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -2840,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2852,16 +2827,16 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
@@ -2870,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2882,16 +2857,16 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -2900,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2912,16 +2887,16 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E52" s="5">
         <v>1</v>
@@ -2930,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2942,16 +2917,16 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
@@ -2960,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2972,16 +2947,16 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E54" s="5">
         <v>1</v>
@@ -2990,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -3002,16 +2977,16 @@
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -3020,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -3032,16 +3007,16 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E56" s="5">
         <v>1</v>
@@ -3050,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -3062,16 +3037,16 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -3080,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3092,16 +3067,16 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E58" s="5">
         <v>1</v>
@@ -3110,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3122,16 +3097,16 @@
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -3140,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3152,16 +3127,16 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
@@ -3170,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3182,16 +3157,16 @@
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -3200,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3212,16 +3187,16 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -3230,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3242,16 +3217,16 @@
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -3260,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -3272,16 +3247,16 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -3290,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3302,16 +3277,16 @@
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
@@ -3320,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3332,16 +3307,16 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -3350,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -11867,9 +11842,9 @@
       <c r="L997" s="2"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/SituationalDashboard.xlsx
+++ b/SituationalDashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19840" windowHeight="16420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chart_index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,360 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="167">
+  <si>
+    <t>Supervision and Monitoring Plan</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t13</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t13</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>District</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stacked Column Chart</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perccent of children who are unvaccinated in the outside monitoring sample</t>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent missed children</t>
+  </si>
+  <si>
+    <t>polio cases</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preparatory Indicators</t>
+  </si>
+  <si>
+    <t>Percent FLWs (social mobilisers) paid</t>
+  </si>
+  <si>
+    <t># children missed due to other reasons - PCA</t>
+  </si>
+  <si>
+    <t>Percent children missed due to refusal - PCA</t>
+  </si>
+  <si>
+    <t>Percent children missed due to not available - PCA</t>
+  </si>
+  <si>
+    <t>Percent children missed due to no team visit - PCA</t>
+  </si>
+  <si>
+    <t>Percent children missed due to other reasons - PCA</t>
+  </si>
+  <si>
+    <t>t11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t># of Accepted Lots by 90%</t>
+  </si>
+  <si>
+    <t># of Accepted Lots by 80%</t>
+  </si>
+  <si>
+    <t># of Rejected Lots by 80%</t>
+  </si>
+  <si>
+    <t>t12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent volunteers trained</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent of volunteers attended training sessions</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bubble Map</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>Annual Case Table</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>IEC Materials Displayed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microplan Reviewed and Updated</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microplan Reviewed and Updated</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>District Review and Planning Meeting</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLW Training Plan Updated</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adequate Vaccine Arrived</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>District Governor Multi-Sectoral Meeting</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIA service providers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social Mobilisation Plan</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infected district (Yes/No)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infected Province (Yes/No)</t>
+  </si>
+  <si>
+    <t>Number of WPV cases</t>
+  </si>
+  <si>
+    <t>data_level</t>
+  </si>
+  <si>
+    <t>date_key</t>
+  </si>
+  <si>
+    <t>month_trend_count</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>Basic Banner</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>m_1</t>
+  </si>
+  <si>
+    <t>Polio Cases 2014-Present</t>
+  </si>
+  <si>
+    <t>to_ingest</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>data_format</t>
+  </si>
+  <si>
+    <t>good_bound</t>
+  </si>
+  <si>
+    <t>bad_bound</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>chart_key</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>chart_type</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of Adequate Specimen </t>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Environmental Samples collected</t>
+  </si>
+  <si>
+    <t>Missed Chilren By Reason</t>
+  </si>
+  <si>
+    <t>Stacked and Grouped Bar</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>LQAS</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Number of reported Non Polio AFP cases</t>
+  </si>
+  <si>
+    <t>Number of Unvaccinated Non Polio AFP Cases</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 1-3 doses</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 4-6 doses</t>
+  </si>
+  <si>
+    <t>Number of Non Polio AFP cases vaccinated 7+ doses</t>
+  </si>
+  <si>
+    <t>Non Polio AFP Rate</t>
+  </si>
+  <si>
+    <t>SIA service providers identified</t>
+  </si>
+  <si>
+    <t>Percent FLW_operation paid</t>
+  </si>
+  <si>
+    <t>Missed Children PCA vs. Out Of House</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of children missed due to all access issues</t>
+  </si>
+  <si>
+    <t>District</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>District</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent FLW_social mobilisers paid</t>
+  </si>
+  <si>
+    <t>Percent volunteers attended training sessions</t>
+  </si>
+  <si>
+    <t>Number of Environmental Samples with Negative result</t>
+  </si>
+  <si>
+    <t>Number of Environmental Samples with Positive result</t>
+  </si>
+  <si>
+    <t>Number of Environmental Samples with result pending in Lab</t>
+  </si>
+  <si>
+    <t>Supervision and monitoring plan</t>
+  </si>
+  <si>
+    <t>Social mobilization plan</t>
+  </si>
+  <si>
+    <t>District Governor multi-sectoral meeting on Polio</t>
+  </si>
+  <si>
+    <t>Number.Vaccinated.Recorded.3days</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number.Children.withFM.Market.Survey</t>
+  </si>
+  <si>
+    <t># children seen - PCA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
   <si>
     <t>t7</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -75,25 +428,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>District review and planning meeting</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervision and monitoring plan updated</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social mobilisation plan in place</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social mobilisation plan</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>District governor multi-sectoral meeting</t>
-  </si>
-  <si>
     <t>Number.Children.Seen.Market.Survey</t>
   </si>
   <si>
@@ -137,6 +471,30 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>Number of Environmental Samples collected</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of Adequate Specimen </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Environmental Samples with Negative result</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent Missed Children - Out of House Survey</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent Missed Children - Out of House Survey</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent Missed Children - PCA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>Immunity Profile</t>
   </si>
   <si>
@@ -217,372 +575,6 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infected district (Yes/No)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infected Province (Yes/No)</t>
-  </si>
-  <si>
-    <t>Number of WPV cases</t>
-  </si>
-  <si>
-    <t>data_level</t>
-  </si>
-  <si>
-    <t>date_key</t>
-  </si>
-  <si>
-    <t>month_trend_count</t>
-  </si>
-  <si>
-    <t>t0</t>
-  </si>
-  <si>
-    <t>Basic Banner</t>
-  </si>
-  <si>
-    <t>Banner</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>m_1</t>
-  </si>
-  <si>
-    <t>Polio Cases 2014-Present</t>
-  </si>
-  <si>
-    <t>to_ingest</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>data_format</t>
-  </si>
-  <si>
-    <t>good_bound</t>
-  </si>
-  <si>
-    <t>bad_bound</t>
-  </si>
-  <si>
-    <t>source_name</t>
-  </si>
-  <si>
-    <t>chart_key</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>chart_type</t>
-  </si>
-  <si>
-    <t>chart</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of Adequate Specimen </t>
-  </si>
-  <si>
-    <t>fake</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Environmental Samples collected</t>
-  </si>
-  <si>
-    <t>Missed Chilren By Reason</t>
-  </si>
-  <si>
-    <t>Stacked and Grouped Bar</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>LQAS</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Number of reported Non Polio AFP cases</t>
-  </si>
-  <si>
-    <t>Number of Unvaccinated Non Polio AFP Cases</t>
-  </si>
-  <si>
-    <t>Number of Non Polio AFP cases vaccinated 1-3 doses</t>
-  </si>
-  <si>
-    <t>Number of Non Polio AFP cases vaccinated 4-6 doses</t>
-  </si>
-  <si>
-    <t>Number of Non Polio AFP cases vaccinated 7+ doses</t>
-  </si>
-  <si>
-    <t>Non Polio AFP Rate</t>
-  </si>
-  <si>
-    <t>SIA service providers identified</t>
-  </si>
-  <si>
-    <t>Percent FLW_operation paid</t>
-  </si>
-  <si>
-    <t>Missed Children PCA vs. Out Of House</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of children missed due to all access issues</t>
-  </si>
-  <si>
-    <t>District</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>District</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent FLW_social mobilisers paid</t>
-  </si>
-  <si>
-    <t>IEC materials displayed</t>
-  </si>
-  <si>
-    <t>Percent volunteers attended training sessions</t>
-  </si>
-  <si>
-    <t>Adequate vaccine arrived</t>
-  </si>
-  <si>
-    <t>Number of Environmental Samples with Negative result</t>
-  </si>
-  <si>
-    <t>Number of Environmental Samples with Positive result</t>
-  </si>
-  <si>
-    <t>Number of Environmental Samples with result pending in Lab</t>
-  </si>
-  <si>
-    <t>District review and planning meeting</t>
-  </si>
-  <si>
-    <t>Micro-plan reviewed_updated</t>
-  </si>
-  <si>
-    <t>FLWs training plan</t>
-  </si>
-  <si>
-    <t>Supervision and monitoring plan</t>
-  </si>
-  <si>
-    <t>Social mobilization plan</t>
-  </si>
-  <si>
-    <t>District Governor multi-sectoral meeting on Polio</t>
-  </si>
-  <si>
-    <t>Number.Vaccinated.Recorded.3days</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number.Children.withFM.Market.Survey</t>
-  </si>
-  <si>
-    <t># children seen - PCA</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t13</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>t13</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>District</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stacked Column Chart</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>% Missed Children - Out of House Survey</t>
-  </si>
-  <si>
-    <t>Perccent of children who are unvaccinated in the outside monitoring sample</t>
-  </si>
-  <si>
-    <t>fake</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>% Missed Children - PCA</t>
-  </si>
-  <si>
-    <t>Percent missed children</t>
-  </si>
-  <si>
-    <t>polio cases</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preparatory Indicators</t>
-  </si>
-  <si>
-    <t>FLW training plan</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Microplan review_update</t>
-  </si>
-  <si>
-    <t>Microplan reviewed and updated</t>
-  </si>
-  <si>
-    <t>SIA Service Providers</t>
-  </si>
-  <si>
-    <t>SIA service providers selected</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent FLWs (social mobilisers) paid</t>
-  </si>
-  <si>
-    <t># children missed due to other reasons - PCA</t>
-  </si>
-  <si>
-    <t>Percent children missed due to refusal - PCA</t>
-  </si>
-  <si>
-    <t>Percent children missed due to not available - PCA</t>
-  </si>
-  <si>
-    <t>Percent children missed due to no team visit - PCA</t>
-  </si>
-  <si>
-    <t>Percent children missed due to other reasons - PCA</t>
-  </si>
-  <si>
-    <t>t11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t># of Accepted Lots by 90%</t>
-  </si>
-  <si>
-    <t># of Accepted Lots by 80%</t>
-  </si>
-  <si>
-    <t># of Rejected Lots by 80%</t>
-  </si>
-  <si>
-    <t>t12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>District Governor multi-sectoral meeting on Polio conducted</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent volunteers trained</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent of volunteers attended training sessions</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adequate vaccine arrived</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adequate vaccine arrived one day before campaign</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLW training plan updated</t>
-  </si>
-  <si>
-    <t>Bubble Map</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>Annual Case Table</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>t3</t>
   </si>
 </sst>
 </file>
@@ -675,7 +667,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -689,6 +681,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -960,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -972,7 +965,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -985,62 +978,62 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -1048,22 +1041,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>28</v>
@@ -1071,22 +1064,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="G5" s="1">
         <v>28</v>
@@ -1094,22 +1087,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1">
         <v>16</v>
@@ -1117,22 +1110,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -1140,22 +1133,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1">
         <v>28</v>
@@ -1163,22 +1156,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -1186,22 +1179,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1209,22 +1202,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1232,22 +1225,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -1255,22 +1248,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1278,22 +1271,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -1301,22 +1294,22 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
         <v>28</v>
@@ -1338,8 +1331,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -1359,28 +1352,28 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1388,16 +1381,16 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1406,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1417,16 +1410,16 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -1435,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1447,16 +1440,16 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1465,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1477,16 +1470,16 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1495,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1507,16 +1500,16 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1525,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1537,16 +1530,16 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1555,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1567,16 +1560,16 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1585,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1597,16 +1590,16 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1615,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1627,16 +1620,16 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1645,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1657,16 +1650,16 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1675,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1687,16 +1680,16 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1705,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1717,16 +1710,16 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -1735,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1747,16 +1740,16 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1765,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1776,17 +1769,17 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" t="s">
-        <v>94</v>
+      <c r="A15" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1795,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1806,17 +1799,17 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>119</v>
+      <c r="A16" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1825,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1837,16 +1830,16 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1855,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1867,16 +1860,16 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1885,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1897,16 +1890,16 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1915,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1926,17 +1919,17 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>123</v>
+      <c r="A20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1945,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1957,16 +1950,16 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1975,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1987,16 +1980,16 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -2005,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2017,16 +2010,16 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -2035,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2047,16 +2040,16 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2065,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2077,16 +2070,16 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -2095,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2107,16 +2100,16 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2125,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2137,16 +2130,16 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2155,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2167,16 +2160,16 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -2185,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2197,16 +2190,16 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -2215,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2227,16 +2220,16 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2245,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2257,16 +2250,16 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -2275,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2287,16 +2280,16 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2305,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2317,16 +2310,16 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2335,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2347,16 +2340,16 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -2365,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2377,16 +2370,16 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -2395,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2407,16 +2400,16 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -2425,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2437,16 +2430,16 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -2455,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2467,16 +2460,16 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -2485,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2497,16 +2490,16 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -2515,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2527,16 +2520,16 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -2545,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2557,16 +2550,16 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -2575,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2587,16 +2580,16 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -2605,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2617,16 +2610,16 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -2635,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2647,16 +2640,16 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -2665,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2677,16 +2670,16 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -2695,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2707,16 +2700,16 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
@@ -2725,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2737,16 +2730,16 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -2755,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2767,16 +2760,16 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
@@ -2785,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2797,16 +2790,16 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -2815,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2827,16 +2820,16 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
@@ -2845,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2857,16 +2850,16 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -2875,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2887,16 +2880,16 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E52" s="5">
         <v>1</v>
@@ -2905,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2917,16 +2910,16 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
@@ -2935,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2947,16 +2940,16 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E54" s="5">
         <v>1</v>
@@ -2965,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2977,16 +2970,16 @@
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -2995,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -3007,16 +3000,16 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E56" s="5">
         <v>1</v>
@@ -3025,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -3037,16 +3030,16 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -3055,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3067,16 +3060,16 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E58" s="5">
         <v>1</v>
@@ -3085,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3097,16 +3090,16 @@
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -3115,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3127,16 +3120,16 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
@@ -3145,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3157,16 +3150,16 @@
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -3175,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3187,16 +3180,16 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -3205,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3217,16 +3210,16 @@
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -3235,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -3250,13 +3243,13 @@
         <v>137</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -3265,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3277,16 +3270,16 @@
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
@@ -3295,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3307,16 +3300,16 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -3325,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
